--- a/sch2_missing.xlsx
+++ b/sch2_missing.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV61"/>
+  <dimension ref="A1:BS61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,55 +675,40 @@
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>school2</t>
+          <t>school2_type</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>school2_4yr</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>school2_ad</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>school2_cc</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>sexual</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>sib_freq</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>stig_pcv_2</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>stig_pcv_3</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>talk</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>ther_vis</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>wcs_tot</t>
         </is>
@@ -922,36 +907,27 @@
         <v>1</v>
       </c>
       <c r="BL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM2">
         <v>1</v>
       </c>
       <c r="BN2">
-        <v>1</v>
+        <v>0.965625</v>
       </c>
       <c r="BO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.965625</v>
+        <v>0.996875</v>
       </c>
       <c r="BR2">
-        <v>0</v>
+        <v>0.6125</v>
       </c>
       <c r="BS2">
-        <v>0</v>
-      </c>
-      <c r="BT2">
-        <v>0.996875</v>
-      </c>
-      <c r="BU2">
-        <v>0.6125</v>
-      </c>
-      <c r="BV2">
         <v>0</v>
       </c>
     </row>
@@ -1148,36 +1124,27 @@
         <v>0.9982479194042926</v>
       </c>
       <c r="BL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM3">
         <v>1</v>
       </c>
       <c r="BN3">
-        <v>1</v>
+        <v>0.9526938239159002</v>
       </c>
       <c r="BO3">
-        <v>1</v>
+        <v>0.6127901883486641</v>
       </c>
       <c r="BP3">
-        <v>1</v>
+        <v>0.6119141480508103</v>
       </c>
       <c r="BQ3">
-        <v>0.9526938239159002</v>
+        <v>0.9947437582128777</v>
       </c>
       <c r="BR3">
-        <v>0.6127901883486641</v>
+        <v>0.4086727989487516</v>
       </c>
       <c r="BS3">
-        <v>0.6119141480508103</v>
-      </c>
-      <c r="BT3">
-        <v>0.9947437582128777</v>
-      </c>
-      <c r="BU3">
-        <v>0.4086727989487516</v>
-      </c>
-      <c r="BV3">
         <v>0</v>
       </c>
     </row>
@@ -1374,36 +1341,27 @@
         <v>1</v>
       </c>
       <c r="BL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM4">
         <v>1</v>
       </c>
       <c r="BN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="BP4">
-        <v>1</v>
+        <v>0.4759090909090909</v>
       </c>
       <c r="BQ4">
-        <v>0</v>
+        <v>0.995</v>
       </c>
       <c r="BR4">
-        <v>0.475</v>
+        <v>0.3354545454545454</v>
       </c>
       <c r="BS4">
-        <v>0.4759090909090909</v>
-      </c>
-      <c r="BT4">
-        <v>0.995</v>
-      </c>
-      <c r="BU4">
-        <v>0.3354545454545454</v>
-      </c>
-      <c r="BV4">
         <v>0</v>
       </c>
     </row>
@@ -1600,36 +1558,27 @@
         <v>0.9978902953586498</v>
       </c>
       <c r="BL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM5">
         <v>1</v>
       </c>
       <c r="BN5">
-        <v>1</v>
+        <v>0.9767932489451476</v>
       </c>
       <c r="BO5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.9767932489451476</v>
+        <v>0.9915611814345991</v>
       </c>
       <c r="BR5">
-        <v>0</v>
+        <v>0.5717299578059072</v>
       </c>
       <c r="BS5">
-        <v>0</v>
-      </c>
-      <c r="BT5">
-        <v>0.9915611814345991</v>
-      </c>
-      <c r="BU5">
-        <v>0.5717299578059072</v>
-      </c>
-      <c r="BV5">
         <v>0</v>
       </c>
     </row>
@@ -1826,36 +1775,27 @@
         <v>0.9879032258064516</v>
       </c>
       <c r="BL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM6">
         <v>1</v>
       </c>
       <c r="BN6">
-        <v>1</v>
+        <v>0.9395161290322581</v>
       </c>
       <c r="BO6">
-        <v>1</v>
+        <v>0.9395161290322581</v>
       </c>
       <c r="BP6">
-        <v>1</v>
+        <v>0.9395161290322581</v>
       </c>
       <c r="BQ6">
-        <v>0.9395161290322581</v>
+        <v>1</v>
       </c>
       <c r="BR6">
-        <v>0.9395161290322581</v>
+        <v>0.5282258064516129</v>
       </c>
       <c r="BS6">
-        <v>0.9395161290322581</v>
-      </c>
-      <c r="BT6">
-        <v>1</v>
-      </c>
-      <c r="BU6">
-        <v>0.5282258064516129</v>
-      </c>
-      <c r="BV6">
         <v>0</v>
       </c>
     </row>
@@ -2052,36 +1992,27 @@
         <v>1</v>
       </c>
       <c r="BL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM7">
         <v>1</v>
       </c>
       <c r="BN7">
-        <v>1</v>
+        <v>0.9329268292682927</v>
       </c>
       <c r="BO7">
-        <v>1</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="BP7">
-        <v>1</v>
+        <v>0.9695121951219512</v>
       </c>
       <c r="BQ7">
-        <v>0.9329268292682927</v>
+        <v>0.9984756097560976</v>
       </c>
       <c r="BR7">
-        <v>0.975609756097561</v>
+        <v>0.5792682926829268</v>
       </c>
       <c r="BS7">
-        <v>0.9695121951219512</v>
-      </c>
-      <c r="BT7">
-        <v>0.9984756097560976</v>
-      </c>
-      <c r="BU7">
-        <v>0.5792682926829268</v>
-      </c>
-      <c r="BV7">
         <v>0</v>
       </c>
     </row>
@@ -2278,36 +2209,27 @@
         <v>0.9957081545064378</v>
       </c>
       <c r="BL8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM8">
         <v>1</v>
       </c>
       <c r="BN8">
-        <v>1</v>
+        <v>0.9656652360515021</v>
       </c>
       <c r="BO8">
-        <v>1</v>
+        <v>0.9399141630901288</v>
       </c>
       <c r="BP8">
-        <v>1</v>
+        <v>0.944206008583691</v>
       </c>
       <c r="BQ8">
-        <v>0.9656652360515021</v>
+        <v>0.9957081545064378</v>
       </c>
       <c r="BR8">
-        <v>0.9399141630901288</v>
+        <v>0.407725321888412</v>
       </c>
       <c r="BS8">
-        <v>0.944206008583691</v>
-      </c>
-      <c r="BT8">
-        <v>0.9957081545064378</v>
-      </c>
-      <c r="BU8">
-        <v>0.407725321888412</v>
-      </c>
-      <c r="BV8">
         <v>0</v>
       </c>
     </row>
@@ -2504,36 +2426,27 @@
         <v>1</v>
       </c>
       <c r="BL9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM9">
         <v>1</v>
       </c>
       <c r="BN9">
-        <v>1</v>
+        <v>0.9703264094955489</v>
       </c>
       <c r="BO9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ9">
-        <v>0.9703264094955489</v>
+        <v>0.9881305637982196</v>
       </c>
       <c r="BR9">
-        <v>0</v>
+        <v>0.5727002967359051</v>
       </c>
       <c r="BS9">
-        <v>0</v>
-      </c>
-      <c r="BT9">
-        <v>0.9881305637982196</v>
-      </c>
-      <c r="BU9">
-        <v>0.5727002967359051</v>
-      </c>
-      <c r="BV9">
         <v>0</v>
       </c>
     </row>
@@ -2730,36 +2643,27 @@
         <v>0.9985855728429985</v>
       </c>
       <c r="BL10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM10">
         <v>1</v>
       </c>
       <c r="BN10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO10">
-        <v>1</v>
+        <v>0.5615275813295615</v>
       </c>
       <c r="BP10">
-        <v>1</v>
+        <v>0.5615275813295615</v>
       </c>
       <c r="BQ10">
-        <v>0</v>
+        <v>0.995049504950495</v>
       </c>
       <c r="BR10">
-        <v>0.5615275813295615</v>
+        <v>0.42998585572843</v>
       </c>
       <c r="BS10">
-        <v>0.5615275813295615</v>
-      </c>
-      <c r="BT10">
-        <v>0.995049504950495</v>
-      </c>
-      <c r="BU10">
-        <v>0.42998585572843</v>
-      </c>
-      <c r="BV10">
         <v>0</v>
       </c>
     </row>
@@ -2956,36 +2860,27 @@
         <v>1</v>
       </c>
       <c r="BL11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM11">
         <v>1</v>
       </c>
       <c r="BN11">
-        <v>1</v>
+        <v>0.9665653495440729</v>
       </c>
       <c r="BO11">
-        <v>1</v>
+        <v>0.9209726443768997</v>
       </c>
       <c r="BP11">
-        <v>1</v>
+        <v>0.9179331306990881</v>
       </c>
       <c r="BQ11">
-        <v>0.9665653495440729</v>
+        <v>0.9878419452887538</v>
       </c>
       <c r="BR11">
-        <v>0.9209726443768997</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="BS11">
-        <v>0.9179331306990881</v>
-      </c>
-      <c r="BT11">
-        <v>0.9878419452887538</v>
-      </c>
-      <c r="BU11">
-        <v>0.3404255319148936</v>
-      </c>
-      <c r="BV11">
         <v>0</v>
       </c>
     </row>
@@ -3182,36 +3077,27 @@
         <v>0.9980657640232108</v>
       </c>
       <c r="BL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM12">
         <v>1</v>
       </c>
       <c r="BN12">
-        <v>1</v>
+        <v>0.9671179883945842</v>
       </c>
       <c r="BO12">
-        <v>1</v>
+        <v>0.9429400386847195</v>
       </c>
       <c r="BP12">
-        <v>1</v>
+        <v>0.9429400386847195</v>
       </c>
       <c r="BQ12">
-        <v>0.9671179883945842</v>
+        <v>0.9903288201160542</v>
       </c>
       <c r="BR12">
-        <v>0.9429400386847195</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="BS12">
-        <v>0.9429400386847195</v>
-      </c>
-      <c r="BT12">
-        <v>0.9903288201160542</v>
-      </c>
-      <c r="BU12">
-        <v>0.5851063829787234</v>
-      </c>
-      <c r="BV12">
         <v>0</v>
       </c>
     </row>
@@ -3408,36 +3294,27 @@
         <v>0.9980392156862745</v>
       </c>
       <c r="BL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM13">
         <v>1</v>
       </c>
       <c r="BN13">
-        <v>1</v>
+        <v>0.9745098039215686</v>
       </c>
       <c r="BO13">
-        <v>1</v>
+        <v>0.9607843137254902</v>
       </c>
       <c r="BP13">
-        <v>1</v>
+        <v>0.9568627450980393</v>
       </c>
       <c r="BQ13">
-        <v>0.9745098039215686</v>
+        <v>0.9941176470588236</v>
       </c>
       <c r="BR13">
-        <v>0.9607843137254902</v>
+        <v>0.3490196078431372</v>
       </c>
       <c r="BS13">
-        <v>0.9568627450980393</v>
-      </c>
-      <c r="BT13">
-        <v>0.9941176470588236</v>
-      </c>
-      <c r="BU13">
-        <v>0.3490196078431372</v>
-      </c>
-      <c r="BV13">
         <v>0</v>
       </c>
     </row>
@@ -3634,36 +3511,27 @@
         <v>0.9976833976833976</v>
       </c>
       <c r="BL14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM14">
         <v>1</v>
       </c>
       <c r="BN14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ14">
-        <v>0</v>
+        <v>0.9884169884169884</v>
       </c>
       <c r="BR14">
-        <v>0</v>
+        <v>0.345945945945946</v>
       </c>
       <c r="BS14">
-        <v>0</v>
-      </c>
-      <c r="BT14">
-        <v>0.9884169884169884</v>
-      </c>
-      <c r="BU14">
-        <v>0.345945945945946</v>
-      </c>
-      <c r="BV14">
         <v>0</v>
       </c>
     </row>
@@ -3860,36 +3728,27 @@
         <v>1</v>
       </c>
       <c r="BL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM15">
         <v>1</v>
       </c>
       <c r="BN15">
-        <v>1</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="BO15">
-        <v>1</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="BP15">
-        <v>1</v>
+        <v>0.9675675675675676</v>
       </c>
       <c r="BQ15">
-        <v>0.972972972972973</v>
+        <v>0.9945945945945946</v>
       </c>
       <c r="BR15">
-        <v>0.972972972972973</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="BS15">
-        <v>0.9675675675675676</v>
-      </c>
-      <c r="BT15">
-        <v>0.9945945945945946</v>
-      </c>
-      <c r="BU15">
-        <v>0.5675675675675675</v>
-      </c>
-      <c r="BV15">
         <v>0</v>
       </c>
     </row>
@@ -4086,36 +3945,27 @@
         <v>0.9984139571768438</v>
       </c>
       <c r="BL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM16">
         <v>1</v>
       </c>
       <c r="BN16">
-        <v>1</v>
+        <v>0.9682791435368755</v>
       </c>
       <c r="BO16">
-        <v>1</v>
+        <v>0.4670896114195083</v>
       </c>
       <c r="BP16">
-        <v>1</v>
+        <v>0.4678826328310864</v>
       </c>
       <c r="BQ16">
-        <v>0.9682791435368755</v>
+        <v>0.992862807295797</v>
       </c>
       <c r="BR16">
-        <v>0.4670896114195083</v>
+        <v>0.3814432989690721</v>
       </c>
       <c r="BS16">
-        <v>0.4678826328310864</v>
-      </c>
-      <c r="BT16">
-        <v>0.992862807295797</v>
-      </c>
-      <c r="BU16">
-        <v>0.3814432989690721</v>
-      </c>
-      <c r="BV16">
         <v>0</v>
       </c>
     </row>
@@ -4312,36 +4162,27 @@
         <v>1</v>
       </c>
       <c r="BL17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM17">
         <v>1</v>
       </c>
       <c r="BN17">
-        <v>1</v>
+        <v>0.9621993127147767</v>
       </c>
       <c r="BO17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ17">
-        <v>0.9621993127147767</v>
+        <v>0.9879725085910653</v>
       </c>
       <c r="BR17">
-        <v>0</v>
+        <v>0.6958762886597938</v>
       </c>
       <c r="BS17">
-        <v>0</v>
-      </c>
-      <c r="BT17">
-        <v>0.9879725085910653</v>
-      </c>
-      <c r="BU17">
-        <v>0.6958762886597938</v>
-      </c>
-      <c r="BV17">
         <v>0</v>
       </c>
     </row>
@@ -4538,36 +4379,27 @@
         <v>0.9977324263038548</v>
       </c>
       <c r="BL18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM18">
         <v>1</v>
       </c>
       <c r="BN18">
-        <v>1</v>
+        <v>0.9727891156462585</v>
       </c>
       <c r="BO18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ18">
-        <v>0.9727891156462585</v>
+        <v>0.9841269841269841</v>
       </c>
       <c r="BR18">
-        <v>0</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="BS18">
-        <v>0</v>
-      </c>
-      <c r="BT18">
-        <v>0.9841269841269841</v>
-      </c>
-      <c r="BU18">
-        <v>0.5918367346938775</v>
-      </c>
-      <c r="BV18">
         <v>0</v>
       </c>
     </row>
@@ -4764,36 +4596,27 @@
         <v>1</v>
       </c>
       <c r="BL19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM19">
         <v>1</v>
       </c>
       <c r="BN19">
-        <v>1</v>
+        <v>0.9698996655518395</v>
       </c>
       <c r="BO19">
-        <v>1</v>
+        <v>0.9175027870680045</v>
       </c>
       <c r="BP19">
-        <v>1</v>
+        <v>0.9163879598662207</v>
       </c>
       <c r="BQ19">
-        <v>0.9698996655518395</v>
+        <v>0.992196209587514</v>
       </c>
       <c r="BR19">
-        <v>0.9175027870680045</v>
+        <v>0.4303232998885173</v>
       </c>
       <c r="BS19">
-        <v>0.9163879598662207</v>
-      </c>
-      <c r="BT19">
-        <v>0.992196209587514</v>
-      </c>
-      <c r="BU19">
-        <v>0.4303232998885173</v>
-      </c>
-      <c r="BV19">
         <v>0</v>
       </c>
     </row>
@@ -4990,36 +4813,27 @@
         <v>1</v>
       </c>
       <c r="BL20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM20">
         <v>1</v>
       </c>
       <c r="BN20">
-        <v>1</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="BO20">
-        <v>1</v>
+        <v>0.9350961538461539</v>
       </c>
       <c r="BP20">
-        <v>1</v>
+        <v>0.9350961538461539</v>
       </c>
       <c r="BQ20">
-        <v>0.9519230769230769</v>
+        <v>0.9927884615384616</v>
       </c>
       <c r="BR20">
-        <v>0.9350961538461539</v>
+        <v>0.3269230769230769</v>
       </c>
       <c r="BS20">
-        <v>0.9350961538461539</v>
-      </c>
-      <c r="BT20">
-        <v>0.9927884615384616</v>
-      </c>
-      <c r="BU20">
-        <v>0.3269230769230769</v>
-      </c>
-      <c r="BV20">
         <v>0</v>
       </c>
     </row>
@@ -5216,36 +5030,27 @@
         <v>1</v>
       </c>
       <c r="BL21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM21">
         <v>1</v>
       </c>
       <c r="BN21">
-        <v>1</v>
+        <v>0.974169741697417</v>
       </c>
       <c r="BO21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ21">
-        <v>0.974169741697417</v>
+        <v>1</v>
       </c>
       <c r="BR21">
-        <v>0</v>
+        <v>0.6937269372693727</v>
       </c>
       <c r="BS21">
-        <v>0</v>
-      </c>
-      <c r="BT21">
-        <v>1</v>
-      </c>
-      <c r="BU21">
-        <v>0.6937269372693727</v>
-      </c>
-      <c r="BV21">
         <v>0</v>
       </c>
     </row>
@@ -5442,36 +5247,27 @@
         <v>0.9971509971509972</v>
       </c>
       <c r="BL22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM22">
         <v>1</v>
       </c>
       <c r="BN22">
-        <v>1</v>
+        <v>0.9515669515669516</v>
       </c>
       <c r="BO22">
-        <v>1</v>
+        <v>0.9572649572649573</v>
       </c>
       <c r="BP22">
-        <v>1</v>
+        <v>0.9544159544159544</v>
       </c>
       <c r="BQ22">
-        <v>0.9515669515669516</v>
+        <v>0.9886039886039886</v>
       </c>
       <c r="BR22">
-        <v>0.9572649572649573</v>
+        <v>0.3447293447293447</v>
       </c>
       <c r="BS22">
-        <v>0.9544159544159544</v>
-      </c>
-      <c r="BT22">
-        <v>0.9886039886039886</v>
-      </c>
-      <c r="BU22">
-        <v>0.3447293447293447</v>
-      </c>
-      <c r="BV22">
         <v>0</v>
       </c>
     </row>
@@ -5668,36 +5464,27 @@
         <v>0.9989832231825114</v>
       </c>
       <c r="BL23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM23">
         <v>1</v>
       </c>
       <c r="BN23">
-        <v>1</v>
+        <v>0.971021860701576</v>
       </c>
       <c r="BO23">
-        <v>1</v>
+        <v>0.4865277071682766</v>
       </c>
       <c r="BP23">
-        <v>1</v>
+        <v>0.4860193187595323</v>
       </c>
       <c r="BQ23">
-        <v>0.971021860701576</v>
+        <v>0.9949161159125572</v>
       </c>
       <c r="BR23">
-        <v>0.4865277071682766</v>
+        <v>0.3838332486019319</v>
       </c>
       <c r="BS23">
-        <v>0.4860193187595323</v>
-      </c>
-      <c r="BT23">
-        <v>0.9949161159125572</v>
-      </c>
-      <c r="BU23">
-        <v>0.3838332486019319</v>
-      </c>
-      <c r="BV23">
         <v>0</v>
       </c>
     </row>
@@ -5894,36 +5681,27 @@
         <v>1</v>
       </c>
       <c r="BL24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM24">
         <v>1</v>
       </c>
       <c r="BN24">
-        <v>1</v>
+        <v>0.9719626168224299</v>
       </c>
       <c r="BO24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ24">
-        <v>0.9719626168224299</v>
+        <v>1</v>
       </c>
       <c r="BR24">
-        <v>0</v>
+        <v>0.5887850467289719</v>
       </c>
       <c r="BS24">
-        <v>0</v>
-      </c>
-      <c r="BT24">
-        <v>1</v>
-      </c>
-      <c r="BU24">
-        <v>0.5887850467289719</v>
-      </c>
-      <c r="BV24">
         <v>0</v>
       </c>
     </row>
@@ -6120,36 +5898,27 @@
         <v>1</v>
       </c>
       <c r="BL25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM25">
         <v>1</v>
       </c>
       <c r="BN25">
-        <v>1</v>
+        <v>0.9747474747474747</v>
       </c>
       <c r="BO25">
-        <v>1</v>
+        <v>0.9191919191919192</v>
       </c>
       <c r="BP25">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="BQ25">
-        <v>0.9747474747474747</v>
+        <v>0.9848484848484849</v>
       </c>
       <c r="BR25">
-        <v>0.9191919191919192</v>
+        <v>0.398989898989899</v>
       </c>
       <c r="BS25">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="BT25">
-        <v>0.9848484848484849</v>
-      </c>
-      <c r="BU25">
-        <v>0.398989898989899</v>
-      </c>
-      <c r="BV25">
         <v>0</v>
       </c>
     </row>
@@ -6346,36 +6115,27 @@
         <v>0.9942196531791907</v>
       </c>
       <c r="BL26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM26">
         <v>1</v>
       </c>
       <c r="BN26">
-        <v>1</v>
+        <v>0.9826589595375722</v>
       </c>
       <c r="BO26">
-        <v>1</v>
+        <v>0.9190751445086706</v>
       </c>
       <c r="BP26">
-        <v>1</v>
+        <v>0.9190751445086706</v>
       </c>
       <c r="BQ26">
-        <v>0.9826589595375722</v>
+        <v>0.9942196531791907</v>
       </c>
       <c r="BR26">
-        <v>0.9190751445086706</v>
+        <v>0.3526011560693642</v>
       </c>
       <c r="BS26">
-        <v>0.9190751445086706</v>
-      </c>
-      <c r="BT26">
-        <v>0.9942196531791907</v>
-      </c>
-      <c r="BU26">
-        <v>0.3526011560693642</v>
-      </c>
-      <c r="BV26">
         <v>0</v>
       </c>
     </row>
@@ -6572,36 +6332,27 @@
         <v>0.9946808510638298</v>
       </c>
       <c r="BL27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM27">
         <v>1</v>
       </c>
       <c r="BN27">
-        <v>1</v>
+        <v>0.9946808510638298</v>
       </c>
       <c r="BO27">
-        <v>1</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="BP27">
-        <v>1</v>
+        <v>0.9095744680851063</v>
       </c>
       <c r="BQ27">
-        <v>0.9946808510638298</v>
+        <v>1</v>
       </c>
       <c r="BR27">
-        <v>0.9148936170212766</v>
+        <v>0.1861702127659574</v>
       </c>
       <c r="BS27">
-        <v>0.9095744680851063</v>
-      </c>
-      <c r="BT27">
-        <v>1</v>
-      </c>
-      <c r="BU27">
-        <v>0.1861702127659574</v>
-      </c>
-      <c r="BV27">
         <v>0</v>
       </c>
     </row>
@@ -6798,36 +6549,27 @@
         <v>0.9984615384615385</v>
       </c>
       <c r="BL28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM28">
         <v>1</v>
       </c>
       <c r="BN28">
-        <v>1</v>
+        <v>0.9723076923076923</v>
       </c>
       <c r="BO28">
-        <v>1</v>
+        <v>0.9030769230769231</v>
       </c>
       <c r="BP28">
-        <v>1</v>
+        <v>0.9015384615384615</v>
       </c>
       <c r="BQ28">
-        <v>0.9723076923076923</v>
+        <v>0.9907692307692307</v>
       </c>
       <c r="BR28">
-        <v>0.9030769230769231</v>
+        <v>0.2984615384615384</v>
       </c>
       <c r="BS28">
-        <v>0.9015384615384615</v>
-      </c>
-      <c r="BT28">
-        <v>0.9907692307692307</v>
-      </c>
-      <c r="BU28">
-        <v>0.2984615384615384</v>
-      </c>
-      <c r="BV28">
         <v>0</v>
       </c>
     </row>
@@ -7024,36 +6766,27 @@
         <v>0.99822695035461</v>
       </c>
       <c r="BL29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM29">
         <v>1</v>
       </c>
       <c r="BN29">
-        <v>1</v>
+        <v>0.9574468085106383</v>
       </c>
       <c r="BO29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ29">
-        <v>0.9574468085106383</v>
+        <v>0.9946808510638298</v>
       </c>
       <c r="BR29">
-        <v>0</v>
+        <v>0.5301418439716312</v>
       </c>
       <c r="BS29">
-        <v>0</v>
-      </c>
-      <c r="BT29">
-        <v>0.9946808510638298</v>
-      </c>
-      <c r="BU29">
-        <v>0.5301418439716312</v>
-      </c>
-      <c r="BV29">
         <v>0</v>
       </c>
     </row>
@@ -7250,36 +6983,27 @@
         <v>1</v>
       </c>
       <c r="BL30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM30">
         <v>1</v>
       </c>
       <c r="BN30">
-        <v>1</v>
+        <v>0.9693877551020408</v>
       </c>
       <c r="BO30">
-        <v>1</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="BP30">
-        <v>1</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="BQ30">
-        <v>0.9693877551020408</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="BR30">
-        <v>0.9387755102040817</v>
+        <v>0.4183673469387755</v>
       </c>
       <c r="BS30">
-        <v>0.9387755102040817</v>
-      </c>
-      <c r="BT30">
-        <v>0.9795918367346939</v>
-      </c>
-      <c r="BU30">
-        <v>0.4183673469387755</v>
-      </c>
-      <c r="BV30">
         <v>0</v>
       </c>
     </row>
@@ -7476,36 +7200,27 @@
         <v>1</v>
       </c>
       <c r="BL31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM31">
         <v>1</v>
       </c>
       <c r="BN31">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="BO31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ31">
-        <v>0.9444444444444444</v>
+        <v>0.9938271604938271</v>
       </c>
       <c r="BR31">
-        <v>0</v>
+        <v>0.5637860082304527</v>
       </c>
       <c r="BS31">
-        <v>0</v>
-      </c>
-      <c r="BT31">
-        <v>0.9938271604938271</v>
-      </c>
-      <c r="BU31">
-        <v>0.5637860082304527</v>
-      </c>
-      <c r="BV31">
         <v>0</v>
       </c>
     </row>
@@ -7702,36 +7417,27 @@
         <v>0.9974874371859297</v>
       </c>
       <c r="BL32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM32">
         <v>1</v>
       </c>
       <c r="BN32">
-        <v>1</v>
+        <v>0.9597989949748744</v>
       </c>
       <c r="BO32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ32">
-        <v>0.9597989949748744</v>
+        <v>0.992462311557789</v>
       </c>
       <c r="BR32">
-        <v>0</v>
+        <v>0.5201005025125628</v>
       </c>
       <c r="BS32">
-        <v>0</v>
-      </c>
-      <c r="BT32">
-        <v>0.992462311557789</v>
-      </c>
-      <c r="BU32">
-        <v>0.5201005025125628</v>
-      </c>
-      <c r="BV32">
         <v>0</v>
       </c>
     </row>
@@ -7928,36 +7634,27 @@
         <v>1</v>
       </c>
       <c r="BL33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM33">
         <v>1</v>
       </c>
       <c r="BN33">
-        <v>1</v>
+        <v>0.963855421686747</v>
       </c>
       <c r="BO33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ33">
-        <v>0.963855421686747</v>
+        <v>0.9909638554216867</v>
       </c>
       <c r="BR33">
-        <v>0</v>
+        <v>0.5602409638554217</v>
       </c>
       <c r="BS33">
-        <v>0</v>
-      </c>
-      <c r="BT33">
-        <v>0.9909638554216867</v>
-      </c>
-      <c r="BU33">
-        <v>0.5602409638554217</v>
-      </c>
-      <c r="BV33">
         <v>0</v>
       </c>
     </row>
@@ -8154,36 +7851,27 @@
         <v>0.9986631016042781</v>
       </c>
       <c r="BL34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM34">
         <v>1</v>
       </c>
       <c r="BN34">
-        <v>1</v>
+        <v>0.9692513368983957</v>
       </c>
       <c r="BO34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ34">
-        <v>0.9692513368983957</v>
+        <v>0.9919786096256684</v>
       </c>
       <c r="BR34">
-        <v>0</v>
+        <v>0.5815508021390374</v>
       </c>
       <c r="BS34">
-        <v>0</v>
-      </c>
-      <c r="BT34">
-        <v>0.9919786096256684</v>
-      </c>
-      <c r="BU34">
-        <v>0.5815508021390374</v>
-      </c>
-      <c r="BV34">
         <v>0</v>
       </c>
     </row>
@@ -8380,36 +8068,27 @@
         <v>0.9979338842975206</v>
       </c>
       <c r="BL35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM35">
         <v>1</v>
       </c>
       <c r="BN35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ35">
-        <v>0</v>
+        <v>0.9958677685950413</v>
       </c>
       <c r="BR35">
-        <v>0</v>
+        <v>0.5206611570247934</v>
       </c>
       <c r="BS35">
-        <v>0</v>
-      </c>
-      <c r="BT35">
-        <v>0.9958677685950413</v>
-      </c>
-      <c r="BU35">
-        <v>0.5206611570247934</v>
-      </c>
-      <c r="BV35">
         <v>0</v>
       </c>
     </row>
@@ -8606,36 +8285,27 @@
         <v>0.9980842911877394</v>
       </c>
       <c r="BL36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM36">
         <v>1</v>
       </c>
       <c r="BN36">
-        <v>1</v>
+        <v>0.946360153256705</v>
       </c>
       <c r="BO36">
-        <v>1</v>
+        <v>0.9703065134099617</v>
       </c>
       <c r="BP36">
-        <v>1</v>
+        <v>0.9693486590038314</v>
       </c>
       <c r="BQ36">
-        <v>0.946360153256705</v>
+        <v>0.9932950191570882</v>
       </c>
       <c r="BR36">
-        <v>0.9703065134099617</v>
+        <v>0.6159003831417624</v>
       </c>
       <c r="BS36">
-        <v>0.9693486590038314</v>
-      </c>
-      <c r="BT36">
-        <v>0.9932950191570882</v>
-      </c>
-      <c r="BU36">
-        <v>0.6159003831417624</v>
-      </c>
-      <c r="BV36">
         <v>0</v>
       </c>
     </row>
@@ -8832,36 +8502,27 @@
         <v>1</v>
       </c>
       <c r="BL37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM37">
         <v>1</v>
       </c>
       <c r="BN37">
-        <v>1</v>
+        <v>0.9594843462246777</v>
       </c>
       <c r="BO37">
-        <v>1</v>
+        <v>0.9594843462246777</v>
       </c>
       <c r="BP37">
-        <v>1</v>
+        <v>0.9613259668508287</v>
       </c>
       <c r="BQ37">
-        <v>0.9594843462246777</v>
+        <v>0.996316758747698</v>
       </c>
       <c r="BR37">
-        <v>0.9594843462246777</v>
+        <v>0.2651933701657458</v>
       </c>
       <c r="BS37">
-        <v>0.9613259668508287</v>
-      </c>
-      <c r="BT37">
-        <v>0.996316758747698</v>
-      </c>
-      <c r="BU37">
-        <v>0.2651933701657458</v>
-      </c>
-      <c r="BV37">
         <v>0</v>
       </c>
     </row>
@@ -9058,36 +8719,27 @@
         <v>1</v>
       </c>
       <c r="BL38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM38">
         <v>1</v>
       </c>
       <c r="BN38">
-        <v>1</v>
+        <v>0.9691991786447639</v>
       </c>
       <c r="BO38">
-        <v>1</v>
+        <v>0.9691991786447639</v>
       </c>
       <c r="BP38">
-        <v>1</v>
+        <v>0.971252566735113</v>
       </c>
       <c r="BQ38">
-        <v>0.9691991786447639</v>
+        <v>1</v>
       </c>
       <c r="BR38">
-        <v>0.9691991786447639</v>
+        <v>0.297741273100616</v>
       </c>
       <c r="BS38">
-        <v>0.971252566735113</v>
-      </c>
-      <c r="BT38">
-        <v>1</v>
-      </c>
-      <c r="BU38">
-        <v>0.297741273100616</v>
-      </c>
-      <c r="BV38">
         <v>0</v>
       </c>
     </row>
@@ -9284,36 +8936,27 @@
         <v>1</v>
       </c>
       <c r="BL39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM39">
         <v>1</v>
       </c>
       <c r="BN39">
-        <v>1</v>
+        <v>0.959758551307847</v>
       </c>
       <c r="BO39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ39">
-        <v>0.959758551307847</v>
+        <v>0.9798792756539235</v>
       </c>
       <c r="BR39">
-        <v>0</v>
+        <v>0.3118712273641851</v>
       </c>
       <c r="BS39">
-        <v>0</v>
-      </c>
-      <c r="BT39">
-        <v>0.9798792756539235</v>
-      </c>
-      <c r="BU39">
-        <v>0.3118712273641851</v>
-      </c>
-      <c r="BV39">
         <v>0</v>
       </c>
     </row>
@@ -9510,36 +9153,27 @@
         <v>0.9982547993019197</v>
       </c>
       <c r="BL40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM40">
         <v>1</v>
       </c>
       <c r="BN40">
-        <v>1</v>
+        <v>0.9511343804537522</v>
       </c>
       <c r="BO40">
-        <v>1</v>
+        <v>0.9528795811518325</v>
       </c>
       <c r="BP40">
-        <v>1</v>
+        <v>0.9528795811518325</v>
       </c>
       <c r="BQ40">
-        <v>0.9511343804537522</v>
+        <v>0.9965095986038395</v>
       </c>
       <c r="BR40">
-        <v>0.9528795811518325</v>
+        <v>0.4467713787085515</v>
       </c>
       <c r="BS40">
-        <v>0.9528795811518325</v>
-      </c>
-      <c r="BT40">
-        <v>0.9965095986038395</v>
-      </c>
-      <c r="BU40">
-        <v>0.4467713787085515</v>
-      </c>
-      <c r="BV40">
         <v>0</v>
       </c>
     </row>
@@ -9736,36 +9370,27 @@
         <v>0.9985074626865672</v>
       </c>
       <c r="BL41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM41">
         <v>1</v>
       </c>
       <c r="BN41">
-        <v>1</v>
+        <v>0.9567164179104478</v>
       </c>
       <c r="BO41">
-        <v>1</v>
+        <v>0.9238805970149254</v>
       </c>
       <c r="BP41">
-        <v>1</v>
+        <v>0.9283582089552239</v>
       </c>
       <c r="BQ41">
-        <v>0.9567164179104478</v>
+        <v>0.9985074626865672</v>
       </c>
       <c r="BR41">
-        <v>0.9238805970149254</v>
+        <v>0.4686567164179105</v>
       </c>
       <c r="BS41">
-        <v>0.9283582089552239</v>
-      </c>
-      <c r="BT41">
-        <v>0.9985074626865672</v>
-      </c>
-      <c r="BU41">
-        <v>0.4686567164179105</v>
-      </c>
-      <c r="BV41">
         <v>0</v>
       </c>
     </row>
@@ -9962,36 +9587,27 @@
         <v>0.9983388704318937</v>
       </c>
       <c r="BL42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM42">
         <v>1</v>
       </c>
       <c r="BN42">
-        <v>1</v>
+        <v>0.9479512735326688</v>
       </c>
       <c r="BO42">
-        <v>1</v>
+        <v>0.9772978959025471</v>
       </c>
       <c r="BP42">
-        <v>1</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="BQ42">
-        <v>0.9479512735326688</v>
+        <v>0.9983388704318937</v>
       </c>
       <c r="BR42">
-        <v>0.9772978959025471</v>
+        <v>0.3981173864894795</v>
       </c>
       <c r="BS42">
-        <v>0.9767441860465116</v>
-      </c>
-      <c r="BT42">
-        <v>0.9983388704318937</v>
-      </c>
-      <c r="BU42">
-        <v>0.3981173864894795</v>
-      </c>
-      <c r="BV42">
         <v>0</v>
       </c>
     </row>
@@ -10188,36 +9804,27 @@
         <v>0.9981818181818182</v>
       </c>
       <c r="BL43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM43">
         <v>1</v>
       </c>
       <c r="BN43">
-        <v>1</v>
+        <v>0.9418181818181818</v>
       </c>
       <c r="BO43">
-        <v>1</v>
+        <v>0.9690909090909091</v>
       </c>
       <c r="BP43">
-        <v>1</v>
+        <v>0.9690909090909091</v>
       </c>
       <c r="BQ43">
-        <v>0.9418181818181818</v>
+        <v>0.9927272727272727</v>
       </c>
       <c r="BR43">
-        <v>0.9690909090909091</v>
+        <v>0.3781818181818182</v>
       </c>
       <c r="BS43">
-        <v>0.9690909090909091</v>
-      </c>
-      <c r="BT43">
-        <v>0.9927272727272727</v>
-      </c>
-      <c r="BU43">
-        <v>0.3781818181818182</v>
-      </c>
-      <c r="BV43">
         <v>0</v>
       </c>
     </row>
@@ -10414,36 +10021,27 @@
         <v>0.9993164730006835</v>
       </c>
       <c r="BL44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM44">
         <v>1</v>
       </c>
       <c r="BN44">
-        <v>1</v>
+        <v>0.9371155160628845</v>
       </c>
       <c r="BO44">
-        <v>1</v>
+        <v>0.9371155160628845</v>
       </c>
       <c r="BP44">
-        <v>1</v>
+        <v>0.9371155160628845</v>
       </c>
       <c r="BQ44">
-        <v>0.9371155160628845</v>
+        <v>0.9911141490088858</v>
       </c>
       <c r="BR44">
-        <v>0.9371155160628845</v>
+        <v>0.508544087491456</v>
       </c>
       <c r="BS44">
-        <v>0.9371155160628845</v>
-      </c>
-      <c r="BT44">
-        <v>0.9911141490088858</v>
-      </c>
-      <c r="BU44">
-        <v>0.508544087491456</v>
-      </c>
-      <c r="BV44">
         <v>0</v>
       </c>
     </row>
@@ -10640,36 +10238,27 @@
         <v>0.9987531172069826</v>
       </c>
       <c r="BL45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM45">
         <v>1</v>
       </c>
       <c r="BN45">
-        <v>1</v>
+        <v>0.9314214463840399</v>
       </c>
       <c r="BO45">
-        <v>1</v>
+        <v>0.972568578553616</v>
       </c>
       <c r="BP45">
-        <v>1</v>
+        <v>0.972568578553616</v>
       </c>
       <c r="BQ45">
-        <v>0.9314214463840399</v>
+        <v>0.9937655860349127</v>
       </c>
       <c r="BR45">
-        <v>0.972568578553616</v>
+        <v>0.4688279301745636</v>
       </c>
       <c r="BS45">
-        <v>0.972568578553616</v>
-      </c>
-      <c r="BT45">
-        <v>0.9937655860349127</v>
-      </c>
-      <c r="BU45">
-        <v>0.4688279301745636</v>
-      </c>
-      <c r="BV45">
         <v>0</v>
       </c>
     </row>
@@ -10866,36 +10455,27 @@
         <v>0.9996722386102918</v>
       </c>
       <c r="BL46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM46">
         <v>1</v>
       </c>
       <c r="BN46">
-        <v>1</v>
+        <v>0.9603408718452966</v>
       </c>
       <c r="BO46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ46">
-        <v>0.9603408718452966</v>
+        <v>0.9895116355293346</v>
       </c>
       <c r="BR46">
-        <v>0</v>
+        <v>0.3359554244509997</v>
       </c>
       <c r="BS46">
-        <v>0</v>
-      </c>
-      <c r="BT46">
-        <v>0.9895116355293346</v>
-      </c>
-      <c r="BU46">
-        <v>0.3359554244509997</v>
-      </c>
-      <c r="BV46">
         <v>0</v>
       </c>
     </row>
@@ -11092,36 +10672,27 @@
         <v>0.9979757085020243</v>
       </c>
       <c r="BL47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM47">
         <v>1</v>
       </c>
       <c r="BN47">
-        <v>1</v>
+        <v>0.9757085020242915</v>
       </c>
       <c r="BO47">
-        <v>1</v>
+        <v>0.9412955465587044</v>
       </c>
       <c r="BP47">
-        <v>1</v>
+        <v>0.9372469635627531</v>
       </c>
       <c r="BQ47">
-        <v>0.9757085020242915</v>
+        <v>0.9939271255060729</v>
       </c>
       <c r="BR47">
-        <v>0.9412955465587044</v>
+        <v>0.2651821862348178</v>
       </c>
       <c r="BS47">
-        <v>0.9372469635627531</v>
-      </c>
-      <c r="BT47">
-        <v>0.9939271255060729</v>
-      </c>
-      <c r="BU47">
-        <v>0.2651821862348178</v>
-      </c>
-      <c r="BV47">
         <v>0</v>
       </c>
     </row>
@@ -11318,36 +10889,27 @@
         <v>0.9989304812834224</v>
       </c>
       <c r="BL48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM48">
         <v>1</v>
       </c>
       <c r="BN48">
-        <v>1</v>
+        <v>0.9379679144385027</v>
       </c>
       <c r="BO48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ48">
-        <v>0.9379679144385027</v>
+        <v>0.9871657754010695</v>
       </c>
       <c r="BR48">
-        <v>0</v>
+        <v>0.4192513368983957</v>
       </c>
       <c r="BS48">
-        <v>0</v>
-      </c>
-      <c r="BT48">
-        <v>0.9871657754010695</v>
-      </c>
-      <c r="BU48">
-        <v>0.4192513368983957</v>
-      </c>
-      <c r="BV48">
         <v>0</v>
       </c>
     </row>
@@ -11544,36 +11106,27 @@
         <v>1</v>
       </c>
       <c r="BL49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM49">
         <v>1</v>
       </c>
       <c r="BN49">
-        <v>1</v>
+        <v>0.9719626168224299</v>
       </c>
       <c r="BO49">
-        <v>1</v>
+        <v>0.9672897196261683</v>
       </c>
       <c r="BP49">
-        <v>1</v>
+        <v>0.9626168224299065</v>
       </c>
       <c r="BQ49">
-        <v>0.9719626168224299</v>
+        <v>1</v>
       </c>
       <c r="BR49">
-        <v>0.9672897196261683</v>
+        <v>0.6682242990654206</v>
       </c>
       <c r="BS49">
-        <v>0.9626168224299065</v>
-      </c>
-      <c r="BT49">
-        <v>1</v>
-      </c>
-      <c r="BU49">
-        <v>0.6682242990654206</v>
-      </c>
-      <c r="BV49">
         <v>0</v>
       </c>
     </row>
@@ -11770,36 +11323,27 @@
         <v>0.9979188345473465</v>
       </c>
       <c r="BL50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM50">
         <v>1</v>
       </c>
       <c r="BN50">
-        <v>1</v>
+        <v>0.9552549427679501</v>
       </c>
       <c r="BO50">
-        <v>1</v>
+        <v>0.8678459937565036</v>
       </c>
       <c r="BP50">
-        <v>1</v>
+        <v>0.8678459937565036</v>
       </c>
       <c r="BQ50">
-        <v>0.9552549427679501</v>
+        <v>0.9947970863683663</v>
       </c>
       <c r="BR50">
-        <v>0.8678459937565036</v>
+        <v>0.3579604578563996</v>
       </c>
       <c r="BS50">
-        <v>0.8678459937565036</v>
-      </c>
-      <c r="BT50">
-        <v>0.9947970863683663</v>
-      </c>
-      <c r="BU50">
-        <v>0.3579604578563996</v>
-      </c>
-      <c r="BV50">
         <v>0</v>
       </c>
     </row>
@@ -11996,36 +11540,27 @@
         <v>0.9990574929311969</v>
       </c>
       <c r="BL51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM51">
         <v>1</v>
       </c>
       <c r="BN51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ51">
-        <v>0</v>
+        <v>0.9839773798303487</v>
       </c>
       <c r="BR51">
-        <v>0</v>
+        <v>0.354382657869934</v>
       </c>
       <c r="BS51">
-        <v>0</v>
-      </c>
-      <c r="BT51">
-        <v>0.9839773798303487</v>
-      </c>
-      <c r="BU51">
-        <v>0.354382657869934</v>
-      </c>
-      <c r="BV51">
         <v>0</v>
       </c>
     </row>
@@ -12222,36 +11757,27 @@
         <v>0.9962616822429906</v>
       </c>
       <c r="BL52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM52">
         <v>1</v>
       </c>
       <c r="BN52">
-        <v>1</v>
+        <v>0.9551401869158879</v>
       </c>
       <c r="BO52">
-        <v>1</v>
+        <v>0.9607476635514018</v>
       </c>
       <c r="BP52">
-        <v>1</v>
+        <v>0.9588785046728971</v>
       </c>
       <c r="BQ52">
-        <v>0.9551401869158879</v>
+        <v>0.9962616822429906</v>
       </c>
       <c r="BR52">
-        <v>0.9607476635514018</v>
+        <v>0.3719626168224299</v>
       </c>
       <c r="BS52">
-        <v>0.9588785046728971</v>
-      </c>
-      <c r="BT52">
-        <v>0.9962616822429906</v>
-      </c>
-      <c r="BU52">
-        <v>0.3719626168224299</v>
-      </c>
-      <c r="BV52">
         <v>0</v>
       </c>
     </row>
@@ -12448,36 +11974,27 @@
         <v>1</v>
       </c>
       <c r="BL53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM53">
         <v>1</v>
       </c>
       <c r="BN53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO53">
-        <v>1</v>
+        <v>0.9676511954992968</v>
       </c>
       <c r="BP53">
-        <v>1</v>
+        <v>0.9676511954992968</v>
       </c>
       <c r="BQ53">
-        <v>0</v>
+        <v>0.9957805907172996</v>
       </c>
       <c r="BR53">
-        <v>0.9676511954992968</v>
+        <v>0.3037974683544304</v>
       </c>
       <c r="BS53">
-        <v>0.9676511954992968</v>
-      </c>
-      <c r="BT53">
-        <v>0.9957805907172996</v>
-      </c>
-      <c r="BU53">
-        <v>0.3037974683544304</v>
-      </c>
-      <c r="BV53">
         <v>0</v>
       </c>
     </row>
@@ -12674,36 +12191,27 @@
         <v>1</v>
       </c>
       <c r="BL54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM54">
         <v>1</v>
       </c>
       <c r="BN54">
-        <v>1</v>
+        <v>0.9489603024574669</v>
       </c>
       <c r="BO54">
-        <v>1</v>
+        <v>0.9508506616257089</v>
       </c>
       <c r="BP54">
-        <v>1</v>
+        <v>0.9508506616257089</v>
       </c>
       <c r="BQ54">
-        <v>0.9489603024574669</v>
+        <v>0.9886578449905482</v>
       </c>
       <c r="BR54">
-        <v>0.9508506616257089</v>
+        <v>0.4517958412098299</v>
       </c>
       <c r="BS54">
-        <v>0.9508506616257089</v>
-      </c>
-      <c r="BT54">
-        <v>0.9886578449905482</v>
-      </c>
-      <c r="BU54">
-        <v>0.4517958412098299</v>
-      </c>
-      <c r="BV54">
         <v>0</v>
       </c>
     </row>
@@ -12900,36 +12408,27 @@
         <v>0.9972008397480756</v>
       </c>
       <c r="BL55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM55">
         <v>1</v>
       </c>
       <c r="BN55">
-        <v>1</v>
+        <v>0.947515745276417</v>
       </c>
       <c r="BO55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ55">
-        <v>0.947515745276417</v>
+        <v>0.9958012596221134</v>
       </c>
       <c r="BR55">
-        <v>0</v>
+        <v>0.4275717284814556</v>
       </c>
       <c r="BS55">
-        <v>0</v>
-      </c>
-      <c r="BT55">
-        <v>0.9958012596221134</v>
-      </c>
-      <c r="BU55">
-        <v>0.4275717284814556</v>
-      </c>
-      <c r="BV55">
         <v>0</v>
       </c>
     </row>
@@ -13126,36 +12625,27 @@
         <v>1</v>
       </c>
       <c r="BL56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM56">
         <v>1</v>
       </c>
       <c r="BN56">
-        <v>1</v>
+        <v>0.9827586206896551</v>
       </c>
       <c r="BO56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ56">
-        <v>0.9827586206896551</v>
+        <v>1</v>
       </c>
       <c r="BR56">
-        <v>0</v>
+        <v>0.5344827586206896</v>
       </c>
       <c r="BS56">
-        <v>0</v>
-      </c>
-      <c r="BT56">
-        <v>1</v>
-      </c>
-      <c r="BU56">
-        <v>0.5344827586206896</v>
-      </c>
-      <c r="BV56">
         <v>0</v>
       </c>
     </row>
@@ -13352,36 +12842,27 @@
         <v>1</v>
       </c>
       <c r="BL57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM57">
         <v>1</v>
       </c>
       <c r="BN57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ57">
-        <v>0</v>
+        <v>0.9873073436083409</v>
       </c>
       <c r="BR57">
-        <v>0</v>
+        <v>0.4315503173164098</v>
       </c>
       <c r="BS57">
-        <v>0</v>
-      </c>
-      <c r="BT57">
-        <v>0.9873073436083409</v>
-      </c>
-      <c r="BU57">
-        <v>0.4315503173164098</v>
-      </c>
-      <c r="BV57">
         <v>0</v>
       </c>
     </row>
@@ -13578,36 +13059,27 @@
         <v>0.9980544747081712</v>
       </c>
       <c r="BL58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM58">
         <v>1</v>
       </c>
       <c r="BN58">
-        <v>1</v>
+        <v>0.9688715953307393</v>
       </c>
       <c r="BO58">
-        <v>1</v>
+        <v>0.9280155642023347</v>
       </c>
       <c r="BP58">
-        <v>1</v>
+        <v>0.9299610894941635</v>
       </c>
       <c r="BQ58">
-        <v>0.9688715953307393</v>
+        <v>0.9941634241245136</v>
       </c>
       <c r="BR58">
-        <v>0.9280155642023347</v>
+        <v>0.3754863813229572</v>
       </c>
       <c r="BS58">
-        <v>0.9299610894941635</v>
-      </c>
-      <c r="BT58">
-        <v>0.9941634241245136</v>
-      </c>
-      <c r="BU58">
-        <v>0.3754863813229572</v>
-      </c>
-      <c r="BV58">
         <v>0</v>
       </c>
     </row>
@@ -13804,36 +13276,27 @@
         <v>1</v>
       </c>
       <c r="BL59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM59">
         <v>1</v>
       </c>
       <c r="BN59">
-        <v>1</v>
+        <v>0.9754385964912281</v>
       </c>
       <c r="BO59">
-        <v>1</v>
+        <v>0.9701754385964912</v>
       </c>
       <c r="BP59">
-        <v>1</v>
+        <v>0.9701754385964912</v>
       </c>
       <c r="BQ59">
-        <v>0.9754385964912281</v>
+        <v>0.9982456140350877</v>
       </c>
       <c r="BR59">
-        <v>0.9701754385964912</v>
+        <v>0.5035087719298246</v>
       </c>
       <c r="BS59">
-        <v>0.9701754385964912</v>
-      </c>
-      <c r="BT59">
-        <v>0.9982456140350877</v>
-      </c>
-      <c r="BU59">
-        <v>0.5035087719298246</v>
-      </c>
-      <c r="BV59">
         <v>0</v>
       </c>
     </row>
@@ -14030,36 +13493,27 @@
         <v>0.998001998001998</v>
       </c>
       <c r="BL60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM60">
         <v>1</v>
       </c>
       <c r="BN60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO60">
-        <v>1</v>
+        <v>0.9600399600399601</v>
       </c>
       <c r="BP60">
-        <v>1</v>
+        <v>0.958041958041958</v>
       </c>
       <c r="BQ60">
-        <v>0</v>
+        <v>0.993006993006993</v>
       </c>
       <c r="BR60">
-        <v>0.9600399600399601</v>
+        <v>0.3476523476523476</v>
       </c>
       <c r="BS60">
-        <v>0.958041958041958</v>
-      </c>
-      <c r="BT60">
-        <v>0.993006993006993</v>
-      </c>
-      <c r="BU60">
-        <v>0.3476523476523476</v>
-      </c>
-      <c r="BV60">
         <v>0</v>
       </c>
     </row>
@@ -14256,36 +13710,27 @@
         <v>0.9986910994764397</v>
       </c>
       <c r="BL61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM61">
         <v>1</v>
       </c>
       <c r="BN61">
-        <v>1</v>
+        <v>0.9476439790575916</v>
       </c>
       <c r="BO61">
-        <v>1</v>
+        <v>0.9607329842931938</v>
       </c>
       <c r="BP61">
-        <v>1</v>
+        <v>0.9607329842931938</v>
       </c>
       <c r="BQ61">
-        <v>0.9476439790575916</v>
+        <v>0.9908376963350786</v>
       </c>
       <c r="BR61">
-        <v>0.9607329842931938</v>
+        <v>0.3926701570680629</v>
       </c>
       <c r="BS61">
-        <v>0.9607329842931938</v>
-      </c>
-      <c r="BT61">
-        <v>0.9908376963350786</v>
-      </c>
-      <c r="BU61">
-        <v>0.3926701570680629</v>
-      </c>
-      <c r="BV61">
         <v>0</v>
       </c>
     </row>

--- a/sch2_missing.xlsx
+++ b/sch2_missing.xlsx
@@ -721,7 +721,7 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.16875</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.9991239597021463</v>
+        <v>0.1213315812527376</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.1122727272727273</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.1540084388185654</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.9959677419354839</v>
+        <v>0.157258064516129</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.9984756097560976</v>
+        <v>0.211890243902439</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.09012875536480687</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.1275964391691395</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.1018387553041018</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -2512,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.1124620060790274</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.1566731141199226</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -2910,7 +2910,7 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.9980392156862745</v>
+        <v>0.08431372549019608</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.9992277992277993</v>
+        <v>0.07644787644787644</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.2054054054054054</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.1467089611419508</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -3905,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.1315192743764172</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.9988851727982163</v>
+        <v>0.1003344481605351</v>
       </c>
       <c r="M19">
         <v>0.1560758082497213</v>
@@ -4303,7 +4303,7 @@
         <v>1</v>
       </c>
       <c r="L20">
-        <v>0.9975961538461539</v>
+        <v>0.125</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.08487084870848709</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -4701,7 +4701,7 @@
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.07977207977207977</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.1220132180986273</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -5099,7 +5099,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -5298,7 +5298,7 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0.9974747474747475</v>
+        <v>0.1035353535353535</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.09826589595375723</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -5696,7 +5696,7 @@
         <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.1117021276595745</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -5895,7 +5895,7 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.07230769230769231</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -6094,7 +6094,7 @@
         <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.1400709219858156</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -6293,7 +6293,7 @@
         <v>1</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.1122448979591837</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -6492,7 +6492,7 @@
         <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.154320987654321</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -6691,7 +6691,7 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <v>0.9974874371859297</v>
+        <v>0.1155778894472362</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -6890,7 +6890,7 @@
         <v>1</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>0.1596385542168675</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -7089,7 +7089,7 @@
         <v>1</v>
       </c>
       <c r="L34">
-        <v>0.9986631016042781</v>
+        <v>0.1804812834224599</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -7288,7 +7288,7 @@
         <v>1</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0.1838842975206612</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -7487,7 +7487,7 @@
         <v>1</v>
       </c>
       <c r="L36">
-        <v>0.9980842911877394</v>
+        <v>0.1360153256704981</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -7686,7 +7686,7 @@
         <v>1</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.03683241252302026</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -7885,7 +7885,7 @@
         <v>1</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>0.1047227926078029</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -8084,7 +8084,7 @@
         <v>1</v>
       </c>
       <c r="L39">
-        <v>0.9959758551307847</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -8283,7 +8283,7 @@
         <v>1</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>0.1256544502617801</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>1</v>
       </c>
       <c r="L41">
-        <v>0.9985074626865672</v>
+        <v>0.1328358208955224</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -8681,7 +8681,7 @@
         <v>1</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>0.1085271317829457</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -8880,7 +8880,7 @@
         <v>1</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>0.05636363636363637</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -9079,7 +9079,7 @@
         <v>1</v>
       </c>
       <c r="L44">
-        <v>0.9993164730006835</v>
+        <v>0.1189336978810663</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -9278,7 +9278,7 @@
         <v>1</v>
       </c>
       <c r="L45">
-        <v>1</v>
+        <v>0.1122194513715711</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>1</v>
       </c>
       <c r="L46">
-        <v>0.9993444772205834</v>
+        <v>0.1242215666994428</v>
       </c>
       <c r="M46">
         <v>0.173713536545395</v>
@@ -9676,7 +9676,7 @@
         <v>1</v>
       </c>
       <c r="L47">
-        <v>0.9979757085020243</v>
+        <v>0.09919028340080972</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="L48">
-        <v>0.9978609625668449</v>
+        <v>0.08983957219251337</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -10074,7 +10074,7 @@
         <v>1</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>0.191588785046729</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -10273,7 +10273,7 @@
         <v>1</v>
       </c>
       <c r="L50">
-        <v>0.9994797086368367</v>
+        <v>0.1071800208116545</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -10472,7 +10472,7 @@
         <v>1</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>0.08765315739868049</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -10671,7 +10671,7 @@
         <v>1</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>0.1233644859813084</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -10870,7 +10870,7 @@
         <v>1</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>0.0970464135021097</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>1</v>
       </c>
       <c r="L54">
-        <v>0.998109640831758</v>
+        <v>0.1323251417769376</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -11268,7 +11268,7 @@
         <v>1</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <v>0.118964310706788</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -11467,7 +11467,7 @@
         <v>1</v>
       </c>
       <c r="L56">
-        <v>1</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -11666,7 +11666,7 @@
         <v>1</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>0.08975521305530372</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -11865,7 +11865,7 @@
         <v>1</v>
       </c>
       <c r="L58">
-        <v>1</v>
+        <v>0.1147859922178988</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -12064,7 +12064,7 @@
         <v>1</v>
       </c>
       <c r="L59">
-        <v>0.9982456140350877</v>
+        <v>0.1631578947368421</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -12263,7 +12263,7 @@
         <v>1</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>0.1098901098901099</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -12462,7 +12462,7 @@
         <v>1</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>0.1400523560209424</v>
       </c>
       <c r="M61">
         <v>0</v>

--- a/sch2_missing.xlsx
+++ b/sch2_missing.xlsx
@@ -874,25 +874,25 @@
         </is>
       </c>
       <c r="B3">
-        <v>2283</v>
+        <v>2286</v>
       </c>
       <c r="C3">
-        <v>0.5926412614980289</v>
+        <v>0.5927384076990376</v>
       </c>
       <c r="D3">
-        <v>0.3942181340341656</v>
+        <v>0.3941382327209099</v>
       </c>
       <c r="E3">
-        <v>0.9982479194042926</v>
+        <v>0.9978127734033246</v>
       </c>
       <c r="F3">
-        <v>0.9189662724485327</v>
+        <v>0.9186351706036745</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.9776609724047306</v>
+        <v>0.9776902887139107</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -901,142 +901,142 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0.9991239597021463</v>
+        <v>0.9991251093613298</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9995619798510732</v>
+        <v>0.9995625546806649</v>
       </c>
       <c r="N3">
-        <v>0.6079719667104687</v>
+        <v>0.6084864391951006</v>
       </c>
       <c r="O3">
-        <v>0.6066579062636881</v>
+        <v>0.6071741032370953</v>
       </c>
       <c r="P3">
-        <v>0.6066579062636881</v>
+        <v>0.6071741032370953</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3">
-        <v>0.9986859395532195</v>
+        <v>0.9986876640419947</v>
       </c>
       <c r="S3">
-        <v>0.5961454226894437</v>
+        <v>0.5962379702537183</v>
       </c>
       <c r="T3">
-        <v>0.9378011388523873</v>
+        <v>0.9378827646544182</v>
       </c>
       <c r="U3">
-        <v>0.6114761279018834</v>
+        <v>0.6115485564304461</v>
       </c>
       <c r="V3">
-        <v>0.9789750328515112</v>
+        <v>0.979002624671916</v>
       </c>
       <c r="W3">
-        <v>0.607095926412615</v>
+        <v>0.6076115485564304</v>
       </c>
       <c r="X3">
-        <v>0.6053438458169076</v>
+        <v>0.6058617672790901</v>
       </c>
       <c r="Y3">
-        <v>0.2290845378887429</v>
+        <v>0.2292213473315836</v>
       </c>
       <c r="Z3">
-        <v>0.7840560665790627</v>
+        <v>0.7839020122484689</v>
       </c>
       <c r="AA3">
-        <v>0.7222952255803767</v>
+        <v>0.7217847769028871</v>
       </c>
       <c r="AB3">
-        <v>0.703898379325449</v>
+        <v>0.7034120734908137</v>
       </c>
       <c r="AC3">
-        <v>0.8926850635129215</v>
+        <v>0.8923884514435696</v>
       </c>
       <c r="AD3">
-        <v>0.6955759964958388</v>
+        <v>0.6955380577427821</v>
       </c>
       <c r="AE3">
-        <v>0.7279894875164258</v>
+        <v>0.7279090113735783</v>
       </c>
       <c r="AF3">
-        <v>0.9951817783618047</v>
+        <v>0.9951881014873141</v>
       </c>
       <c r="AG3">
-        <v>0.607095926412615</v>
+        <v>0.6076115485564304</v>
       </c>
       <c r="AH3">
-        <v>0.9995619798510732</v>
+        <v>0.9991251093613298</v>
       </c>
       <c r="AI3">
-        <v>0.9991239597021463</v>
+        <v>0.9986876640419947</v>
       </c>
       <c r="AJ3">
-        <v>0.9956197985107315</v>
+        <v>0.9956255468066492</v>
       </c>
       <c r="AK3">
-        <v>0.8839246605343846</v>
+        <v>0.8836395450568679</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
-        <v>0.9916776171703898</v>
+        <v>0.9908136482939632</v>
       </c>
       <c r="AN3">
-        <v>0.9829172141918529</v>
+        <v>0.9829396325459318</v>
       </c>
       <c r="AO3">
-        <v>0.7731055628558914</v>
+        <v>0.7729658792650919</v>
       </c>
       <c r="AP3">
-        <v>0.9995619798510732</v>
+        <v>0.9995625546806649</v>
       </c>
       <c r="AQ3">
-        <v>0.856329391151993</v>
+        <v>0.8560804899387576</v>
       </c>
       <c r="AR3">
         <v>1</v>
       </c>
       <c r="AS3">
-        <v>0.9167761717038984</v>
+        <v>0.916010498687664</v>
       </c>
       <c r="AT3">
-        <v>0.803328953131844</v>
+        <v>0.8031496062992126</v>
       </c>
       <c r="AU3">
-        <v>0.8169075777485765</v>
+        <v>0.8167104111986002</v>
       </c>
       <c r="AV3">
-        <v>0.8480070083223828</v>
+        <v>0.847331583552056</v>
       </c>
       <c r="AW3">
-        <v>0.9991239597021463</v>
+        <v>0.9991251093613298</v>
       </c>
       <c r="AX3">
-        <v>0.5295663600525624</v>
+        <v>0.5297462817147857</v>
       </c>
       <c r="AY3">
-        <v>1</v>
+        <v>0.9995625546806649</v>
       </c>
       <c r="AZ3">
-        <v>0.994305738063951</v>
+        <v>0.9943132108486439</v>
       </c>
       <c r="BA3">
-        <v>0.9995619798510732</v>
+        <v>0.9995625546806649</v>
       </c>
       <c r="BB3">
-        <v>1</v>
+        <v>0.9986876640419947</v>
       </c>
       <c r="BC3">
-        <v>0.9995619798510732</v>
+        <v>0.9995625546806649</v>
       </c>
       <c r="BD3">
-        <v>0.9982479194042926</v>
+        <v>0.9982502187226596</v>
       </c>
       <c r="BE3">
         <v>1</v>
@@ -1045,19 +1045,19 @@
         <v>1</v>
       </c>
       <c r="BG3">
-        <v>0.9526938239159002</v>
+        <v>0.952755905511811</v>
       </c>
       <c r="BH3">
-        <v>0.6127901883486641</v>
+        <v>0.6128608923884514</v>
       </c>
       <c r="BI3">
-        <v>0.6119141480508103</v>
+        <v>0.6119860017497812</v>
       </c>
       <c r="BJ3">
-        <v>0.9947437582128777</v>
+        <v>0.994750656167979</v>
       </c>
       <c r="BK3">
-        <v>0.4086727989487516</v>
+        <v>0.4090113735783027</v>
       </c>
     </row>
     <row r="4">
@@ -1067,19 +1067,19 @@
         </is>
       </c>
       <c r="B4">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="C4">
-        <v>0.4827272727272727</v>
+        <v>0.4825079509313948</v>
       </c>
       <c r="D4">
-        <v>0.3518181818181818</v>
+        <v>0.3516583371194911</v>
       </c>
       <c r="E4">
-        <v>0.9986363636363637</v>
+        <v>0.9986369831894594</v>
       </c>
       <c r="F4">
-        <v>0.955</v>
+        <v>0.9550204452521581</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1100,16 +1100,16 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.9990909090909091</v>
+        <v>0.9990913221263062</v>
       </c>
       <c r="N4">
-        <v>0.4913636363636364</v>
+        <v>0.4911403907314857</v>
       </c>
       <c r="O4">
-        <v>0.4909090909090909</v>
+        <v>0.4906860517946388</v>
       </c>
       <c r="P4">
-        <v>0.4909090909090909</v>
+        <v>0.4906860517946388</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1118,49 +1118,49 @@
         <v>1</v>
       </c>
       <c r="S4">
-        <v>0.4854545454545455</v>
+        <v>0.4852339845524761</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.4768181818181818</v>
+        <v>0.4770558836892322</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.4913636363636364</v>
+        <v>0.4911403907314857</v>
       </c>
       <c r="X4">
-        <v>0.4909090909090909</v>
+        <v>0.4906860517946388</v>
       </c>
       <c r="Y4">
-        <v>0.3231818181818182</v>
+        <v>0.3230349840981372</v>
       </c>
       <c r="Z4">
-        <v>0.7222727272727273</v>
+        <v>0.7223989095865516</v>
       </c>
       <c r="AA4">
-        <v>0.7763636363636364</v>
+        <v>0.7760109041344844</v>
       </c>
       <c r="AB4">
-        <v>0.7627272727272727</v>
+        <v>0.7623807360290777</v>
       </c>
       <c r="AC4">
-        <v>0.9022727272727272</v>
+        <v>0.9018627896410722</v>
       </c>
       <c r="AD4">
-        <v>0.7586363636363637</v>
+        <v>0.7582916855974557</v>
       </c>
       <c r="AE4">
-        <v>0.7759090909090909</v>
+        <v>0.7755565651976375</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.4909090909090909</v>
+        <v>0.4906860517946388</v>
       </c>
       <c r="AH4">
         <v>1</v>
@@ -1169,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.9945454545454545</v>
+        <v>0.9945479327578374</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -1178,55 +1178,55 @@
         <v>1</v>
       </c>
       <c r="AM4">
-        <v>0.9954545454545455</v>
+        <v>0.9954566106315311</v>
       </c>
       <c r="AN4">
-        <v>0.9872727272727273</v>
+        <v>0.9872785097682871</v>
       </c>
       <c r="AO4">
-        <v>0.7104545454545454</v>
+        <v>0.7105860972285325</v>
       </c>
       <c r="AP4">
-        <v>0.9995454545454545</v>
+        <v>0.9995456610631531</v>
       </c>
       <c r="AQ4">
-        <v>0.8690909090909091</v>
+        <v>0.8686960472512494</v>
       </c>
       <c r="AR4">
         <v>1</v>
       </c>
       <c r="AS4">
-        <v>0.9145454545454546</v>
+        <v>0.9145842798727851</v>
       </c>
       <c r="AT4">
-        <v>0.8322727272727273</v>
+        <v>0.8318945933666515</v>
       </c>
       <c r="AU4">
-        <v>0.8490909090909091</v>
+        <v>0.8487051340299864</v>
       </c>
       <c r="AV4">
-        <v>0.8736363636363637</v>
+        <v>0.8732394366197183</v>
       </c>
       <c r="AW4">
-        <v>0.9995454545454545</v>
+        <v>0.9995456610631531</v>
       </c>
       <c r="AX4">
-        <v>0.5527272727272727</v>
+        <v>0.5529304861426624</v>
       </c>
       <c r="AY4">
         <v>1</v>
       </c>
       <c r="AZ4">
-        <v>0.995</v>
+        <v>0.9950022716946842</v>
       </c>
       <c r="BA4">
-        <v>0.9981818181818182</v>
+        <v>0.9981826442526125</v>
       </c>
       <c r="BB4">
-        <v>1</v>
+        <v>0.9995456610631531</v>
       </c>
       <c r="BC4">
-        <v>0.9995454545454545</v>
+        <v>0.9995456610631531</v>
       </c>
       <c r="BD4">
         <v>1</v>
@@ -1241,16 +1241,16 @@
         <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.475</v>
+        <v>0.4752385279418446</v>
       </c>
       <c r="BI4">
-        <v>0.4759090909090909</v>
+        <v>0.4761472058155384</v>
       </c>
       <c r="BJ4">
-        <v>0.995</v>
+        <v>0.9950022716946842</v>
       </c>
       <c r="BK4">
-        <v>0.3354545454545454</v>
+        <v>0.3357564743298501</v>
       </c>
     </row>
     <row r="5">
@@ -1453,25 +1453,25 @@
         </is>
       </c>
       <c r="B6">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C6">
-        <v>0.907258064516129</v>
+        <v>0.9076305220883534</v>
       </c>
       <c r="D6">
-        <v>0.5645161290322581</v>
+        <v>0.5622489959839357</v>
       </c>
       <c r="E6">
-        <v>0.9919354838709677</v>
+        <v>0.9919678714859438</v>
       </c>
       <c r="F6">
-        <v>0.9233870967741935</v>
+        <v>0.9236947791164659</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0.9838709677419355</v>
+        <v>0.9839357429718876</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1480,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>0.9959677419354839</v>
+        <v>0.9959839357429718</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1489,37 +1489,37 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>0.9395161290322581</v>
+        <v>0.9397590361445783</v>
       </c>
       <c r="O6">
-        <v>0.9354838709677419</v>
+        <v>0.9357429718875502</v>
       </c>
       <c r="P6">
-        <v>0.9395161290322581</v>
+        <v>0.9397590361445783</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6">
-        <v>0.9959677419354839</v>
+        <v>0.9959839357429718</v>
       </c>
       <c r="S6">
-        <v>0.9112903225806451</v>
+        <v>0.9116465863453815</v>
       </c>
       <c r="T6">
-        <v>0.9798387096774194</v>
+        <v>0.9799196787148594</v>
       </c>
       <c r="U6">
-        <v>0.9354838709677419</v>
+        <v>0.9357429718875502</v>
       </c>
       <c r="V6">
-        <v>0.9637096774193549</v>
+        <v>0.963855421686747</v>
       </c>
       <c r="W6">
-        <v>0.9354838709677419</v>
+        <v>0.9357429718875502</v>
       </c>
       <c r="X6">
-        <v>0.9354838709677419</v>
+        <v>0.9357429718875502</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1528,76 +1528,76 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.5564516129032258</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="AB6">
-        <v>0.5241935483870968</v>
+        <v>0.5261044176706827</v>
       </c>
       <c r="AC6">
-        <v>0.8870967741935484</v>
+        <v>0.8875502008032129</v>
       </c>
       <c r="AD6">
-        <v>0.5080645161290323</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="AE6">
-        <v>0.5604838709677419</v>
+        <v>0.5582329317269076</v>
       </c>
       <c r="AF6">
-        <v>0.9798387096774194</v>
+        <v>0.9799196787148594</v>
       </c>
       <c r="AG6">
-        <v>0.9354838709677419</v>
+        <v>0.9357429718875502</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9959839357429718</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9959839357429718</v>
       </c>
       <c r="AJ6">
-        <v>0.9959677419354839</v>
+        <v>0.9959839357429718</v>
       </c>
       <c r="AK6">
-        <v>0.9596774193548387</v>
+        <v>0.9598393574297188</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6">
-        <v>0.9879032258064516</v>
+        <v>0.9879518072289156</v>
       </c>
       <c r="AN6">
-        <v>0.9879032258064516</v>
+        <v>0.9879518072289156</v>
       </c>
       <c r="AO6">
-        <v>0.7298387096774194</v>
+        <v>0.7309236947791165</v>
       </c>
       <c r="AP6">
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0.7661290322580645</v>
+        <v>0.7630522088353414</v>
       </c>
       <c r="AR6">
         <v>1</v>
       </c>
       <c r="AS6">
-        <v>0.875</v>
+        <v>0.8755020080321285</v>
       </c>
       <c r="AT6">
-        <v>0.6854838709677419</v>
+        <v>0.6867469879518072</v>
       </c>
       <c r="AU6">
-        <v>0.6975806451612904</v>
+        <v>0.6947791164658634</v>
       </c>
       <c r="AV6">
-        <v>0.75</v>
+        <v>0.7469879518072289</v>
       </c>
       <c r="AW6">
         <v>1</v>
       </c>
       <c r="AX6">
-        <v>0.6532258064516129</v>
+        <v>0.6546184738955824</v>
       </c>
       <c r="AY6">
         <v>1</v>
@@ -1609,13 +1609,13 @@
         <v>1</v>
       </c>
       <c r="BB6">
-        <v>1</v>
+        <v>0.9959839357429718</v>
       </c>
       <c r="BC6">
         <v>1</v>
       </c>
       <c r="BD6">
-        <v>0.9879032258064516</v>
+        <v>0.9879518072289156</v>
       </c>
       <c r="BE6">
         <v>1</v>
@@ -1624,19 +1624,19 @@
         <v>1</v>
       </c>
       <c r="BG6">
-        <v>0.9395161290322581</v>
+        <v>0.9397590361445783</v>
       </c>
       <c r="BH6">
-        <v>0.9395161290322581</v>
+        <v>0.9397590361445783</v>
       </c>
       <c r="BI6">
-        <v>0.9395161290322581</v>
+        <v>0.9397590361445783</v>
       </c>
       <c r="BJ6">
         <v>1</v>
       </c>
       <c r="BK6">
-        <v>0.5282258064516129</v>
+        <v>0.5301204819277109</v>
       </c>
     </row>
     <row r="7">
@@ -1646,25 +1646,25 @@
         </is>
       </c>
       <c r="B7">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C7">
-        <v>0.9405487804878049</v>
+        <v>0.9406392694063926</v>
       </c>
       <c r="D7">
-        <v>0.4451219512195122</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E7">
-        <v>0.9969512195121951</v>
+        <v>0.9954337899543378</v>
       </c>
       <c r="F7">
-        <v>0.9542682926829268</v>
+        <v>0.954337899543379</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.9786585365853658</v>
+        <v>0.9771689497716894</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1673,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>0.9984756097560976</v>
+        <v>0.9984779299847792</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1682,13 +1682,13 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>0.9634146341463414</v>
+        <v>0.9634703196347032</v>
       </c>
       <c r="O7">
-        <v>0.9634146341463414</v>
+        <v>0.9634703196347032</v>
       </c>
       <c r="P7">
-        <v>0.9634146341463414</v>
+        <v>0.9634703196347032</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -1697,112 +1697,112 @@
         <v>1</v>
       </c>
       <c r="S7">
-        <v>0.9390243902439024</v>
+        <v>0.939117199391172</v>
       </c>
       <c r="T7">
-        <v>0.948170731707317</v>
+        <v>0.9467275494672754</v>
       </c>
       <c r="U7">
-        <v>0.9710365853658537</v>
+        <v>0.9710806697108066</v>
       </c>
       <c r="V7">
-        <v>0.9847560975609756</v>
+        <v>0.9832572298325722</v>
       </c>
       <c r="W7">
-        <v>0.9603658536585366</v>
+        <v>0.9604261796042618</v>
       </c>
       <c r="X7">
-        <v>0.961890243902439</v>
+        <v>0.9619482496194824</v>
       </c>
       <c r="Y7">
-        <v>0.4923780487804878</v>
+        <v>0.4916286149162861</v>
       </c>
       <c r="Z7">
-        <v>0.5929878048780488</v>
+        <v>0.593607305936073</v>
       </c>
       <c r="AA7">
-        <v>0.6722560975609756</v>
+        <v>0.6727549467275494</v>
       </c>
       <c r="AB7">
-        <v>0.649390243902439</v>
+        <v>0.649923896499239</v>
       </c>
       <c r="AC7">
-        <v>0.864329268292683</v>
+        <v>0.8645357686453576</v>
       </c>
       <c r="AD7">
-        <v>0.6295731707317073</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="AE7">
-        <v>0.6707317073170732</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="AF7">
-        <v>0.9847560975609756</v>
+        <v>0.984779299847793</v>
       </c>
       <c r="AG7">
-        <v>0.961890243902439</v>
+        <v>0.9619482496194824</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>0.9984779299847792</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0.9984779299847792</v>
       </c>
       <c r="AJ7">
-        <v>0.9969512195121951</v>
+        <v>0.9954337899543378</v>
       </c>
       <c r="AK7">
-        <v>0.8963414634146342</v>
+        <v>0.8949771689497716</v>
       </c>
       <c r="AL7">
         <v>1</v>
       </c>
       <c r="AM7">
-        <v>0.9954268292682927</v>
+        <v>0.9939117199391172</v>
       </c>
       <c r="AN7">
-        <v>0.9939024390243902</v>
+        <v>0.9939117199391172</v>
       </c>
       <c r="AO7">
-        <v>0.7835365853658537</v>
+        <v>0.7838660578386606</v>
       </c>
       <c r="AP7">
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0.8109756097560976</v>
+        <v>0.8112633181126332</v>
       </c>
       <c r="AR7">
         <v>1</v>
       </c>
       <c r="AS7">
-        <v>0.9070121951219512</v>
+        <v>0.9071537290715372</v>
       </c>
       <c r="AT7">
-        <v>0.7515243902439024</v>
+        <v>0.7519025875190258</v>
       </c>
       <c r="AU7">
-        <v>0.7698170731707317</v>
+        <v>0.7701674277016742</v>
       </c>
       <c r="AV7">
-        <v>0.8201219512195121</v>
+        <v>0.8203957382039574</v>
       </c>
       <c r="AW7">
         <v>1</v>
       </c>
       <c r="AX7">
-        <v>0.5945121951219512</v>
+        <v>0.593607305936073</v>
       </c>
       <c r="AY7">
-        <v>1</v>
+        <v>0.9984779299847792</v>
       </c>
       <c r="AZ7">
-        <v>0.9969512195121951</v>
+        <v>0.9969558599695586</v>
       </c>
       <c r="BA7">
-        <v>0.9969512195121951</v>
+        <v>0.9969558599695586</v>
       </c>
       <c r="BB7">
-        <v>1</v>
+        <v>0.9984779299847792</v>
       </c>
       <c r="BC7">
         <v>1</v>
@@ -1817,19 +1817,19 @@
         <v>1</v>
       </c>
       <c r="BG7">
-        <v>0.9329268292682927</v>
+        <v>0.9330289193302892</v>
       </c>
       <c r="BH7">
-        <v>0.975609756097561</v>
+        <v>0.9756468797564688</v>
       </c>
       <c r="BI7">
-        <v>0.9695121951219512</v>
+        <v>0.969558599695586</v>
       </c>
       <c r="BJ7">
-        <v>0.9984756097560976</v>
+        <v>0.9984779299847792</v>
       </c>
       <c r="BK7">
-        <v>0.5792682926829268</v>
+        <v>0.578386605783866</v>
       </c>
     </row>
     <row r="8">
@@ -2225,19 +2225,19 @@
         </is>
       </c>
       <c r="B10">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="C10">
-        <v>0.3995756718528995</v>
+        <v>0.3992932862190813</v>
       </c>
       <c r="D10">
-        <v>0.3472418670438472</v>
+        <v>0.3469964664310954</v>
       </c>
       <c r="E10">
-        <v>0.9971711456859972</v>
+        <v>0.9971731448763251</v>
       </c>
       <c r="F10">
-        <v>0.9526166902404526</v>
+        <v>0.9519434628975265</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2273,16 +2273,16 @@
         <v>1</v>
       </c>
       <c r="R10">
-        <v>0.9992927864214993</v>
+        <v>0.9992932862190813</v>
       </c>
       <c r="S10">
-        <v>0.4024045261669024</v>
+        <v>0.4021201413427562</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.5615275813295615</v>
+        <v>0.5618374558303887</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -2294,25 +2294,25 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.2468175388967468</v>
+        <v>0.246643109540636</v>
       </c>
       <c r="Z10">
-        <v>0.7715700141442716</v>
+        <v>0.7717314487632508</v>
       </c>
       <c r="AA10">
-        <v>0.7022630834512023</v>
+        <v>0.7017667844522968</v>
       </c>
       <c r="AB10">
-        <v>0.6831683168316832</v>
+        <v>0.6826855123674912</v>
       </c>
       <c r="AC10">
-        <v>0.8628005657708628</v>
+        <v>0.8621908127208481</v>
       </c>
       <c r="AD10">
-        <v>0.6626591230551626</v>
+        <v>0.662190812720848</v>
       </c>
       <c r="AE10">
-        <v>0.6888260254596889</v>
+        <v>0.688339222614841</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.9929278642149929</v>
+        <v>0.9929328621908127</v>
       </c>
       <c r="AK10">
         <v>0</v>
@@ -2336,58 +2336,58 @@
         <v>1</v>
       </c>
       <c r="AM10">
-        <v>0.9915134370579916</v>
+        <v>0.9915194346289753</v>
       </c>
       <c r="AN10">
-        <v>0.9809052333804809</v>
+        <v>0.9809187279151943</v>
       </c>
       <c r="AO10">
-        <v>0.7171145685997171</v>
+        <v>0.7173144876325088</v>
       </c>
       <c r="AP10">
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.8330975954738331</v>
+        <v>0.8332155477031802</v>
       </c>
       <c r="AR10">
         <v>1</v>
       </c>
       <c r="AS10">
-        <v>0.9045261669024045</v>
+        <v>0.9045936395759717</v>
       </c>
       <c r="AT10">
-        <v>0.7652050919377652</v>
+        <v>0.7646643109540636</v>
       </c>
       <c r="AU10">
-        <v>0.7715700141442716</v>
+        <v>0.7710247349823321</v>
       </c>
       <c r="AV10">
-        <v>0.8231966053748232</v>
+        <v>0.8226148409893993</v>
       </c>
       <c r="AW10">
         <v>1</v>
       </c>
       <c r="AX10">
-        <v>0.6011315417256011</v>
+        <v>0.6014134275618375</v>
       </c>
       <c r="AY10">
         <v>1</v>
       </c>
       <c r="AZ10">
-        <v>0.9936350777934936</v>
+        <v>0.9936395759717315</v>
       </c>
       <c r="BA10">
         <v>1</v>
       </c>
       <c r="BB10">
-        <v>1</v>
+        <v>0.9992932862190813</v>
       </c>
       <c r="BC10">
         <v>1</v>
       </c>
       <c r="BD10">
-        <v>0.9985855728429985</v>
+        <v>0.9985865724381625</v>
       </c>
       <c r="BE10">
         <v>1</v>
@@ -2399,16 +2399,16 @@
         <v>0</v>
       </c>
       <c r="BH10">
-        <v>0.5615275813295615</v>
+        <v>0.5618374558303887</v>
       </c>
       <c r="BI10">
-        <v>0.5615275813295615</v>
+        <v>0.5618374558303887</v>
       </c>
       <c r="BJ10">
-        <v>0.995049504950495</v>
+        <v>0.995053003533569</v>
       </c>
       <c r="BK10">
-        <v>0.42998585572843</v>
+        <v>0.4303886925795053</v>
       </c>
     </row>
     <row r="11">
@@ -2997,19 +2997,19 @@
         </is>
       </c>
       <c r="B14">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="C14">
-        <v>0.4957528957528958</v>
+        <v>0.4957594448727833</v>
       </c>
       <c r="D14">
-        <v>0.4023166023166023</v>
+        <v>0.4016962220508867</v>
       </c>
       <c r="E14">
-        <v>0.9969111969111969</v>
+        <v>0.9969159599074788</v>
       </c>
       <c r="F14">
-        <v>0.9621621621621622</v>
+        <v>0.9622205088666153</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -3024,13 +3024,13 @@
         <v>1</v>
       </c>
       <c r="K14">
-        <v>0.9992277992277993</v>
+        <v>0.9992289899768697</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9992277992277993</v>
+        <v>0.9992289899768697</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -3045,10 +3045,10 @@
         <v>1</v>
       </c>
       <c r="R14">
-        <v>0.9992277992277993</v>
+        <v>0.9992289899768697</v>
       </c>
       <c r="S14">
-        <v>0.494980694980695</v>
+        <v>0.494988434849653</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -3066,25 +3066,25 @@
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>0.1335907335907336</v>
+        <v>0.1341557440246723</v>
       </c>
       <c r="Z14">
-        <v>0.8571428571428571</v>
+        <v>0.856592135697764</v>
       </c>
       <c r="AA14">
-        <v>0.7876447876447876</v>
+        <v>0.7879722436391673</v>
       </c>
       <c r="AB14">
-        <v>0.7714285714285715</v>
+        <v>0.7717810331534309</v>
       </c>
       <c r="AC14">
-        <v>0.9289575289575289</v>
+        <v>0.9290670778720124</v>
       </c>
       <c r="AD14">
-        <v>0.7652509652509653</v>
+        <v>0.7656129529683886</v>
       </c>
       <c r="AE14">
-        <v>0.7806949806949807</v>
+        <v>0.7810331534309946</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -3093,13 +3093,13 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>1</v>
+        <v>0.9992289899768697</v>
       </c>
       <c r="AI14">
-        <v>0.9984555984555985</v>
+        <v>0.9976869699306091</v>
       </c>
       <c r="AJ14">
-        <v>0.9953667953667954</v>
+        <v>0.9953739398612182</v>
       </c>
       <c r="AK14">
         <v>0</v>
@@ -3108,58 +3108,58 @@
         <v>1</v>
       </c>
       <c r="AM14">
-        <v>0.9953667953667954</v>
+        <v>0.9953739398612182</v>
       </c>
       <c r="AN14">
-        <v>0.976061776061776</v>
+        <v>0.9760986892829607</v>
       </c>
       <c r="AO14">
-        <v>0.6818532818532819</v>
+        <v>0.6815728604471858</v>
       </c>
       <c r="AP14">
         <v>1</v>
       </c>
       <c r="AQ14">
-        <v>0.8555984555984556</v>
+        <v>0.8558211256746338</v>
       </c>
       <c r="AR14">
         <v>1</v>
       </c>
       <c r="AS14">
-        <v>0.9204633204633205</v>
+        <v>0.920585967617579</v>
       </c>
       <c r="AT14">
-        <v>0.8208494208494208</v>
+        <v>0.8211256746337703</v>
       </c>
       <c r="AU14">
-        <v>0.8370656370656371</v>
+        <v>0.8373168851195065</v>
       </c>
       <c r="AV14">
-        <v>0.8594594594594595</v>
+        <v>0.8596761757902853</v>
       </c>
       <c r="AW14">
-        <v>0.9992277992277993</v>
+        <v>0.9992289899768697</v>
       </c>
       <c r="AX14">
-        <v>0.5135135135135135</v>
+        <v>0.5134926754047803</v>
       </c>
       <c r="AY14">
         <v>1</v>
       </c>
       <c r="AZ14">
-        <v>0.9891891891891892</v>
+        <v>0.9892058596761758</v>
       </c>
       <c r="BA14">
-        <v>0.9992277992277993</v>
+        <v>0.9992289899768697</v>
       </c>
       <c r="BB14">
-        <v>1</v>
+        <v>0.9984579799537394</v>
       </c>
       <c r="BC14">
         <v>1</v>
       </c>
       <c r="BD14">
-        <v>0.9976833976833976</v>
+        <v>0.9976869699306091</v>
       </c>
       <c r="BE14">
         <v>1</v>
@@ -3177,10 +3177,10 @@
         <v>0</v>
       </c>
       <c r="BJ14">
-        <v>0.9884169884169884</v>
+        <v>0.9884348496530455</v>
       </c>
       <c r="BK14">
-        <v>0.345945945945946</v>
+        <v>0.3454124903623747</v>
       </c>
     </row>
     <row r="15">
@@ -3383,25 +3383,25 @@
         </is>
       </c>
       <c r="B16">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="C16">
-        <v>0.4781919111816019</v>
+        <v>0.4770569620253164</v>
       </c>
       <c r="D16">
-        <v>0.4274385408406027</v>
+        <v>0.4264240506329114</v>
       </c>
       <c r="E16">
-        <v>0.9984139571768438</v>
+        <v>0.9984177215189873</v>
       </c>
       <c r="F16">
-        <v>0.9302141157811261</v>
+        <v>0.930379746835443</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>0.985725614591594</v>
+        <v>0.9857594936708861</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -3410,13 +3410,13 @@
         <v>1</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0.9992088607594937</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9984139571768438</v>
+        <v>0.9984177215189873</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -3431,19 +3431,19 @@
         <v>1</v>
       </c>
       <c r="R16">
-        <v>0.9976209357652657</v>
+        <v>0.997626582278481</v>
       </c>
       <c r="S16">
-        <v>0.4805709754163363</v>
+        <v>0.4794303797468354</v>
       </c>
       <c r="T16">
-        <v>0.9476605868358445</v>
+        <v>0.9477848101265823</v>
       </c>
       <c r="U16">
-        <v>0.4686756542426646</v>
+        <v>0.4691455696202532</v>
       </c>
       <c r="V16">
-        <v>0.9865186360031721</v>
+        <v>0.9865506329113924</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -3458,94 +3458,94 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>0.7026169706582077</v>
+        <v>0.7033227848101266</v>
       </c>
       <c r="AB16">
-        <v>0.6867565424266455</v>
+        <v>0.6875</v>
       </c>
       <c r="AC16">
-        <v>0.8723235527359239</v>
+        <v>0.872626582278481</v>
       </c>
       <c r="AD16">
-        <v>0.6645519429024583</v>
+        <v>0.6653481012658228</v>
       </c>
       <c r="AE16">
-        <v>0.6994448850118953</v>
+        <v>0.7001582278481012</v>
       </c>
       <c r="AF16">
-        <v>0.992862807295797</v>
+        <v>0.992879746835443</v>
       </c>
       <c r="AG16">
         <v>0</v>
       </c>
       <c r="AH16">
-        <v>0.9984139571768438</v>
+        <v>0.997626582278481</v>
       </c>
       <c r="AI16">
-        <v>0.9984139571768438</v>
+        <v>0.997626582278481</v>
       </c>
       <c r="AJ16">
-        <v>0.9936558287073751</v>
+        <v>0.9936708860759493</v>
       </c>
       <c r="AK16">
-        <v>0.8953211736716892</v>
+        <v>0.8947784810126582</v>
       </c>
       <c r="AL16">
         <v>1</v>
       </c>
       <c r="AM16">
-        <v>0.9904837430610627</v>
+        <v>0.990506329113924</v>
       </c>
       <c r="AN16">
-        <v>0.9777954004758128</v>
+        <v>0.9770569620253164</v>
       </c>
       <c r="AO16">
-        <v>0.6970658207771609</v>
+        <v>0.696993670886076</v>
       </c>
       <c r="AP16">
-        <v>0.9992069785884219</v>
+        <v>0.9992088607594937</v>
       </c>
       <c r="AQ16">
-        <v>0.8065027755749405</v>
+        <v>0.805379746835443</v>
       </c>
       <c r="AR16">
         <v>1</v>
       </c>
       <c r="AS16">
-        <v>0.873116574147502</v>
+        <v>0.8718354430379747</v>
       </c>
       <c r="AT16">
-        <v>0.725614591593973</v>
+        <v>0.7246835443037974</v>
       </c>
       <c r="AU16">
-        <v>0.7581284694686756</v>
+        <v>0.757120253164557</v>
       </c>
       <c r="AV16">
-        <v>0.8279143536875495</v>
+        <v>0.8267405063291139</v>
       </c>
       <c r="AW16">
         <v>1</v>
       </c>
       <c r="AX16">
-        <v>0.5027755749405234</v>
+        <v>0.5015822784810127</v>
       </c>
       <c r="AY16">
-        <v>0.9984139571768438</v>
+        <v>0.9984177215189873</v>
       </c>
       <c r="AZ16">
-        <v>0.992862807295797</v>
+        <v>0.992879746835443</v>
       </c>
       <c r="BA16">
-        <v>0.9992069785884219</v>
+        <v>0.9992088607594937</v>
       </c>
       <c r="BB16">
-        <v>1</v>
+        <v>0.997626582278481</v>
       </c>
       <c r="BC16">
         <v>1</v>
       </c>
       <c r="BD16">
-        <v>0.9984139571768438</v>
+        <v>0.9984177215189873</v>
       </c>
       <c r="BE16">
         <v>1</v>
@@ -3554,19 +3554,19 @@
         <v>1</v>
       </c>
       <c r="BG16">
-        <v>0.9682791435368755</v>
+        <v>0.9683544303797469</v>
       </c>
       <c r="BH16">
-        <v>0.4670896114195083</v>
+        <v>0.4675632911392405</v>
       </c>
       <c r="BI16">
-        <v>0.4678826328310864</v>
+        <v>0.4683544303797468</v>
       </c>
       <c r="BJ16">
-        <v>0.992862807295797</v>
+        <v>0.992879746835443</v>
       </c>
       <c r="BK16">
-        <v>0.3814432989690721</v>
+        <v>0.3805379746835443</v>
       </c>
     </row>
     <row r="17">
@@ -3769,25 +3769,25 @@
         </is>
       </c>
       <c r="B18">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5215419501133787</v>
+        <v>0.5203619909502263</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0.9342403628117913</v>
+        <v>0.9343891402714932</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>0.9841269841269841</v>
+        <v>0.9841628959276018</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -3802,136 +3802,136 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9977324263038548</v>
+        <v>0.997737556561086</v>
       </c>
       <c r="N18">
-        <v>0.9682539682539683</v>
+        <v>0.9683257918552036</v>
       </c>
       <c r="O18">
-        <v>0.9682539682539683</v>
+        <v>0.9683257918552036</v>
       </c>
       <c r="P18">
-        <v>0.9659863945578231</v>
+        <v>0.9660633484162896</v>
       </c>
       <c r="Q18">
         <v>1</v>
       </c>
       <c r="R18">
-        <v>0.9977324263038548</v>
+        <v>0.997737556561086</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>0.9614512471655329</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="U18">
         <v>0</v>
       </c>
       <c r="V18">
-        <v>0.981859410430839</v>
+        <v>0.9819004524886877</v>
       </c>
       <c r="W18">
-        <v>0.9659863945578231</v>
+        <v>0.9660633484162896</v>
       </c>
       <c r="X18">
-        <v>0.9682539682539683</v>
+        <v>0.9683257918552036</v>
       </c>
       <c r="Y18">
-        <v>0.2653061224489796</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="Z18">
-        <v>0.7664399092970522</v>
+        <v>0.7669683257918553</v>
       </c>
       <c r="AA18">
-        <v>0.5102040816326531</v>
+        <v>0.5090497737556561</v>
       </c>
       <c r="AB18">
-        <v>0.5056689342403629</v>
+        <v>0.504524886877828</v>
       </c>
       <c r="AC18">
-        <v>0.8616780045351474</v>
+        <v>0.8619909502262444</v>
       </c>
       <c r="AD18">
-        <v>0.4693877551020408</v>
+        <v>0.4683257918552036</v>
       </c>
       <c r="AE18">
-        <v>0.5238095238095238</v>
+        <v>0.5226244343891403</v>
       </c>
       <c r="AF18">
-        <v>0.9886621315192744</v>
+        <v>0.9886877828054299</v>
       </c>
       <c r="AG18">
-        <v>0.9682539682539683</v>
+        <v>0.9683257918552036</v>
       </c>
       <c r="AH18">
         <v>1</v>
       </c>
       <c r="AI18">
-        <v>0.9977324263038548</v>
+        <v>0.997737556561086</v>
       </c>
       <c r="AJ18">
-        <v>0.9931972789115646</v>
+        <v>0.9932126696832579</v>
       </c>
       <c r="AK18">
-        <v>0.9387755102040817</v>
+        <v>0.9389140271493213</v>
       </c>
       <c r="AL18">
         <v>1</v>
       </c>
       <c r="AM18">
-        <v>0.9863945578231292</v>
+        <v>0.9841628959276018</v>
       </c>
       <c r="AN18">
-        <v>0.9750566893424036</v>
+        <v>0.9751131221719457</v>
       </c>
       <c r="AO18">
-        <v>0.7301587301587301</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="AP18">
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>0.7256235827664399</v>
+        <v>0.7239819004524887</v>
       </c>
       <c r="AR18">
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>0.8707482993197279</v>
+        <v>0.8687782805429864</v>
       </c>
       <c r="AT18">
-        <v>0.6689342403628118</v>
+        <v>0.667420814479638</v>
       </c>
       <c r="AU18">
-        <v>0.6689342403628118</v>
+        <v>0.667420814479638</v>
       </c>
       <c r="AV18">
-        <v>0.7120181405895691</v>
+        <v>0.7104072398190046</v>
       </c>
       <c r="AW18">
-        <v>0.9977324263038548</v>
+        <v>0.997737556561086</v>
       </c>
       <c r="AX18">
-        <v>0.7142857142857143</v>
+        <v>0.7149321266968326</v>
       </c>
       <c r="AY18">
-        <v>0.963718820861678</v>
+        <v>0.9638009049773756</v>
       </c>
       <c r="AZ18">
-        <v>0.9841269841269841</v>
+        <v>0.9841628959276018</v>
       </c>
       <c r="BA18">
-        <v>0.9977324263038548</v>
+        <v>0.997737556561086</v>
       </c>
       <c r="BB18">
-        <v>1</v>
+        <v>0.997737556561086</v>
       </c>
       <c r="BC18">
-        <v>0.9977324263038548</v>
+        <v>0.997737556561086</v>
       </c>
       <c r="BD18">
-        <v>0.9977324263038548</v>
+        <v>0.997737556561086</v>
       </c>
       <c r="BE18">
         <v>1</v>
@@ -3940,7 +3940,7 @@
         <v>1</v>
       </c>
       <c r="BG18">
-        <v>0.9727891156462585</v>
+        <v>0.9728506787330317</v>
       </c>
       <c r="BH18">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>0.9841269841269841</v>
+        <v>0.9841628959276018</v>
       </c>
       <c r="BK18">
-        <v>0.5918367346938775</v>
+        <v>0.5927601809954751</v>
       </c>
     </row>
     <row r="19">
@@ -5120,25 +5120,25 @@
         </is>
       </c>
       <c r="B25">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C25">
-        <v>0.8585858585858586</v>
+        <v>0.8589420654911839</v>
       </c>
       <c r="D25">
-        <v>0.553030303030303</v>
+        <v>0.5541561712846348</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
-        <v>0.9494949494949495</v>
+        <v>0.9496221662468514</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>0.9696969696969697</v>
+        <v>0.9697732997481109</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -5147,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="K25">
-        <v>0.9974747474747475</v>
+        <v>0.9974811083123426</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -5156,13 +5156,13 @@
         <v>1</v>
       </c>
       <c r="N25">
-        <v>0.8838383838383839</v>
+        <v>0.8841309823677582</v>
       </c>
       <c r="O25">
-        <v>0.8838383838383839</v>
+        <v>0.8841309823677582</v>
       </c>
       <c r="P25">
-        <v>0.8838383838383839</v>
+        <v>0.8841309823677582</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -5171,112 +5171,112 @@
         <v>1</v>
       </c>
       <c r="S25">
-        <v>0.8611111111111112</v>
+        <v>0.8614609571788413</v>
       </c>
       <c r="T25">
-        <v>0.9444444444444444</v>
+        <v>0.9445843828715366</v>
       </c>
       <c r="U25">
-        <v>0.9217171717171717</v>
+        <v>0.9219143576826196</v>
       </c>
       <c r="V25">
-        <v>0.9671717171717171</v>
+        <v>0.9672544080604534</v>
       </c>
       <c r="W25">
-        <v>0.8888888888888888</v>
+        <v>0.889168765743073</v>
       </c>
       <c r="X25">
-        <v>0.8863636363636364</v>
+        <v>0.8866498740554156</v>
       </c>
       <c r="Y25">
-        <v>0.1944444444444444</v>
+        <v>0.1964735516372796</v>
       </c>
       <c r="Z25">
-        <v>0.8333333333333334</v>
+        <v>0.8337531486146096</v>
       </c>
       <c r="AA25">
-        <v>0.6616161616161617</v>
+        <v>0.6599496221662469</v>
       </c>
       <c r="AB25">
-        <v>0.648989898989899</v>
+        <v>0.6473551637279596</v>
       </c>
       <c r="AC25">
-        <v>0.8535353535353535</v>
+        <v>0.853904282115869</v>
       </c>
       <c r="AD25">
-        <v>0.6161616161616161</v>
+        <v>0.6146095717884131</v>
       </c>
       <c r="AE25">
-        <v>0.6742424242424242</v>
+        <v>0.672544080604534</v>
       </c>
       <c r="AF25">
-        <v>0.9848484848484849</v>
+        <v>0.9848866498740554</v>
       </c>
       <c r="AG25">
-        <v>0.8787878787878788</v>
+        <v>0.8790931989924433</v>
       </c>
       <c r="AH25">
-        <v>0.9974747474747475</v>
+        <v>0.9974811083123426</v>
       </c>
       <c r="AI25">
-        <v>0.9974747474747475</v>
+        <v>0.9974811083123426</v>
       </c>
       <c r="AJ25">
-        <v>0.9873737373737373</v>
+        <v>0.9874055415617129</v>
       </c>
       <c r="AK25">
-        <v>0.9166666666666666</v>
+        <v>0.9168765743073047</v>
       </c>
       <c r="AL25">
         <v>1</v>
       </c>
       <c r="AM25">
-        <v>0.9924242424242424</v>
+        <v>0.9924433249370277</v>
       </c>
       <c r="AN25">
-        <v>0.9747474747474747</v>
+        <v>0.9748110831234257</v>
       </c>
       <c r="AO25">
-        <v>0.6994949494949495</v>
+        <v>0.7002518891687658</v>
       </c>
       <c r="AP25">
         <v>1</v>
       </c>
       <c r="AQ25">
-        <v>0.851010101010101</v>
+        <v>0.8513853904282116</v>
       </c>
       <c r="AR25">
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>0.8484848484848485</v>
+        <v>0.8488664987405542</v>
       </c>
       <c r="AT25">
-        <v>0.7651515151515151</v>
+        <v>0.7657430730478589</v>
       </c>
       <c r="AU25">
-        <v>0.7651515151515151</v>
+        <v>0.7657430730478589</v>
       </c>
       <c r="AV25">
-        <v>0.8131313131313131</v>
+        <v>0.8136020151133502</v>
       </c>
       <c r="AW25">
-        <v>0.9974747474747475</v>
+        <v>0.9974811083123426</v>
       </c>
       <c r="AX25">
-        <v>0.5176767676767676</v>
+        <v>0.5188916876574308</v>
       </c>
       <c r="AY25">
         <v>1</v>
       </c>
       <c r="AZ25">
-        <v>0.9873737373737373</v>
+        <v>0.9874055415617129</v>
       </c>
       <c r="BA25">
         <v>1</v>
       </c>
       <c r="BB25">
-        <v>1</v>
+        <v>0.9974811083123426</v>
       </c>
       <c r="BC25">
         <v>1</v>
@@ -5291,19 +5291,19 @@
         <v>1</v>
       </c>
       <c r="BG25">
-        <v>0.9747474747474747</v>
+        <v>0.9748110831234257</v>
       </c>
       <c r="BH25">
-        <v>0.9191919191919192</v>
+        <v>0.9193954659949622</v>
       </c>
       <c r="BI25">
-        <v>0.9166666666666666</v>
+        <v>0.9168765743073047</v>
       </c>
       <c r="BJ25">
-        <v>0.9848484848484849</v>
+        <v>0.9848866498740554</v>
       </c>
       <c r="BK25">
-        <v>0.398989898989899</v>
+        <v>0.4005037783375315</v>
       </c>
     </row>
     <row r="26">
@@ -5699,25 +5699,25 @@
         </is>
       </c>
       <c r="B28">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0.4215384615384615</v>
+        <v>0.4208909370199693</v>
       </c>
       <c r="E28">
-        <v>0.9953846153846154</v>
+        <v>0.9953917050691244</v>
       </c>
       <c r="F28">
-        <v>0.9615384615384616</v>
+        <v>0.9615975422427036</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>0.9784615384615385</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -5732,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0.9953846153846154</v>
+        <v>0.9953917050691244</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -5747,19 +5747,19 @@
         <v>1</v>
       </c>
       <c r="R28">
-        <v>0.9984615384615385</v>
+        <v>0.9984639016897081</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>0.8938461538461538</v>
+        <v>0.8924731182795699</v>
       </c>
       <c r="U28">
-        <v>0.9046153846153846</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="V28">
-        <v>0.9692307692307692</v>
+        <v>0.9692780337941628</v>
       </c>
       <c r="W28">
         <v>0</v>
@@ -5768,28 +5768,28 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>0.14</v>
+        <v>0.1397849462365591</v>
       </c>
       <c r="Z28">
-        <v>0.8769230769230769</v>
+        <v>0.8771121351766513</v>
       </c>
       <c r="AA28">
-        <v>0.76</v>
+        <v>0.7603686635944701</v>
       </c>
       <c r="AB28">
-        <v>0.7292307692307692</v>
+        <v>0.7296466973886329</v>
       </c>
       <c r="AC28">
-        <v>0.9061538461538462</v>
+        <v>0.9062980030721967</v>
       </c>
       <c r="AD28">
-        <v>0.7230769230769231</v>
+        <v>0.7235023041474654</v>
       </c>
       <c r="AE28">
-        <v>0.7492307692307693</v>
+        <v>0.7496159754224271</v>
       </c>
       <c r="AF28">
-        <v>0.9892307692307692</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="AG28">
         <v>0</v>
@@ -5798,70 +5798,70 @@
         <v>1</v>
       </c>
       <c r="AI28">
-        <v>0.9984615384615385</v>
+        <v>0.9984639016897081</v>
       </c>
       <c r="AJ28">
-        <v>0.9892307692307692</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="AK28">
-        <v>0.8261538461538461</v>
+        <v>0.8248847926267281</v>
       </c>
       <c r="AL28">
         <v>1</v>
       </c>
       <c r="AM28">
-        <v>0.9953846153846154</v>
+        <v>0.9953917050691244</v>
       </c>
       <c r="AN28">
-        <v>0.9707692307692307</v>
+        <v>0.9708141321044547</v>
       </c>
       <c r="AO28">
-        <v>0.6107692307692307</v>
+        <v>0.6098310291858678</v>
       </c>
       <c r="AP28">
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>0.8323076923076923</v>
+        <v>0.8325652841781874</v>
       </c>
       <c r="AR28">
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>0.92</v>
+        <v>0.9201228878648233</v>
       </c>
       <c r="AT28">
-        <v>0.7830769230769231</v>
+        <v>0.783410138248848</v>
       </c>
       <c r="AU28">
-        <v>0.7861538461538462</v>
+        <v>0.7864823348694316</v>
       </c>
       <c r="AV28">
-        <v>0.8292307692307692</v>
+        <v>0.8294930875576036</v>
       </c>
       <c r="AW28">
-        <v>0.9984615384615385</v>
+        <v>0.9984639016897081</v>
       </c>
       <c r="AX28">
-        <v>0.3923076923076923</v>
+        <v>0.391705069124424</v>
       </c>
       <c r="AY28">
-        <v>0.8923076923076924</v>
+        <v>0.8924731182795699</v>
       </c>
       <c r="AZ28">
-        <v>0.9969230769230769</v>
+        <v>0.9969278033794163</v>
       </c>
       <c r="BA28">
-        <v>0.9984615384615385</v>
+        <v>0.9984639016897081</v>
       </c>
       <c r="BB28">
-        <v>1</v>
+        <v>0.9984639016897081</v>
       </c>
       <c r="BC28">
         <v>1</v>
       </c>
       <c r="BD28">
-        <v>0.9984615384615385</v>
+        <v>0.9984639016897081</v>
       </c>
       <c r="BE28">
         <v>1</v>
@@ -5870,19 +5870,19 @@
         <v>1</v>
       </c>
       <c r="BG28">
-        <v>0.9723076923076923</v>
+        <v>0.9723502304147466</v>
       </c>
       <c r="BH28">
-        <v>0.9030769230769231</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="BI28">
-        <v>0.9015384615384615</v>
+        <v>0.901689708141321</v>
       </c>
       <c r="BJ28">
-        <v>0.9907692307692307</v>
+        <v>0.9907834101382489</v>
       </c>
       <c r="BK28">
-        <v>0.2984615384615384</v>
+        <v>0.2980030721966206</v>
       </c>
     </row>
     <row r="29">
@@ -5892,25 +5892,25 @@
         </is>
       </c>
       <c r="B29">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0.4468085106382979</v>
+        <v>0.4460176991150442</v>
       </c>
       <c r="E29">
-        <v>0.9964539007092199</v>
+        <v>0.9964601769911504</v>
       </c>
       <c r="F29">
-        <v>0.925531914893617</v>
+        <v>0.9256637168141593</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>0.9698581560283688</v>
+        <v>0.9699115044247788</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -5928,64 +5928,64 @@
         <v>1</v>
       </c>
       <c r="N29">
-        <v>0.9769503546099291</v>
+        <v>0.9769911504424779</v>
       </c>
       <c r="O29">
-        <v>0.9698581560283688</v>
+        <v>0.9699115044247788</v>
       </c>
       <c r="P29">
-        <v>0.9716312056737588</v>
+        <v>0.9716814159292035</v>
       </c>
       <c r="Q29">
         <v>1</v>
       </c>
       <c r="R29">
-        <v>0.99822695035461</v>
+        <v>0.9982300884955753</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>0.973404255319149</v>
+        <v>0.9734513274336283</v>
       </c>
       <c r="U29">
         <v>0</v>
       </c>
       <c r="V29">
-        <v>0.9946808510638298</v>
+        <v>0.9946902654867257</v>
       </c>
       <c r="W29">
-        <v>0.975177304964539</v>
+        <v>0.9752212389380531</v>
       </c>
       <c r="X29">
-        <v>0.975177304964539</v>
+        <v>0.9752212389380531</v>
       </c>
       <c r="Y29">
-        <v>0.3315602836879433</v>
+        <v>0.3327433628318584</v>
       </c>
       <c r="Z29">
-        <v>0.7198581560283688</v>
+        <v>0.7185840707964601</v>
       </c>
       <c r="AA29">
-        <v>0.5921985815602837</v>
+        <v>0.5929203539823009</v>
       </c>
       <c r="AB29">
-        <v>0.5868794326241135</v>
+        <v>0.5876106194690266</v>
       </c>
       <c r="AC29">
-        <v>0.8723404255319149</v>
+        <v>0.8725663716814159</v>
       </c>
       <c r="AD29">
-        <v>0.5673758865248227</v>
+        <v>0.5681415929203539</v>
       </c>
       <c r="AE29">
-        <v>0.6205673758865248</v>
+        <v>0.6212389380530974</v>
       </c>
       <c r="AF29">
-        <v>0.9893617021276596</v>
+        <v>0.9893805309734514</v>
       </c>
       <c r="AG29">
-        <v>0.973404255319149</v>
+        <v>0.9734513274336283</v>
       </c>
       <c r="AH29">
         <v>1</v>
@@ -5994,67 +5994,67 @@
         <v>1</v>
       </c>
       <c r="AJ29">
-        <v>0.9929078014184397</v>
+        <v>0.9929203539823008</v>
       </c>
       <c r="AK29">
-        <v>0.9556737588652482</v>
+        <v>0.9557522123893806</v>
       </c>
       <c r="AL29">
         <v>1</v>
       </c>
       <c r="AM29">
-        <v>0.9929078014184397</v>
+        <v>0.9929203539823008</v>
       </c>
       <c r="AN29">
-        <v>0.9858156028368794</v>
+        <v>0.9858407079646018</v>
       </c>
       <c r="AO29">
-        <v>0.7322695035460993</v>
+        <v>0.7309734513274336</v>
       </c>
       <c r="AP29">
-        <v>0.99822695035461</v>
+        <v>0.9982300884955753</v>
       </c>
       <c r="AQ29">
-        <v>0.824468085106383</v>
+        <v>0.8247787610619469</v>
       </c>
       <c r="AR29">
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>0.8971631205673759</v>
+        <v>0.8973451327433628</v>
       </c>
       <c r="AT29">
-        <v>0.7641843971631206</v>
+        <v>0.7646017699115044</v>
       </c>
       <c r="AU29">
-        <v>0.7677304964539007</v>
+        <v>0.768141592920354</v>
       </c>
       <c r="AV29">
-        <v>0.7978723404255319</v>
+        <v>0.7982300884955752</v>
       </c>
       <c r="AW29">
-        <v>0.99822695035461</v>
+        <v>0.9982300884955753</v>
       </c>
       <c r="AX29">
-        <v>0.7039007092198581</v>
+        <v>0.7026548672566372</v>
       </c>
       <c r="AY29">
-        <v>0.9663120567375887</v>
+        <v>0.9663716814159292</v>
       </c>
       <c r="AZ29">
-        <v>0.9946808510638298</v>
+        <v>0.9946902654867257</v>
       </c>
       <c r="BA29">
-        <v>0.9946808510638298</v>
+        <v>0.9946902654867257</v>
       </c>
       <c r="BB29">
-        <v>1</v>
+        <v>0.9982300884955753</v>
       </c>
       <c r="BC29">
         <v>1</v>
       </c>
       <c r="BD29">
-        <v>0.99822695035461</v>
+        <v>0.9982300884955753</v>
       </c>
       <c r="BE29">
         <v>0</v>
@@ -6063,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="BG29">
-        <v>0.9574468085106383</v>
+        <v>0.9575221238938053</v>
       </c>
       <c r="BH29">
         <v>0</v>
@@ -6072,10 +6072,10 @@
         <v>0</v>
       </c>
       <c r="BJ29">
-        <v>0.9946808510638298</v>
+        <v>0.9946902654867257</v>
       </c>
       <c r="BK29">
-        <v>0.5301418439716312</v>
+        <v>0.5292035398230088</v>
       </c>
     </row>
     <row r="30">
@@ -6085,25 +6085,25 @@
         </is>
       </c>
       <c r="B30">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C30">
-        <v>0.8979591836734694</v>
+        <v>0.898989898989899</v>
       </c>
       <c r="D30">
-        <v>0.4897959183673469</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30">
-        <v>0.9183673469387755</v>
+        <v>0.9191919191919192</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>0.9489795918367347</v>
+        <v>0.9494949494949495</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -6118,16 +6118,16 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0.9897959183673469</v>
+        <v>0.9898989898989899</v>
       </c>
       <c r="N30">
-        <v>0.9183673469387755</v>
+        <v>0.9191919191919192</v>
       </c>
       <c r="O30">
-        <v>0.9183673469387755</v>
+        <v>0.9191919191919192</v>
       </c>
       <c r="P30">
-        <v>0.9183673469387755</v>
+        <v>0.9191919191919192</v>
       </c>
       <c r="Q30">
         <v>1</v>
@@ -6136,61 +6136,61 @@
         <v>1</v>
       </c>
       <c r="S30">
-        <v>0.9081632653061225</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="T30">
-        <v>0.9081632653061225</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="U30">
-        <v>0.9387755102040817</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="V30">
         <v>1</v>
       </c>
       <c r="W30">
-        <v>0.9183673469387755</v>
+        <v>0.9191919191919192</v>
       </c>
       <c r="X30">
-        <v>0.9183673469387755</v>
+        <v>0.9191919191919192</v>
       </c>
       <c r="Y30">
-        <v>0.08163265306122448</v>
+        <v>0.08080808080808081</v>
       </c>
       <c r="Z30">
-        <v>0.9285714285714286</v>
+        <v>0.9292929292929293</v>
       </c>
       <c r="AA30">
-        <v>0.6326530612244898</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="AB30">
-        <v>0.6836734693877551</v>
+        <v>0.6868686868686869</v>
       </c>
       <c r="AC30">
-        <v>0.8367346938775511</v>
+        <v>0.8383838383838383</v>
       </c>
       <c r="AD30">
-        <v>0.6224489795918368</v>
+        <v>0.6262626262626263</v>
       </c>
       <c r="AE30">
-        <v>0.6530612244897959</v>
+        <v>0.6565656565656566</v>
       </c>
       <c r="AF30">
         <v>1</v>
       </c>
       <c r="AG30">
-        <v>0.9183673469387755</v>
+        <v>0.9191919191919192</v>
       </c>
       <c r="AH30">
-        <v>1</v>
+        <v>0.9898989898989899</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>0.9898989898989899</v>
       </c>
       <c r="AJ30">
-        <v>0.9897959183673469</v>
+        <v>0.9898989898989899</v>
       </c>
       <c r="AK30">
-        <v>0.8877551020408163</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="AL30">
         <v>1</v>
@@ -6199,49 +6199,49 @@
         <v>1</v>
       </c>
       <c r="AN30">
-        <v>0.9693877551020408</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="AO30">
-        <v>0.6428571428571429</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="AP30">
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>0.8367346938775511</v>
+        <v>0.8383838383838383</v>
       </c>
       <c r="AR30">
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>0.8979591836734694</v>
+        <v>0.898989898989899</v>
       </c>
       <c r="AT30">
-        <v>0.7857142857142857</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="AU30">
-        <v>0.826530612244898</v>
+        <v>0.8282828282828283</v>
       </c>
       <c r="AV30">
-        <v>0.7857142857142857</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="AW30">
         <v>1</v>
       </c>
       <c r="AX30">
-        <v>0.4489795918367347</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="AY30">
         <v>1</v>
       </c>
       <c r="AZ30">
-        <v>0.9795918367346939</v>
+        <v>0.9797979797979798</v>
       </c>
       <c r="BA30">
         <v>1</v>
       </c>
       <c r="BB30">
-        <v>1</v>
+        <v>0.9898989898989899</v>
       </c>
       <c r="BC30">
         <v>1</v>
@@ -6256,19 +6256,19 @@
         <v>1</v>
       </c>
       <c r="BG30">
-        <v>0.9693877551020408</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="BH30">
-        <v>0.9387755102040817</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="BI30">
-        <v>0.9387755102040817</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="BJ30">
-        <v>0.9795918367346939</v>
+        <v>0.9797979797979798</v>
       </c>
       <c r="BK30">
-        <v>0.4183673469387755</v>
+        <v>0.4141414141414141</v>
       </c>
     </row>
     <row r="31">
@@ -6278,25 +6278,25 @@
         </is>
       </c>
       <c r="B31">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0.5164609053497943</v>
+        <v>0.5174537987679672</v>
       </c>
       <c r="E31">
-        <v>0.9938271604938271</v>
+        <v>0.9938398357289527</v>
       </c>
       <c r="F31">
-        <v>0.9094650205761317</v>
+        <v>0.9096509240246407</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>0.9917695473251029</v>
+        <v>0.9917864476386037</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -6314,64 +6314,64 @@
         <v>1</v>
       </c>
       <c r="N31">
-        <v>0.9855967078189301</v>
+        <v>0.9856262833675564</v>
       </c>
       <c r="O31">
-        <v>0.9855967078189301</v>
+        <v>0.9856262833675564</v>
       </c>
       <c r="P31">
-        <v>0.9855967078189301</v>
+        <v>0.9856262833675564</v>
       </c>
       <c r="Q31">
         <v>1</v>
       </c>
       <c r="R31">
-        <v>0.9979423868312757</v>
+        <v>0.9979466119096509</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>0.9835390946502057</v>
+        <v>0.9835728952772074</v>
       </c>
       <c r="U31">
         <v>0</v>
       </c>
       <c r="V31">
-        <v>0.9814814814814815</v>
+        <v>0.9794661190965093</v>
       </c>
       <c r="W31">
-        <v>0.9835390946502057</v>
+        <v>0.9835728952772074</v>
       </c>
       <c r="X31">
-        <v>0.9835390946502057</v>
+        <v>0.9835728952772074</v>
       </c>
       <c r="Y31">
-        <v>0.3230452674897119</v>
+        <v>0.3223819301848049</v>
       </c>
       <c r="Z31">
-        <v>0.7119341563786008</v>
+        <v>0.7104722792607803</v>
       </c>
       <c r="AA31">
-        <v>0.6172839506172839</v>
+        <v>0.6180698151950719</v>
       </c>
       <c r="AB31">
-        <v>0.6152263374485597</v>
+        <v>0.6160164271047228</v>
       </c>
       <c r="AC31">
-        <v>0.8724279835390947</v>
+        <v>0.8726899383983573</v>
       </c>
       <c r="AD31">
-        <v>0.5967078189300411</v>
+        <v>0.5975359342915811</v>
       </c>
       <c r="AE31">
-        <v>0.654320987654321</v>
+        <v>0.6550308008213552</v>
       </c>
       <c r="AF31">
-        <v>0.9917695473251029</v>
+        <v>0.9917864476386037</v>
       </c>
       <c r="AG31">
-        <v>0.9835390946502057</v>
+        <v>0.9835728952772074</v>
       </c>
       <c r="AH31">
         <v>1</v>
@@ -6380,61 +6380,61 @@
         <v>1</v>
       </c>
       <c r="AJ31">
-        <v>0.9876543209876543</v>
+        <v>0.9876796714579056</v>
       </c>
       <c r="AK31">
-        <v>0.9547325102880658</v>
+        <v>0.9548254620123203</v>
       </c>
       <c r="AL31">
         <v>1</v>
       </c>
       <c r="AM31">
-        <v>0.9958847736625515</v>
+        <v>0.9958932238193019</v>
       </c>
       <c r="AN31">
-        <v>0.9835390946502057</v>
+        <v>0.9835728952772074</v>
       </c>
       <c r="AO31">
-        <v>0.742798353909465</v>
+        <v>0.7433264887063655</v>
       </c>
       <c r="AP31">
-        <v>0.9979423868312757</v>
+        <v>0.9979466119096509</v>
       </c>
       <c r="AQ31">
-        <v>0.7901234567901234</v>
+        <v>0.7905544147843943</v>
       </c>
       <c r="AR31">
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>0.911522633744856</v>
+        <v>0.9117043121149897</v>
       </c>
       <c r="AT31">
-        <v>0.7530864197530864</v>
+        <v>0.7535934291581109</v>
       </c>
       <c r="AU31">
-        <v>0.7695473251028807</v>
+        <v>0.7700205338809035</v>
       </c>
       <c r="AV31">
-        <v>0.7839506172839507</v>
+        <v>0.784394250513347</v>
       </c>
       <c r="AW31">
         <v>1</v>
       </c>
       <c r="AX31">
-        <v>0.7057613168724279</v>
+        <v>0.7063655030800822</v>
       </c>
       <c r="AY31">
-        <v>0.9814814814814815</v>
+        <v>0.9815195071868583</v>
       </c>
       <c r="AZ31">
-        <v>0.9917695473251029</v>
+        <v>0.9917864476386037</v>
       </c>
       <c r="BA31">
-        <v>0.9979423868312757</v>
+        <v>0.9979466119096509</v>
       </c>
       <c r="BB31">
-        <v>1</v>
+        <v>0.9979466119096509</v>
       </c>
       <c r="BC31">
         <v>1</v>
@@ -6449,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="BG31">
-        <v>0.9444444444444444</v>
+        <v>0.944558521560575</v>
       </c>
       <c r="BH31">
         <v>0</v>
@@ -6458,10 +6458,10 @@
         <v>0</v>
       </c>
       <c r="BJ31">
-        <v>0.9938271604938271</v>
+        <v>0.9938398357289527</v>
       </c>
       <c r="BK31">
-        <v>0.5637860082304527</v>
+        <v>0.5626283367556468</v>
       </c>
     </row>
     <row r="32">
@@ -7243,25 +7243,25 @@
         </is>
       </c>
       <c r="B36">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C36">
-        <v>0.9530651340996169</v>
+        <v>0.9531100478468899</v>
       </c>
       <c r="D36">
-        <v>0.4204980842911877</v>
+        <v>0.4200956937799043</v>
       </c>
       <c r="E36">
-        <v>0.9990421455938697</v>
+        <v>0.999043062200957</v>
       </c>
       <c r="F36">
-        <v>0.9090038314176245</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>0.9808429118773946</v>
+        <v>0.9808612440191388</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -7270,46 +7270,46 @@
         <v>1</v>
       </c>
       <c r="K36">
-        <v>0.9980842911877394</v>
+        <v>0.9980861244019139</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0.9990421455938697</v>
+        <v>0.999043062200957</v>
       </c>
       <c r="N36">
-        <v>0.9712643678160919</v>
+        <v>0.9712918660287081</v>
       </c>
       <c r="O36">
-        <v>0.9693486590038314</v>
+        <v>0.969377990430622</v>
       </c>
       <c r="P36">
-        <v>0.9703065134099617</v>
+        <v>0.9703349282296651</v>
       </c>
       <c r="Q36">
         <v>1</v>
       </c>
       <c r="R36">
-        <v>0.9971264367816092</v>
+        <v>0.9971291866028709</v>
       </c>
       <c r="S36">
-        <v>0.9530651340996169</v>
+        <v>0.9531100478468899</v>
       </c>
       <c r="T36">
-        <v>0.9770114942528736</v>
+        <v>0.9770334928229665</v>
       </c>
       <c r="U36">
-        <v>0.975095785440613</v>
+        <v>0.9751196172248804</v>
       </c>
       <c r="V36">
-        <v>0.9846743295019157</v>
+        <v>0.9846889952153111</v>
       </c>
       <c r="W36">
-        <v>0.9703065134099617</v>
+        <v>0.9703349282296651</v>
       </c>
       <c r="X36">
-        <v>0.9722222222222222</v>
+        <v>0.9722488038277513</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -7318,94 +7318,94 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>0.5909961685823755</v>
+        <v>0.5913875598086125</v>
       </c>
       <c r="AB36">
-        <v>0.564176245210728</v>
+        <v>0.5645933014354066</v>
       </c>
       <c r="AC36">
-        <v>0.853448275862069</v>
+        <v>0.8535885167464115</v>
       </c>
       <c r="AD36">
-        <v>0.539272030651341</v>
+        <v>0.539712918660287</v>
       </c>
       <c r="AE36">
-        <v>0.6091954022988506</v>
+        <v>0.6095693779904306</v>
       </c>
       <c r="AF36">
-        <v>0.9913793103448276</v>
+        <v>0.9913875598086125</v>
       </c>
       <c r="AG36">
-        <v>0.9664750957854407</v>
+        <v>0.9665071770334929</v>
       </c>
       <c r="AH36">
-        <v>0.9990421455938697</v>
+        <v>0.999043062200957</v>
       </c>
       <c r="AI36">
-        <v>0.9990421455938697</v>
+        <v>0.999043062200957</v>
       </c>
       <c r="AJ36">
-        <v>0.9952107279693486</v>
+        <v>0.9952153110047847</v>
       </c>
       <c r="AK36">
-        <v>0.9578544061302682</v>
+        <v>0.9578947368421052</v>
       </c>
       <c r="AL36">
         <v>1</v>
       </c>
       <c r="AM36">
-        <v>0.9789272030651341</v>
+        <v>0.9789473684210527</v>
       </c>
       <c r="AN36">
-        <v>0.985632183908046</v>
+        <v>0.9856459330143541</v>
       </c>
       <c r="AO36">
-        <v>0.8390804597701149</v>
+        <v>0.8392344497607656</v>
       </c>
       <c r="AP36">
-        <v>0.9990421455938697</v>
+        <v>0.999043062200957</v>
       </c>
       <c r="AQ36">
-        <v>0.774904214559387</v>
+        <v>0.7751196172248804</v>
       </c>
       <c r="AR36">
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>0.896551724137931</v>
+        <v>0.8966507177033493</v>
       </c>
       <c r="AT36">
-        <v>0.7040229885057471</v>
+        <v>0.7043062200956938</v>
       </c>
       <c r="AU36">
-        <v>0.7049808429118773</v>
+        <v>0.7052631578947368</v>
       </c>
       <c r="AV36">
-        <v>0.7547892720306514</v>
+        <v>0.755023923444976</v>
       </c>
       <c r="AW36">
         <v>1</v>
       </c>
       <c r="AX36">
-        <v>0.7490421455938697</v>
+        <v>0.7483253588516746</v>
       </c>
       <c r="AY36">
-        <v>0.9990421455938697</v>
+        <v>0.999043062200957</v>
       </c>
       <c r="AZ36">
-        <v>0.9932950191570882</v>
+        <v>0.9933014354066986</v>
       </c>
       <c r="BA36">
         <v>1</v>
       </c>
       <c r="BB36">
-        <v>1</v>
+        <v>0.999043062200957</v>
       </c>
       <c r="BC36">
         <v>1</v>
       </c>
       <c r="BD36">
-        <v>0.9980842911877394</v>
+        <v>0.9980861244019139</v>
       </c>
       <c r="BE36">
         <v>1</v>
@@ -7414,19 +7414,19 @@
         <v>1</v>
       </c>
       <c r="BG36">
-        <v>0.946360153256705</v>
+        <v>0.9464114832535885</v>
       </c>
       <c r="BH36">
-        <v>0.9703065134099617</v>
+        <v>0.9703349282296651</v>
       </c>
       <c r="BI36">
-        <v>0.9693486590038314</v>
+        <v>0.969377990430622</v>
       </c>
       <c r="BJ36">
-        <v>0.9932950191570882</v>
+        <v>0.9933014354066986</v>
       </c>
       <c r="BK36">
-        <v>0.6159003831417624</v>
+        <v>0.615311004784689</v>
       </c>
     </row>
     <row r="37">
@@ -7629,25 +7629,25 @@
         </is>
       </c>
       <c r="B38">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C38">
-        <v>0.9568788501026694</v>
+        <v>0.9569672131147541</v>
       </c>
       <c r="D38">
-        <v>0.3880903490759753</v>
+        <v>0.389344262295082</v>
       </c>
       <c r="E38">
-        <v>0.9979466119096509</v>
+        <v>0.9979508196721312</v>
       </c>
       <c r="F38">
-        <v>0.9650924024640657</v>
+        <v>0.9651639344262295</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>0.9897330595482546</v>
+        <v>0.9897540983606558</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -7665,13 +7665,13 @@
         <v>1</v>
       </c>
       <c r="N38">
-        <v>0.9671457905544147</v>
+        <v>0.9672131147540983</v>
       </c>
       <c r="O38">
-        <v>0.9671457905544147</v>
+        <v>0.9672131147540983</v>
       </c>
       <c r="P38">
-        <v>0.9650924024640657</v>
+        <v>0.9651639344262295</v>
       </c>
       <c r="Q38">
         <v>1</v>
@@ -7680,112 +7680,112 @@
         <v>1</v>
       </c>
       <c r="S38">
-        <v>0.9609856262833676</v>
+        <v>0.9610655737704918</v>
       </c>
       <c r="T38">
-        <v>0.9425051334702259</v>
+        <v>0.9426229508196722</v>
       </c>
       <c r="U38">
-        <v>0.9691991786447639</v>
+        <v>0.9692622950819673</v>
       </c>
       <c r="V38">
-        <v>0.9876796714579056</v>
+        <v>0.9877049180327869</v>
       </c>
       <c r="W38">
-        <v>0.9671457905544147</v>
+        <v>0.9672131147540983</v>
       </c>
       <c r="X38">
-        <v>0.9671457905544147</v>
+        <v>0.9672131147540983</v>
       </c>
       <c r="Y38">
-        <v>0.06776180698151951</v>
+        <v>0.06762295081967214</v>
       </c>
       <c r="Z38">
-        <v>0.9137577002053389</v>
+        <v>0.9139344262295082</v>
       </c>
       <c r="AA38">
-        <v>0.7433264887063655</v>
+        <v>0.7438524590163934</v>
       </c>
       <c r="AB38">
-        <v>0.7268993839835729</v>
+        <v>0.7274590163934426</v>
       </c>
       <c r="AC38">
-        <v>0.9034907597535934</v>
+        <v>0.9036885245901639</v>
       </c>
       <c r="AD38">
-        <v>0.7268993839835729</v>
+        <v>0.7274590163934426</v>
       </c>
       <c r="AE38">
-        <v>0.7597535934291582</v>
+        <v>0.7602459016393442</v>
       </c>
       <c r="AF38">
-        <v>0.9876796714579056</v>
+        <v>0.9877049180327869</v>
       </c>
       <c r="AG38">
-        <v>0.9609856262833676</v>
+        <v>0.9610655737704918</v>
       </c>
       <c r="AH38">
-        <v>1</v>
+        <v>0.9979508196721312</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>0.9979508196721312</v>
       </c>
       <c r="AJ38">
-        <v>0.9958932238193019</v>
+        <v>0.9959016393442623</v>
       </c>
       <c r="AK38">
-        <v>0.9096509240246407</v>
+        <v>0.9098360655737705</v>
       </c>
       <c r="AL38">
         <v>1</v>
       </c>
       <c r="AM38">
-        <v>0.9897330595482546</v>
+        <v>0.9897540983606558</v>
       </c>
       <c r="AN38">
-        <v>0.9938398357289527</v>
+        <v>0.9938524590163934</v>
       </c>
       <c r="AO38">
-        <v>0.6160164271047228</v>
+        <v>0.6168032786885246</v>
       </c>
       <c r="AP38">
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>0.8685831622176592</v>
+        <v>0.8688524590163934</v>
       </c>
       <c r="AR38">
         <v>1</v>
       </c>
       <c r="AS38">
-        <v>0.9383983572895277</v>
+        <v>0.9385245901639344</v>
       </c>
       <c r="AT38">
-        <v>0.8090349075975359</v>
+        <v>0.8094262295081968</v>
       </c>
       <c r="AU38">
-        <v>0.8357289527720739</v>
+        <v>0.8360655737704918</v>
       </c>
       <c r="AV38">
-        <v>0.8234086242299795</v>
+        <v>0.8237704918032787</v>
       </c>
       <c r="AW38">
         <v>1</v>
       </c>
       <c r="AX38">
-        <v>0.5133470225872689</v>
+        <v>0.514344262295082</v>
       </c>
       <c r="AY38">
         <v>1</v>
       </c>
       <c r="AZ38">
-        <v>0.9979466119096509</v>
+        <v>0.9979508196721312</v>
       </c>
       <c r="BA38">
         <v>1</v>
       </c>
       <c r="BB38">
-        <v>1</v>
+        <v>0.9979508196721312</v>
       </c>
       <c r="BC38">
         <v>1</v>
@@ -7800,19 +7800,19 @@
         <v>1</v>
       </c>
       <c r="BG38">
-        <v>0.9691991786447639</v>
+        <v>0.9692622950819673</v>
       </c>
       <c r="BH38">
-        <v>0.9691991786447639</v>
+        <v>0.9692622950819673</v>
       </c>
       <c r="BI38">
-        <v>0.971252566735113</v>
+        <v>0.9713114754098361</v>
       </c>
       <c r="BJ38">
         <v>1</v>
       </c>
       <c r="BK38">
-        <v>0.297741273100616</v>
+        <v>0.2971311475409836</v>
       </c>
     </row>
     <row r="39">
@@ -7822,25 +7822,25 @@
         </is>
       </c>
       <c r="B39">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0.4044265593561368</v>
+        <v>0.4056224899598393</v>
       </c>
       <c r="E39">
-        <v>0.9919517102615694</v>
+        <v>0.9919678714859438</v>
       </c>
       <c r="F39">
-        <v>0.959758551307847</v>
+        <v>0.9598393574297188</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>0.9798792756539235</v>
+        <v>0.9799196787148594</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -7849,13 +7849,13 @@
         <v>1</v>
       </c>
       <c r="K39">
-        <v>0.9959758551307847</v>
+        <v>0.9959839357429718</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0.9979879275653923</v>
+        <v>0.9979919678714859</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -7870,19 +7870,19 @@
         <v>1</v>
       </c>
       <c r="R39">
-        <v>0.9979879275653923</v>
+        <v>0.9979919678714859</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>0.9094567404426559</v>
+        <v>0.9096385542168675</v>
       </c>
       <c r="U39">
         <v>0</v>
       </c>
       <c r="V39">
-        <v>0.9798792756539235</v>
+        <v>0.9799196787148594</v>
       </c>
       <c r="W39">
         <v>0</v>
@@ -7897,91 +7897,91 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>0.7967806841046278</v>
+        <v>0.7971887550200804</v>
       </c>
       <c r="AB39">
-        <v>0.7847082494969819</v>
+        <v>0.785140562248996</v>
       </c>
       <c r="AC39">
-        <v>0.9094567404426559</v>
+        <v>0.9096385542168675</v>
       </c>
       <c r="AD39">
-        <v>0.7786720321931589</v>
+        <v>0.7791164658634538</v>
       </c>
       <c r="AE39">
-        <v>0.8048289738430584</v>
+        <v>0.8052208835341366</v>
       </c>
       <c r="AF39">
-        <v>0.9899396378269618</v>
+        <v>0.9899598393574297</v>
       </c>
       <c r="AG39">
         <v>0</v>
       </c>
       <c r="AH39">
-        <v>0.993963782696177</v>
+        <v>0.9939759036144579</v>
       </c>
       <c r="AI39">
-        <v>0.9959758551307847</v>
+        <v>0.9959839357429718</v>
       </c>
       <c r="AJ39">
-        <v>0.9979879275653923</v>
+        <v>0.9979919678714859</v>
       </c>
       <c r="AK39">
-        <v>0.8651911468812877</v>
+        <v>0.8654618473895582</v>
       </c>
       <c r="AL39">
         <v>1</v>
       </c>
       <c r="AM39">
-        <v>0.9859154929577465</v>
+        <v>0.9859437751004017</v>
       </c>
       <c r="AN39">
-        <v>0.9738430583501007</v>
+        <v>0.9738955823293173</v>
       </c>
       <c r="AO39">
-        <v>0.6519114688128773</v>
+        <v>0.6526104417670683</v>
       </c>
       <c r="AP39">
-        <v>0.9979879275653923</v>
+        <v>0.9979919678714859</v>
       </c>
       <c r="AQ39">
-        <v>0.8993963782696177</v>
+        <v>0.8995983935742972</v>
       </c>
       <c r="AR39">
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>0.9114688128772636</v>
+        <v>0.9116465863453815</v>
       </c>
       <c r="AT39">
-        <v>0.8672032193158954</v>
+        <v>0.8674698795180723</v>
       </c>
       <c r="AU39">
-        <v>0.8832997987927566</v>
+        <v>0.8835341365461847</v>
       </c>
       <c r="AV39">
-        <v>0.8953722334004024</v>
+        <v>0.8955823293172691</v>
       </c>
       <c r="AW39">
-        <v>0.9979879275653923</v>
+        <v>0.9979919678714859</v>
       </c>
       <c r="AX39">
-        <v>0.4748490945674044</v>
+        <v>0.4759036144578313</v>
       </c>
       <c r="AY39">
-        <v>0.9979879275653923</v>
+        <v>0.9979919678714859</v>
       </c>
       <c r="AZ39">
-        <v>0.9818913480885312</v>
+        <v>0.9819277108433735</v>
       </c>
       <c r="BA39">
         <v>1</v>
       </c>
       <c r="BB39">
-        <v>1</v>
+        <v>0.9979919678714859</v>
       </c>
       <c r="BC39">
-        <v>0.9979879275653923</v>
+        <v>0.9979919678714859</v>
       </c>
       <c r="BD39">
         <v>1</v>
@@ -7993,7 +7993,7 @@
         <v>1</v>
       </c>
       <c r="BG39">
-        <v>0.959758551307847</v>
+        <v>0.9598393574297188</v>
       </c>
       <c r="BH39">
         <v>0</v>
@@ -8002,10 +8002,10 @@
         <v>0</v>
       </c>
       <c r="BJ39">
-        <v>0.9798792756539235</v>
+        <v>0.9799196787148594</v>
       </c>
       <c r="BK39">
-        <v>0.3118712273641851</v>
+        <v>0.3112449799196787</v>
       </c>
     </row>
     <row r="40">
@@ -8015,25 +8015,25 @@
         </is>
       </c>
       <c r="B40">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C40">
-        <v>0.9092495636998255</v>
+        <v>0.9094076655052264</v>
       </c>
       <c r="D40">
-        <v>0.3455497382198953</v>
+        <v>0.3449477351916376</v>
       </c>
       <c r="E40">
-        <v>0.9965095986038395</v>
+        <v>0.9965156794425087</v>
       </c>
       <c r="F40">
-        <v>0.9458987783595113</v>
+        <v>0.945993031358885</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>0.9685863874345549</v>
+        <v>0.9686411149825784</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -8051,37 +8051,37 @@
         <v>1</v>
       </c>
       <c r="N40">
-        <v>0.9424083769633508</v>
+        <v>0.9425087108013938</v>
       </c>
       <c r="O40">
-        <v>0.9389179755671903</v>
+        <v>0.9390243902439024</v>
       </c>
       <c r="P40">
-        <v>0.9389179755671903</v>
+        <v>0.9390243902439024</v>
       </c>
       <c r="Q40">
         <v>1</v>
       </c>
       <c r="R40">
-        <v>0.9982547993019197</v>
+        <v>0.9982578397212544</v>
       </c>
       <c r="S40">
-        <v>0.9179755671902269</v>
+        <v>0.9181184668989547</v>
       </c>
       <c r="T40">
-        <v>0.9493891797556719</v>
+        <v>0.9494773519163763</v>
       </c>
       <c r="U40">
-        <v>0.9511343804537522</v>
+        <v>0.9512195121951219</v>
       </c>
       <c r="V40">
-        <v>0.9895287958115183</v>
+        <v>0.9895470383275261</v>
       </c>
       <c r="W40">
-        <v>0.9406631762652705</v>
+        <v>0.9407665505226481</v>
       </c>
       <c r="X40">
-        <v>0.9389179755671903</v>
+        <v>0.9390243902439024</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -8090,94 +8090,94 @@
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>0.6492146596858639</v>
+        <v>0.6498257839721254</v>
       </c>
       <c r="AB40">
-        <v>0.6073298429319371</v>
+        <v>0.60801393728223</v>
       </c>
       <c r="AC40">
-        <v>0.8603839441535777</v>
+        <v>0.8606271777003485</v>
       </c>
       <c r="AD40">
-        <v>0.5951134380453752</v>
+        <v>0.5958188153310104</v>
       </c>
       <c r="AE40">
-        <v>0.6369982547993019</v>
+        <v>0.6376306620209059</v>
       </c>
       <c r="AF40">
-        <v>0.9947643979057592</v>
+        <v>0.9947735191637631</v>
       </c>
       <c r="AG40">
-        <v>0.9389179755671903</v>
+        <v>0.9390243902439024</v>
       </c>
       <c r="AH40">
-        <v>1</v>
+        <v>0.9982578397212544</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>0.9982578397212544</v>
       </c>
       <c r="AJ40">
-        <v>0.9982547993019197</v>
+        <v>0.9982578397212544</v>
       </c>
       <c r="AK40">
-        <v>0.9336823734729494</v>
+        <v>0.9337979094076655</v>
       </c>
       <c r="AL40">
         <v>1</v>
       </c>
       <c r="AM40">
-        <v>0.9877835951134381</v>
+        <v>0.9878048780487805</v>
       </c>
       <c r="AN40">
-        <v>0.9877835951134381</v>
+        <v>0.9878048780487805</v>
       </c>
       <c r="AO40">
-        <v>0.7120418848167539</v>
+        <v>0.7125435540069687</v>
       </c>
       <c r="AP40">
-        <v>0.9982547993019197</v>
+        <v>0.9982578397212544</v>
       </c>
       <c r="AQ40">
-        <v>0.7888307155322862</v>
+        <v>0.789198606271777</v>
       </c>
       <c r="AR40">
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>0.8952879581151832</v>
+        <v>0.8954703832752613</v>
       </c>
       <c r="AT40">
-        <v>0.7172774869109948</v>
+        <v>0.7177700348432056</v>
       </c>
       <c r="AU40">
-        <v>0.7399650959860384</v>
+        <v>0.740418118466899</v>
       </c>
       <c r="AV40">
-        <v>0.7853403141361257</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="AW40">
         <v>1</v>
       </c>
       <c r="AX40">
-        <v>0.5776614310645725</v>
+        <v>0.578397212543554</v>
       </c>
       <c r="AY40">
         <v>1</v>
       </c>
       <c r="AZ40">
-        <v>0.9965095986038395</v>
+        <v>0.9965156794425087</v>
       </c>
       <c r="BA40">
         <v>1</v>
       </c>
       <c r="BB40">
-        <v>1</v>
+        <v>0.9982578397212544</v>
       </c>
       <c r="BC40">
         <v>1</v>
       </c>
       <c r="BD40">
-        <v>0.9982547993019197</v>
+        <v>0.9982578397212544</v>
       </c>
       <c r="BE40">
         <v>1</v>
@@ -8186,19 +8186,19 @@
         <v>1</v>
       </c>
       <c r="BG40">
-        <v>0.9511343804537522</v>
+        <v>0.9512195121951219</v>
       </c>
       <c r="BH40">
-        <v>0.9528795811518325</v>
+        <v>0.9529616724738676</v>
       </c>
       <c r="BI40">
-        <v>0.9528795811518325</v>
+        <v>0.9529616724738676</v>
       </c>
       <c r="BJ40">
-        <v>0.9965095986038395</v>
+        <v>0.9965156794425087</v>
       </c>
       <c r="BK40">
-        <v>0.4467713787085515</v>
+        <v>0.445993031358885</v>
       </c>
     </row>
     <row r="41">
@@ -8594,25 +8594,25 @@
         </is>
       </c>
       <c r="B43">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C43">
-        <v>0.9509090909090909</v>
+        <v>0.9509981851179673</v>
       </c>
       <c r="D43">
-        <v>0.2927272727272727</v>
+        <v>0.2921960072595282</v>
       </c>
       <c r="E43">
-        <v>0.9945454545454545</v>
+        <v>0.9945553539019963</v>
       </c>
       <c r="F43">
-        <v>0.9181818181818182</v>
+        <v>0.9183303085299456</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>0.9818181818181818</v>
+        <v>0.9818511796733213</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -8627,7 +8627,7 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>0.9981818181818182</v>
+        <v>0.9981851179673321</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -8642,19 +8642,19 @@
         <v>1</v>
       </c>
       <c r="R43">
-        <v>0.9981818181818182</v>
+        <v>0.9981851179673321</v>
       </c>
       <c r="S43">
-        <v>0.9581818181818181</v>
+        <v>0.9582577132486388</v>
       </c>
       <c r="T43">
-        <v>0.9109090909090909</v>
+        <v>0.911070780399274</v>
       </c>
       <c r="U43">
-        <v>0.9636363636363636</v>
+        <v>0.9637023593466425</v>
       </c>
       <c r="V43">
-        <v>0.9854545454545455</v>
+        <v>0.9836660617059891</v>
       </c>
       <c r="W43">
         <v>0</v>
@@ -8663,28 +8663,28 @@
         <v>0</v>
       </c>
       <c r="Y43">
-        <v>0.1436363636363636</v>
+        <v>0.1433756805807622</v>
       </c>
       <c r="Z43">
-        <v>0.8490909090909091</v>
+        <v>0.8493647912885662</v>
       </c>
       <c r="AA43">
-        <v>0.7854545454545454</v>
+        <v>0.7858439201451906</v>
       </c>
       <c r="AB43">
-        <v>0.7727272727272727</v>
+        <v>0.7731397459165155</v>
       </c>
       <c r="AC43">
-        <v>0.9</v>
+        <v>0.9001814882032668</v>
       </c>
       <c r="AD43">
-        <v>0.7727272727272727</v>
+        <v>0.7731397459165155</v>
       </c>
       <c r="AE43">
-        <v>0.7909090909090909</v>
+        <v>0.7912885662431942</v>
       </c>
       <c r="AF43">
-        <v>0.990909090909091</v>
+        <v>0.9909255898366606</v>
       </c>
       <c r="AG43">
         <v>0</v>
@@ -8693,70 +8693,70 @@
         <v>1</v>
       </c>
       <c r="AI43">
-        <v>0.9981818181818182</v>
+        <v>0.9981851179673321</v>
       </c>
       <c r="AJ43">
-        <v>0.9981818181818182</v>
+        <v>0.9981851179673321</v>
       </c>
       <c r="AK43">
-        <v>0.8636363636363636</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="AL43">
         <v>1</v>
       </c>
       <c r="AM43">
-        <v>0.9872727272727273</v>
+        <v>0.9872958257713249</v>
       </c>
       <c r="AN43">
-        <v>0.9872727272727273</v>
+        <v>0.9872958257713249</v>
       </c>
       <c r="AO43">
-        <v>0.8018181818181818</v>
+        <v>0.8021778584392014</v>
       </c>
       <c r="AP43">
         <v>1</v>
       </c>
       <c r="AQ43">
-        <v>0.8854545454545455</v>
+        <v>0.8856624319419237</v>
       </c>
       <c r="AR43">
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>0.9327272727272727</v>
+        <v>0.9328493647912885</v>
       </c>
       <c r="AT43">
-        <v>0.8272727272727273</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="AU43">
-        <v>0.8345454545454546</v>
+        <v>0.8348457350272233</v>
       </c>
       <c r="AV43">
-        <v>0.8690909090909091</v>
+        <v>0.8693284936479129</v>
       </c>
       <c r="AW43">
         <v>1</v>
       </c>
       <c r="AX43">
-        <v>0.4090909090909091</v>
+        <v>0.4083484573502723</v>
       </c>
       <c r="AY43">
         <v>1</v>
       </c>
       <c r="AZ43">
-        <v>0.9963636363636363</v>
+        <v>0.9963702359346642</v>
       </c>
       <c r="BA43">
         <v>1</v>
       </c>
       <c r="BB43">
-        <v>1</v>
+        <v>0.9981851179673321</v>
       </c>
       <c r="BC43">
         <v>1</v>
       </c>
       <c r="BD43">
-        <v>0.9981818181818182</v>
+        <v>0.9981851179673321</v>
       </c>
       <c r="BE43">
         <v>1</v>
@@ -8765,19 +8765,19 @@
         <v>1</v>
       </c>
       <c r="BG43">
-        <v>0.9418181818181818</v>
+        <v>0.941923774954628</v>
       </c>
       <c r="BH43">
-        <v>0.9690909090909091</v>
+        <v>0.969147005444646</v>
       </c>
       <c r="BI43">
-        <v>0.9690909090909091</v>
+        <v>0.969147005444646</v>
       </c>
       <c r="BJ43">
-        <v>0.9927272727272727</v>
+        <v>0.9927404718693285</v>
       </c>
       <c r="BK43">
-        <v>0.3781818181818182</v>
+        <v>0.3774954627949184</v>
       </c>
     </row>
     <row r="44">
@@ -8980,25 +8980,25 @@
         </is>
       </c>
       <c r="B45">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0.4276807980049875</v>
+        <v>0.4271481942714819</v>
       </c>
       <c r="E45">
-        <v>0.9987531172069826</v>
+        <v>0.9987546699875467</v>
       </c>
       <c r="F45">
-        <v>0.9364089775561097</v>
+        <v>0.9352428393524284</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>0.9887780548628429</v>
+        <v>0.9887920298879203</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -9013,67 +9013,67 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>0.9975062344139651</v>
+        <v>0.9975093399750934</v>
       </c>
       <c r="N45">
-        <v>0.972568578553616</v>
+        <v>0.9726027397260274</v>
       </c>
       <c r="O45">
-        <v>0.9713216957605985</v>
+        <v>0.9713574097135741</v>
       </c>
       <c r="P45">
-        <v>0.970074812967581</v>
+        <v>0.9701120797011208</v>
       </c>
       <c r="Q45">
         <v>1</v>
       </c>
       <c r="R45">
-        <v>0.9987531172069826</v>
+        <v>0.9987546699875467</v>
       </c>
       <c r="S45">
         <v>0</v>
       </c>
       <c r="T45">
-        <v>0.9501246882793017</v>
+        <v>0.950186799501868</v>
       </c>
       <c r="U45">
-        <v>0.9713216957605985</v>
+        <v>0.9713574097135741</v>
       </c>
       <c r="V45">
-        <v>0.9800498753117207</v>
+        <v>0.9800747198007472</v>
       </c>
       <c r="W45">
-        <v>0.972568578553616</v>
+        <v>0.9726027397260274</v>
       </c>
       <c r="X45">
-        <v>0.9713216957605985</v>
+        <v>0.9713574097135741</v>
       </c>
       <c r="Y45">
-        <v>0.2331670822942643</v>
+        <v>0.2328767123287671</v>
       </c>
       <c r="Z45">
-        <v>0.7942643391521197</v>
+        <v>0.7945205479452054</v>
       </c>
       <c r="AA45">
-        <v>0.7381546134663342</v>
+        <v>0.7384806973848069</v>
       </c>
       <c r="AB45">
-        <v>0.71571072319202</v>
+        <v>0.7160647571606475</v>
       </c>
       <c r="AC45">
-        <v>0.8940149625935162</v>
+        <v>0.8941469489414695</v>
       </c>
       <c r="AD45">
-        <v>0.7032418952618454</v>
+        <v>0.7036114570361146</v>
       </c>
       <c r="AE45">
-        <v>0.7182044887780549</v>
+        <v>0.7185554171855542</v>
       </c>
       <c r="AF45">
-        <v>0.9962593516209476</v>
+        <v>0.9962640099626401</v>
       </c>
       <c r="AG45">
-        <v>0.970074812967581</v>
+        <v>0.9701120797011208</v>
       </c>
       <c r="AH45">
         <v>1</v>
@@ -9082,67 +9082,67 @@
         <v>1</v>
       </c>
       <c r="AJ45">
-        <v>0.9925187032418953</v>
+        <v>0.9925280199252802</v>
       </c>
       <c r="AK45">
-        <v>0.8827930174563591</v>
+        <v>0.8829389788293898</v>
       </c>
       <c r="AL45">
         <v>1</v>
       </c>
       <c r="AM45">
-        <v>0.9887780548628429</v>
+        <v>0.9875466998754669</v>
       </c>
       <c r="AN45">
-        <v>0.9900249376558603</v>
+        <v>0.9900373599003736</v>
       </c>
       <c r="AO45">
-        <v>0.7930174563591023</v>
+        <v>0.7932752179327521</v>
       </c>
       <c r="AP45">
-        <v>0.9975062344139651</v>
+        <v>0.9975093399750934</v>
       </c>
       <c r="AQ45">
-        <v>0.8603491271820449</v>
+        <v>0.8605230386052304</v>
       </c>
       <c r="AR45">
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>0.9326683291770573</v>
+        <v>0.9327521793275217</v>
       </c>
       <c r="AT45">
-        <v>0.7930174563591023</v>
+        <v>0.7932752179327521</v>
       </c>
       <c r="AU45">
-        <v>0.8067331670822943</v>
+        <v>0.8069738480697385</v>
       </c>
       <c r="AV45">
-        <v>0.8478802992518704</v>
+        <v>0.8480697384806973</v>
       </c>
       <c r="AW45">
         <v>1</v>
       </c>
       <c r="AX45">
-        <v>0.5548628428927681</v>
+        <v>0.5541718555417185</v>
       </c>
       <c r="AY45">
         <v>1</v>
       </c>
       <c r="AZ45">
-        <v>0.9950124688279302</v>
+        <v>0.9950186799501868</v>
       </c>
       <c r="BA45">
-        <v>0.9962593516209476</v>
+        <v>0.9962640099626401</v>
       </c>
       <c r="BB45">
-        <v>1</v>
+        <v>0.9987546699875467</v>
       </c>
       <c r="BC45">
         <v>1</v>
       </c>
       <c r="BD45">
-        <v>0.9987531172069826</v>
+        <v>0.9987546699875467</v>
       </c>
       <c r="BE45">
         <v>1</v>
@@ -9151,19 +9151,19 @@
         <v>1</v>
       </c>
       <c r="BG45">
-        <v>0.9314214463840399</v>
+        <v>0.9315068493150684</v>
       </c>
       <c r="BH45">
-        <v>0.972568578553616</v>
+        <v>0.9726027397260274</v>
       </c>
       <c r="BI45">
-        <v>0.972568578553616</v>
+        <v>0.9726027397260274</v>
       </c>
       <c r="BJ45">
-        <v>0.9937655860349127</v>
+        <v>0.9937733499377335</v>
       </c>
       <c r="BK45">
-        <v>0.4688279301745636</v>
+        <v>0.4682440846824408</v>
       </c>
     </row>
     <row r="46">
@@ -9173,25 +9173,25 @@
         </is>
       </c>
       <c r="B46">
-        <v>3051</v>
+        <v>3052</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0.4146181579809898</v>
+        <v>0.4148099606815203</v>
       </c>
       <c r="E46">
-        <v>0.9990167158308751</v>
+        <v>0.9990170380078637</v>
       </c>
       <c r="F46">
-        <v>0.9659128154703376</v>
+        <v>0.9659239842726082</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>0.9780399868895444</v>
+        <v>0.9780471821756226</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -9200,13 +9200,13 @@
         <v>1</v>
       </c>
       <c r="K46">
-        <v>0.9993444772205834</v>
+        <v>0.9993446920052425</v>
       </c>
       <c r="L46">
-        <v>0.173713536545395</v>
+        <v>0.173656618610747</v>
       </c>
       <c r="M46">
-        <v>0.9993444772205834</v>
+        <v>0.9993446920052425</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -9227,13 +9227,13 @@
         <v>0</v>
       </c>
       <c r="T46">
-        <v>0.951819075712881</v>
+        <v>0.9518348623853211</v>
       </c>
       <c r="U46">
         <v>0</v>
       </c>
       <c r="V46">
-        <v>0.9819731235660439</v>
+        <v>0.9819790301441678</v>
       </c>
       <c r="W46">
         <v>0</v>
@@ -9242,100 +9242,100 @@
         <v>0</v>
       </c>
       <c r="Y46">
-        <v>0.2166502785971813</v>
+        <v>0.2165792922673657</v>
       </c>
       <c r="Z46">
-        <v>0.8062930186823992</v>
+        <v>0.8063564875491481</v>
       </c>
       <c r="AA46">
-        <v>0.779088823336611</v>
+        <v>0.7791612057667103</v>
       </c>
       <c r="AB46">
-        <v>0.7669616519174042</v>
+        <v>0.7670380078636959</v>
       </c>
       <c r="AC46">
-        <v>0.9082268108816781</v>
+        <v>0.9082568807339449</v>
       </c>
       <c r="AD46">
-        <v>0.7584398557849885</v>
+        <v>0.758519003931848</v>
       </c>
       <c r="AE46">
-        <v>0.7823664372336939</v>
+        <v>0.7824377457404981</v>
       </c>
       <c r="AF46">
-        <v>0.9950835791543756</v>
+        <v>0.9950851900393185</v>
       </c>
       <c r="AG46">
         <v>0</v>
       </c>
       <c r="AH46">
-        <v>0.9996722386102918</v>
+        <v>0.9996723460026212</v>
       </c>
       <c r="AI46">
         <v>1</v>
       </c>
       <c r="AJ46">
-        <v>0.9908226810881678</v>
+        <v>0.9908256880733946</v>
       </c>
       <c r="AK46">
-        <v>0.909210095050803</v>
+        <v>0.9089121887287025</v>
       </c>
       <c r="AL46">
         <v>1</v>
       </c>
       <c r="AM46">
-        <v>0.9947558177646674</v>
+        <v>0.9947575360419397</v>
       </c>
       <c r="AN46">
-        <v>0.9816453621763356</v>
+        <v>0.981651376146789</v>
       </c>
       <c r="AO46">
-        <v>0.6742051786299574</v>
+        <v>0.6739842726081258</v>
       </c>
       <c r="AP46">
-        <v>0.9990167158308751</v>
+        <v>0.9990170380078637</v>
       </c>
       <c r="AQ46">
-        <v>0.8623402163225172</v>
+        <v>0.8623853211009175</v>
       </c>
       <c r="AR46">
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>0.90593248115372</v>
+        <v>0.9059633027522935</v>
       </c>
       <c r="AT46">
-        <v>0.818420190101606</v>
+        <v>0.8184796854521625</v>
       </c>
       <c r="AU46">
-        <v>0.8357915437561455</v>
+        <v>0.8358453473132372</v>
       </c>
       <c r="AV46">
-        <v>0.8613569321533924</v>
+        <v>0.8614023591087812</v>
       </c>
       <c r="AW46">
-        <v>0.9996722386102918</v>
+        <v>0.9996723460026212</v>
       </c>
       <c r="AX46">
-        <v>0.5473615208128483</v>
+        <v>0.5471821756225426</v>
       </c>
       <c r="AY46">
-        <v>0.9993444772205834</v>
+        <v>0.9993446920052425</v>
       </c>
       <c r="AZ46">
-        <v>0.9901671583087512</v>
+        <v>0.990170380078637</v>
       </c>
       <c r="BA46">
-        <v>0.9990167158308751</v>
+        <v>0.9990170380078637</v>
       </c>
       <c r="BB46">
-        <v>1</v>
+        <v>0.9996723460026212</v>
       </c>
       <c r="BC46">
-        <v>0.9996722386102918</v>
+        <v>0.9996723460026212</v>
       </c>
       <c r="BD46">
-        <v>0.9996722386102918</v>
+        <v>0.9996723460026212</v>
       </c>
       <c r="BE46">
         <v>1</v>
@@ -9344,7 +9344,7 @@
         <v>1</v>
       </c>
       <c r="BG46">
-        <v>0.9603408718452966</v>
+        <v>0.9603538663171691</v>
       </c>
       <c r="BH46">
         <v>0</v>
@@ -9353,10 +9353,10 @@
         <v>0</v>
       </c>
       <c r="BJ46">
-        <v>0.9895116355293346</v>
+        <v>0.9895150720838795</v>
       </c>
       <c r="BK46">
-        <v>0.3359554244509997</v>
+        <v>0.3358453473132372</v>
       </c>
     </row>
     <row r="47">
@@ -9752,25 +9752,25 @@
         </is>
       </c>
       <c r="B49">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C49">
-        <v>0.9299065420560748</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="D49">
-        <v>0.4719626168224299</v>
+        <v>0.4697674418604651</v>
       </c>
       <c r="E49">
-        <v>0.9953271028037384</v>
+        <v>0.9953488372093023</v>
       </c>
       <c r="F49">
-        <v>0.8364485981308412</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>0.985981308411215</v>
+        <v>0.986046511627907</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -9785,16 +9785,16 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>0.9953271028037384</v>
+        <v>0.9953488372093023</v>
       </c>
       <c r="N49">
-        <v>0.9392523364485982</v>
+        <v>0.9395348837209302</v>
       </c>
       <c r="O49">
-        <v>0.9392523364485982</v>
+        <v>0.9395348837209302</v>
       </c>
       <c r="P49">
-        <v>0.9345794392523364</v>
+        <v>0.9348837209302325</v>
       </c>
       <c r="Q49">
         <v>1</v>
@@ -9803,49 +9803,49 @@
         <v>1</v>
       </c>
       <c r="S49">
-        <v>0.9252336448598131</v>
+        <v>0.9255813953488372</v>
       </c>
       <c r="T49">
-        <v>0.9766355140186916</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="U49">
-        <v>0.9626168224299065</v>
+        <v>0.9627906976744186</v>
       </c>
       <c r="V49">
-        <v>0.9766355140186916</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="W49">
-        <v>0.9439252336448598</v>
+        <v>0.9441860465116279</v>
       </c>
       <c r="X49">
-        <v>0.9439252336448598</v>
+        <v>0.9441860465116279</v>
       </c>
       <c r="Y49">
-        <v>0.2897196261682243</v>
+        <v>0.2883720930232558</v>
       </c>
       <c r="Z49">
-        <v>0.7429906542056075</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="AA49">
-        <v>0.5934579439252337</v>
+        <v>0.5906976744186047</v>
       </c>
       <c r="AB49">
-        <v>0.5887850467289719</v>
+        <v>0.586046511627907</v>
       </c>
       <c r="AC49">
-        <v>0.8224299065420561</v>
+        <v>0.8186046511627907</v>
       </c>
       <c r="AD49">
-        <v>0.5420560747663551</v>
+        <v>0.5395348837209303</v>
       </c>
       <c r="AE49">
-        <v>0.6261682242990654</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="AF49">
         <v>1</v>
       </c>
       <c r="AG49">
-        <v>0.9439252336448598</v>
+        <v>0.9441860465116279</v>
       </c>
       <c r="AH49">
         <v>1</v>
@@ -9854,10 +9854,10 @@
         <v>1</v>
       </c>
       <c r="AJ49">
-        <v>0.9953271028037384</v>
+        <v>0.9953488372093023</v>
       </c>
       <c r="AK49">
-        <v>0.9299065420560748</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="AL49">
         <v>1</v>
@@ -9869,34 +9869,34 @@
         <v>1</v>
       </c>
       <c r="AO49">
-        <v>0.7336448598130841</v>
+        <v>0.7348837209302326</v>
       </c>
       <c r="AP49">
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>0.7710280373831776</v>
+        <v>0.772093023255814</v>
       </c>
       <c r="AR49">
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>0.8925233644859814</v>
+        <v>0.8883720930232558</v>
       </c>
       <c r="AT49">
-        <v>0.7523364485981309</v>
+        <v>0.7488372093023256</v>
       </c>
       <c r="AU49">
-        <v>0.7710280373831776</v>
+        <v>0.772093023255814</v>
       </c>
       <c r="AV49">
-        <v>0.7757009345794392</v>
+        <v>0.772093023255814</v>
       </c>
       <c r="AW49">
         <v>1</v>
       </c>
       <c r="AX49">
-        <v>0.7336448598130841</v>
+        <v>0.7302325581395349</v>
       </c>
       <c r="AY49">
         <v>1</v>
@@ -9908,7 +9908,7 @@
         <v>1</v>
       </c>
       <c r="BB49">
-        <v>1</v>
+        <v>0.9953488372093023</v>
       </c>
       <c r="BC49">
         <v>1</v>
@@ -9923,19 +9923,19 @@
         <v>1</v>
       </c>
       <c r="BG49">
-        <v>0.9719626168224299</v>
+        <v>0.9720930232558139</v>
       </c>
       <c r="BH49">
-        <v>0.9672897196261683</v>
+        <v>0.9674418604651163</v>
       </c>
       <c r="BI49">
-        <v>0.9626168224299065</v>
+        <v>0.9627906976744186</v>
       </c>
       <c r="BJ49">
         <v>1</v>
       </c>
       <c r="BK49">
-        <v>0.6682242990654206</v>
+        <v>0.6697674418604651</v>
       </c>
     </row>
     <row r="50">
@@ -9945,25 +9945,25 @@
         </is>
       </c>
       <c r="B50">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="C50">
-        <v>0.9172736732570239</v>
+        <v>0.9173166926677067</v>
       </c>
       <c r="D50">
-        <v>0.4063475546305931</v>
+        <v>0.406136245449818</v>
       </c>
       <c r="E50">
-        <v>0.9958376690946931</v>
+        <v>0.9958398335933437</v>
       </c>
       <c r="F50">
-        <v>0.9516129032258065</v>
+        <v>0.9516380655226209</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>0.981789802289282</v>
+        <v>0.9817992719708788</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -9972,142 +9972,142 @@
         <v>1</v>
       </c>
       <c r="K50">
-        <v>0.9994797086368367</v>
+        <v>0.999479979199168</v>
       </c>
       <c r="L50">
         <v>0</v>
       </c>
       <c r="M50">
-        <v>0.9989594172736732</v>
+        <v>0.998959958398336</v>
       </c>
       <c r="N50">
-        <v>0.858480749219563</v>
+        <v>0.858554342173687</v>
       </c>
       <c r="O50">
-        <v>0.858480749219563</v>
+        <v>0.858554342173687</v>
       </c>
       <c r="P50">
-        <v>0.8574401664932362</v>
+        <v>0.8575143005720229</v>
       </c>
       <c r="Q50">
         <v>1</v>
       </c>
       <c r="R50">
-        <v>0.9994797086368367</v>
+        <v>0.999479979199168</v>
       </c>
       <c r="S50">
-        <v>0.918834547346514</v>
+        <v>0.9188767550702028</v>
       </c>
       <c r="T50">
-        <v>0.9448491155046826</v>
+        <v>0.9448777951118045</v>
       </c>
       <c r="U50">
-        <v>0.8657648283038502</v>
+        <v>0.8658346333853354</v>
       </c>
       <c r="V50">
-        <v>0.9765868886576483</v>
+        <v>0.9765990639625585</v>
       </c>
       <c r="W50">
-        <v>0.8590010405827263</v>
+        <v>0.859074362974519</v>
       </c>
       <c r="X50">
-        <v>0.8574401664932362</v>
+        <v>0.8575143005720229</v>
       </c>
       <c r="Y50">
-        <v>0.2289281997918834</v>
+        <v>0.2288091523660946</v>
       </c>
       <c r="Z50">
-        <v>0.8080124869927159</v>
+        <v>0.8081123244929798</v>
       </c>
       <c r="AA50">
-        <v>0.7679500520291364</v>
+        <v>0.7680707228289132</v>
       </c>
       <c r="AB50">
-        <v>0.7575442247658689</v>
+        <v>0.7576703068122725</v>
       </c>
       <c r="AC50">
-        <v>0.894901144640999</v>
+        <v>0.8949557982319293</v>
       </c>
       <c r="AD50">
-        <v>0.7460978147762747</v>
+        <v>0.7462298491939677</v>
       </c>
       <c r="AE50">
-        <v>0.7721123829344433</v>
+        <v>0.7722308892355694</v>
       </c>
       <c r="AF50">
-        <v>0.9911550468262227</v>
+        <v>0.9911596463858554</v>
       </c>
       <c r="AG50">
-        <v>0.8600416233090531</v>
+        <v>0.860114404576183</v>
       </c>
       <c r="AH50">
-        <v>0.9963579604578564</v>
+        <v>0.9958398335933437</v>
       </c>
       <c r="AI50">
-        <v>0.9958376690946931</v>
+        <v>0.9953198127925117</v>
       </c>
       <c r="AJ50">
-        <v>0.9958376690946931</v>
+        <v>0.9958398335933437</v>
       </c>
       <c r="AK50">
-        <v>0.9011446409989594</v>
+        <v>0.9011960478419136</v>
       </c>
       <c r="AL50">
         <v>1</v>
       </c>
       <c r="AM50">
-        <v>0.9911550468262227</v>
+        <v>0.9911596463858554</v>
       </c>
       <c r="AN50">
-        <v>0.9786680541103018</v>
+        <v>0.9786791471658867</v>
       </c>
       <c r="AO50">
-        <v>0.7346514047866806</v>
+        <v>0.734789391575663</v>
       </c>
       <c r="AP50">
-        <v>0.9994797086368367</v>
+        <v>0.999479979199168</v>
       </c>
       <c r="AQ50">
-        <v>0.8631633714880333</v>
+        <v>0.8632345293811753</v>
       </c>
       <c r="AR50">
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>0.9110301768990635</v>
+        <v>0.9110764430577223</v>
       </c>
       <c r="AT50">
-        <v>0.8267429760665973</v>
+        <v>0.8268330733229329</v>
       </c>
       <c r="AU50">
-        <v>0.8392299687825182</v>
+        <v>0.8393135725429017</v>
       </c>
       <c r="AV50">
-        <v>0.8662851196670135</v>
+        <v>0.8663546541861674</v>
       </c>
       <c r="AW50">
-        <v>0.9989594172736732</v>
+        <v>0.998959958398336</v>
       </c>
       <c r="AX50">
-        <v>0.5249739854318418</v>
+        <v>0.5252210088403536</v>
       </c>
       <c r="AY50">
         <v>1</v>
       </c>
       <c r="AZ50">
-        <v>0.9947970863683663</v>
+        <v>0.9947997919916797</v>
       </c>
       <c r="BA50">
-        <v>0.9973985431841832</v>
+        <v>0.9973998959958398</v>
       </c>
       <c r="BB50">
-        <v>1</v>
+        <v>0.999479979199168</v>
       </c>
       <c r="BC50">
         <v>1</v>
       </c>
       <c r="BD50">
-        <v>0.9979188345473465</v>
+        <v>0.9979199167966719</v>
       </c>
       <c r="BE50">
         <v>1</v>
@@ -10116,19 +10116,19 @@
         <v>1</v>
       </c>
       <c r="BG50">
-        <v>0.9552549427679501</v>
+        <v>0.9552782111284451</v>
       </c>
       <c r="BH50">
-        <v>0.8678459937565036</v>
+        <v>0.8679147165886636</v>
       </c>
       <c r="BI50">
-        <v>0.8678459937565036</v>
+        <v>0.8679147165886636</v>
       </c>
       <c r="BJ50">
-        <v>0.9947970863683663</v>
+        <v>0.9947997919916797</v>
       </c>
       <c r="BK50">
-        <v>0.3579604578563996</v>
+        <v>0.3577743109724389</v>
       </c>
     </row>
     <row r="51">
@@ -10138,19 +10138,19 @@
         </is>
       </c>
       <c r="B51">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0.4439208294062206</v>
+        <v>0.4435028248587571</v>
       </c>
       <c r="E51">
-        <v>0.998114985862394</v>
+        <v>0.9981167608286252</v>
       </c>
       <c r="F51">
-        <v>0.946277097078228</v>
+        <v>0.9463276836158192</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -10213,19 +10213,19 @@
         <v>0</v>
       </c>
       <c r="AA51">
-        <v>0.7210179076343073</v>
+        <v>0.7203389830508474</v>
       </c>
       <c r="AB51">
-        <v>0.7144203581526861</v>
+        <v>0.7137476459510358</v>
       </c>
       <c r="AC51">
-        <v>0.9000942507068803</v>
+        <v>0.9001883239171374</v>
       </c>
       <c r="AD51">
-        <v>0.705937794533459</v>
+        <v>0.7052730696798494</v>
       </c>
       <c r="AE51">
-        <v>0.7247879359095193</v>
+        <v>0.724105461393597</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -10237,10 +10237,10 @@
         <v>1</v>
       </c>
       <c r="AI51">
-        <v>0.998114985862394</v>
+        <v>0.9981167608286252</v>
       </c>
       <c r="AJ51">
-        <v>0.9943449575871819</v>
+        <v>0.9943502824858758</v>
       </c>
       <c r="AK51">
         <v>0</v>
@@ -10249,58 +10249,58 @@
         <v>1</v>
       </c>
       <c r="AM51">
-        <v>0.9934024505183789</v>
+        <v>0.9934086629001884</v>
       </c>
       <c r="AN51">
-        <v>0.9802073515551367</v>
+        <v>0.980225988700565</v>
       </c>
       <c r="AO51">
-        <v>0.6578699340245052</v>
+        <v>0.6581920903954802</v>
       </c>
       <c r="AP51">
         <v>1</v>
       </c>
       <c r="AQ51">
-        <v>0.8539114043355325</v>
+        <v>0.8540489642184558</v>
       </c>
       <c r="AR51">
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>0.9189443920829407</v>
+        <v>0.9190207156308852</v>
       </c>
       <c r="AT51">
-        <v>0.8096135721017907</v>
+        <v>0.8097928436911488</v>
       </c>
       <c r="AU51">
-        <v>0.8350612629594723</v>
+        <v>0.835216572504708</v>
       </c>
       <c r="AV51">
-        <v>0.8312912346842601</v>
+        <v>0.8314500941619586</v>
       </c>
       <c r="AW51">
-        <v>0.9990574929311969</v>
+        <v>0.9990583804143126</v>
       </c>
       <c r="AX51">
-        <v>0.5428840716305372</v>
+        <v>0.5433145009416196</v>
       </c>
       <c r="AY51">
-        <v>0.9566446748350612</v>
+        <v>0.9566854990583804</v>
       </c>
       <c r="AZ51">
-        <v>0.9858623939679547</v>
+        <v>0.9858757062146892</v>
       </c>
       <c r="BA51">
         <v>1</v>
       </c>
       <c r="BB51">
-        <v>1</v>
+        <v>0.9990583804143126</v>
       </c>
       <c r="BC51">
         <v>1</v>
       </c>
       <c r="BD51">
-        <v>0.9990574929311969</v>
+        <v>0.9990583804143126</v>
       </c>
       <c r="BE51">
         <v>1</v>
@@ -10318,10 +10318,10 @@
         <v>0</v>
       </c>
       <c r="BJ51">
-        <v>0.9839773798303487</v>
+        <v>0.9839924670433146</v>
       </c>
       <c r="BK51">
-        <v>0.354382657869934</v>
+        <v>0.3549905838041431</v>
       </c>
     </row>
     <row r="52">
@@ -10331,25 +10331,25 @@
         </is>
       </c>
       <c r="B52">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C52">
-        <v>0.9345794392523364</v>
+        <v>0.9347014925373134</v>
       </c>
       <c r="D52">
-        <v>0.4411214953271028</v>
+        <v>0.4421641791044776</v>
       </c>
       <c r="E52">
-        <v>0.9981308411214953</v>
+        <v>0.9981343283582089</v>
       </c>
       <c r="F52">
-        <v>0.9663551401869159</v>
+        <v>0.9664179104477612</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>0.9869158878504672</v>
+        <v>0.9869402985074627</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -10367,64 +10367,64 @@
         <v>1</v>
       </c>
       <c r="N52">
-        <v>0.9495327102803738</v>
+        <v>0.9496268656716418</v>
       </c>
       <c r="O52">
-        <v>0.9495327102803738</v>
+        <v>0.9496268656716418</v>
       </c>
       <c r="P52">
-        <v>0.9476635514018692</v>
+        <v>0.9477611940298507</v>
       </c>
       <c r="Q52">
         <v>1</v>
       </c>
       <c r="R52">
-        <v>0.9981308411214953</v>
+        <v>0.9981343283582089</v>
       </c>
       <c r="S52">
-        <v>0.9383177570093458</v>
+        <v>0.9384328358208955</v>
       </c>
       <c r="T52">
-        <v>0.9644859813084112</v>
+        <v>0.9645522388059702</v>
       </c>
       <c r="U52">
-        <v>0.9588785046728971</v>
+        <v>0.9589552238805971</v>
       </c>
       <c r="V52">
-        <v>0.9682242990654205</v>
+        <v>0.9682835820895522</v>
       </c>
       <c r="W52">
-        <v>0.9476635514018692</v>
+        <v>0.9477611940298507</v>
       </c>
       <c r="X52">
-        <v>0.9476635514018692</v>
+        <v>0.9477611940298507</v>
       </c>
       <c r="Y52">
-        <v>0.194392523364486</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="Z52">
-        <v>0.8336448598130841</v>
+        <v>0.8339552238805971</v>
       </c>
       <c r="AA52">
-        <v>0.7383177570093458</v>
+        <v>0.7388059701492538</v>
       </c>
       <c r="AB52">
-        <v>0.7158878504672898</v>
+        <v>0.7145522388059702</v>
       </c>
       <c r="AC52">
-        <v>0.8766355140186916</v>
+        <v>0.875</v>
       </c>
       <c r="AD52">
-        <v>0.7065420560747664</v>
+        <v>0.7052238805970149</v>
       </c>
       <c r="AE52">
-        <v>0.7158878504672898</v>
+        <v>0.7145522388059702</v>
       </c>
       <c r="AF52">
-        <v>0.9962616822429906</v>
+        <v>0.996268656716418</v>
       </c>
       <c r="AG52">
-        <v>0.9476635514018692</v>
+        <v>0.9477611940298507</v>
       </c>
       <c r="AH52">
         <v>1</v>
@@ -10433,67 +10433,67 @@
         <v>1</v>
       </c>
       <c r="AJ52">
-        <v>0.9981308411214953</v>
+        <v>0.9981343283582089</v>
       </c>
       <c r="AK52">
-        <v>0.9364485981308411</v>
+        <v>0.9365671641791045</v>
       </c>
       <c r="AL52">
         <v>1</v>
       </c>
       <c r="AM52">
-        <v>0.9925233644859813</v>
+        <v>0.9925373134328358</v>
       </c>
       <c r="AN52">
-        <v>0.983177570093458</v>
+        <v>0.9832089552238806</v>
       </c>
       <c r="AO52">
-        <v>0.7065420560747664</v>
+        <v>0.707089552238806</v>
       </c>
       <c r="AP52">
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>0.8168224299065421</v>
+        <v>0.8152985074626866</v>
       </c>
       <c r="AR52">
         <v>1</v>
       </c>
       <c r="AS52">
-        <v>0.8841121495327103</v>
+        <v>0.8824626865671642</v>
       </c>
       <c r="AT52">
-        <v>0.7551401869158878</v>
+        <v>0.753731343283582</v>
       </c>
       <c r="AU52">
-        <v>0.7738317757009345</v>
+        <v>0.7723880597014925</v>
       </c>
       <c r="AV52">
-        <v>0.8411214953271028</v>
+        <v>0.8414179104477612</v>
       </c>
       <c r="AW52">
         <v>1</v>
       </c>
       <c r="AX52">
-        <v>0.5308411214953271</v>
+        <v>0.5317164179104478</v>
       </c>
       <c r="AY52">
         <v>1</v>
       </c>
       <c r="AZ52">
-        <v>0.9981308411214953</v>
+        <v>0.9981343283582089</v>
       </c>
       <c r="BA52">
-        <v>0.9962616822429906</v>
+        <v>0.996268656716418</v>
       </c>
       <c r="BB52">
-        <v>1</v>
+        <v>0.9981343283582089</v>
       </c>
       <c r="BC52">
         <v>1</v>
       </c>
       <c r="BD52">
-        <v>0.9962616822429906</v>
+        <v>0.996268656716418</v>
       </c>
       <c r="BE52">
         <v>1</v>
@@ -10502,19 +10502,19 @@
         <v>1</v>
       </c>
       <c r="BG52">
-        <v>0.9551401869158879</v>
+        <v>0.9552238805970149</v>
       </c>
       <c r="BH52">
-        <v>0.9607476635514018</v>
+        <v>0.960820895522388</v>
       </c>
       <c r="BI52">
-        <v>0.9588785046728971</v>
+        <v>0.9589552238805971</v>
       </c>
       <c r="BJ52">
-        <v>0.9962616822429906</v>
+        <v>0.996268656716418</v>
       </c>
       <c r="BK52">
-        <v>0.3719626168224299</v>
+        <v>0.373134328358209</v>
       </c>
     </row>
     <row r="53">
@@ -10717,25 +10717,25 @@
         </is>
       </c>
       <c r="B54">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C54">
-        <v>0.9054820415879017</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="D54">
-        <v>0.5255198487712666</v>
+        <v>0.5264150943396226</v>
       </c>
       <c r="E54">
-        <v>0.994328922495274</v>
+        <v>0.9943396226415094</v>
       </c>
       <c r="F54">
-        <v>0.947069943289225</v>
+        <v>0.9471698113207547</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>0.9905482041587902</v>
+        <v>0.9905660377358491</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -10744,22 +10744,22 @@
         <v>1</v>
       </c>
       <c r="K54">
-        <v>0.998109640831758</v>
+        <v>0.9981132075471698</v>
       </c>
       <c r="L54">
         <v>0</v>
       </c>
       <c r="M54">
-        <v>0.998109640831758</v>
+        <v>0.9981132075471698</v>
       </c>
       <c r="N54">
-        <v>0.9338374291115312</v>
+        <v>0.9339622641509434</v>
       </c>
       <c r="O54">
-        <v>0.9319470699432892</v>
+        <v>0.9320754716981132</v>
       </c>
       <c r="P54">
-        <v>0.9357277882797732</v>
+        <v>0.9358490566037736</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -10768,112 +10768,112 @@
         <v>1</v>
       </c>
       <c r="S54">
-        <v>0.9187145557655955</v>
+        <v>0.9188679245283019</v>
       </c>
       <c r="T54">
-        <v>0.9810964083175804</v>
+        <v>0.9811320754716981</v>
       </c>
       <c r="U54">
-        <v>0.9527410207939508</v>
+        <v>0.9528301886792453</v>
       </c>
       <c r="V54">
-        <v>0.9886578449905482</v>
+        <v>0.9886792452830189</v>
       </c>
       <c r="W54">
-        <v>0.9376181474480151</v>
+        <v>0.9377358490566038</v>
       </c>
       <c r="X54">
-        <v>0.9376181474480151</v>
+        <v>0.9377358490566038</v>
       </c>
       <c r="Y54">
-        <v>0.2495274102079395</v>
+        <v>0.2509433962264151</v>
       </c>
       <c r="Z54">
-        <v>0.7920604914933838</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="AA54">
-        <v>0.6559546313799622</v>
+        <v>0.6566037735849056</v>
       </c>
       <c r="AB54">
-        <v>0.6086956521739131</v>
+        <v>0.6075471698113207</v>
       </c>
       <c r="AC54">
-        <v>0.8582230623818525</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="AD54">
-        <v>0.5860113421550095</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="AE54">
-        <v>0.6162570888468809</v>
+        <v>0.6150943396226415</v>
       </c>
       <c r="AF54">
-        <v>0.9924385633270322</v>
+        <v>0.9924528301886792</v>
       </c>
       <c r="AG54">
-        <v>0.9300567107750473</v>
+        <v>0.930188679245283</v>
       </c>
       <c r="AH54">
-        <v>0.998109640831758</v>
+        <v>0.9981132075471698</v>
       </c>
       <c r="AI54">
         <v>1</v>
       </c>
       <c r="AJ54">
-        <v>0.9924385633270322</v>
+        <v>0.9924528301886792</v>
       </c>
       <c r="AK54">
-        <v>0.9395085066162571</v>
+        <v>0.939622641509434</v>
       </c>
       <c r="AL54">
         <v>1</v>
       </c>
       <c r="AM54">
-        <v>0.9905482041587902</v>
+        <v>0.9905660377358491</v>
       </c>
       <c r="AN54">
-        <v>0.9735349716446124</v>
+        <v>0.9735849056603774</v>
       </c>
       <c r="AO54">
-        <v>0.718336483931947</v>
+        <v>0.7188679245283018</v>
       </c>
       <c r="AP54">
-        <v>0.998109640831758</v>
+        <v>0.9981132075471698</v>
       </c>
       <c r="AQ54">
-        <v>0.7655954631379962</v>
+        <v>0.7641509433962265</v>
       </c>
       <c r="AR54">
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>0.8657844990548205</v>
+        <v>0.8660377358490566</v>
       </c>
       <c r="AT54">
-        <v>0.6899810964083176</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="AU54">
-        <v>0.7145557655954632</v>
+        <v>0.7132075471698113</v>
       </c>
       <c r="AV54">
-        <v>0.7580340264650284</v>
+        <v>0.7584905660377359</v>
       </c>
       <c r="AW54">
-        <v>0.998109640831758</v>
+        <v>0.9981132075471698</v>
       </c>
       <c r="AX54">
-        <v>0.5916824196597353</v>
+        <v>0.5924528301886792</v>
       </c>
       <c r="AY54">
         <v>1</v>
       </c>
       <c r="AZ54">
-        <v>0.9886578449905482</v>
+        <v>0.9886792452830189</v>
       </c>
       <c r="BA54">
-        <v>0.998109640831758</v>
+        <v>0.9981132075471698</v>
       </c>
       <c r="BB54">
-        <v>1</v>
+        <v>0.9981132075471698</v>
       </c>
       <c r="BC54">
         <v>1</v>
@@ -10888,19 +10888,19 @@
         <v>1</v>
       </c>
       <c r="BG54">
-        <v>0.9489603024574669</v>
+        <v>0.9490566037735849</v>
       </c>
       <c r="BH54">
-        <v>0.9508506616257089</v>
+        <v>0.9509433962264151</v>
       </c>
       <c r="BI54">
-        <v>0.9508506616257089</v>
+        <v>0.9509433962264151</v>
       </c>
       <c r="BJ54">
-        <v>0.9886578449905482</v>
+        <v>0.9886792452830189</v>
       </c>
       <c r="BK54">
-        <v>0.4517958412098299</v>
+        <v>0.4528301886792453</v>
       </c>
     </row>
     <row r="55">
@@ -10910,25 +10910,25 @@
         </is>
       </c>
       <c r="B55">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="C55">
-        <v>0.9594121763470959</v>
+        <v>0.9594689028651293</v>
       </c>
       <c r="D55">
-        <v>0.3358992302309307</v>
+        <v>0.336827393431167</v>
       </c>
       <c r="E55">
-        <v>0.9972008397480756</v>
+        <v>0.9972047519217331</v>
       </c>
       <c r="F55">
-        <v>0.9594121763470959</v>
+        <v>0.9594689028651293</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>0.9811056682995102</v>
+        <v>0.9811320754716981</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -10943,7 +10943,7 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>0.9979006298110566</v>
+        <v>0.9979035639412998</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -10958,19 +10958,19 @@
         <v>1</v>
       </c>
       <c r="R55">
-        <v>0.9853044086773968</v>
+        <v>0.9853249475890985</v>
       </c>
       <c r="S55">
-        <v>0.9699090272918125</v>
+        <v>0.9699510831586303</v>
       </c>
       <c r="T55">
-        <v>0.927221833449965</v>
+        <v>0.9273235499650594</v>
       </c>
       <c r="U55">
         <v>0</v>
       </c>
       <c r="V55">
-        <v>0.9790062981105668</v>
+        <v>0.9790356394129979</v>
       </c>
       <c r="W55">
         <v>0</v>
@@ -10979,28 +10979,28 @@
         <v>0</v>
       </c>
       <c r="Y55">
-        <v>0.1903428971308607</v>
+        <v>0.1900768693221523</v>
       </c>
       <c r="Z55">
-        <v>0.8278516445066481</v>
+        <v>0.827393431167016</v>
       </c>
       <c r="AA55">
-        <v>0.7270818754373688</v>
+        <v>0.7274633123689728</v>
       </c>
       <c r="AB55">
-        <v>0.6990902729181245</v>
+        <v>0.6995108315863033</v>
       </c>
       <c r="AC55">
-        <v>0.8551434569629112</v>
+        <v>0.8553459119496856</v>
       </c>
       <c r="AD55">
-        <v>0.689293212036389</v>
+        <v>0.689727463312369</v>
       </c>
       <c r="AE55">
-        <v>0.7116864940517844</v>
+        <v>0.7120894479385046</v>
       </c>
       <c r="AF55">
-        <v>0.9790062981105668</v>
+        <v>0.9790356394129979</v>
       </c>
       <c r="AG55">
         <v>0</v>
@@ -11012,67 +11012,67 @@
         <v>1</v>
       </c>
       <c r="AJ55">
-        <v>0.9951014695591323</v>
+        <v>0.9951083158630328</v>
       </c>
       <c r="AK55">
-        <v>0.8768369489153254</v>
+        <v>0.8770090845562544</v>
       </c>
       <c r="AL55">
         <v>1</v>
       </c>
       <c r="AM55">
-        <v>0.9930020993701889</v>
+        <v>0.9930118798043326</v>
       </c>
       <c r="AN55">
-        <v>0.9937018894331701</v>
+        <v>0.9937106918238994</v>
       </c>
       <c r="AO55">
-        <v>0.7242827151854444</v>
+        <v>0.7239692522711391</v>
       </c>
       <c r="AP55">
-        <v>0.9993002099370188</v>
+        <v>0.9993011879804332</v>
       </c>
       <c r="AQ55">
-        <v>0.8369489153254024</v>
+        <v>0.8371767994409504</v>
       </c>
       <c r="AR55">
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>0.8950314905528342</v>
+        <v>0.8951781970649895</v>
       </c>
       <c r="AT55">
-        <v>0.7739678096571029</v>
+        <v>0.7742837176799441</v>
       </c>
       <c r="AU55">
-        <v>0.8005598320503848</v>
+        <v>0.8008385744234801</v>
       </c>
       <c r="AV55">
-        <v>0.8495451364590623</v>
+        <v>0.8497554157931516</v>
       </c>
       <c r="AW55">
-        <v>0.9979006298110566</v>
+        <v>0.9979035639412998</v>
       </c>
       <c r="AX55">
-        <v>0.5437368789363191</v>
+        <v>0.543675751222921</v>
       </c>
       <c r="AY55">
         <v>1</v>
       </c>
       <c r="AZ55">
-        <v>0.9951014695591323</v>
+        <v>0.9951083158630328</v>
       </c>
       <c r="BA55">
-        <v>0.9979006298110566</v>
+        <v>0.9979035639412998</v>
       </c>
       <c r="BB55">
-        <v>1</v>
+        <v>0.9986023759608665</v>
       </c>
       <c r="BC55">
         <v>1</v>
       </c>
       <c r="BD55">
-        <v>0.9972008397480756</v>
+        <v>0.9972047519217331</v>
       </c>
       <c r="BE55">
         <v>1</v>
@@ -11081,7 +11081,7 @@
         <v>1</v>
       </c>
       <c r="BG55">
-        <v>0.947515745276417</v>
+        <v>0.9468902865129281</v>
       </c>
       <c r="BH55">
         <v>0</v>
@@ -11090,10 +11090,10 @@
         <v>0</v>
       </c>
       <c r="BJ55">
-        <v>0.9958012596221134</v>
+        <v>0.9958071278825996</v>
       </c>
       <c r="BK55">
-        <v>0.4275717284814556</v>
+        <v>0.4269741439552761</v>
       </c>
     </row>
     <row r="56">
@@ -12068,25 +12068,25 @@
         </is>
       </c>
       <c r="B61">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="C61">
-        <v>0.9384816753926701</v>
+        <v>0.9387222946544981</v>
       </c>
       <c r="D61">
-        <v>0.3520942408376964</v>
+        <v>0.3533246414602347</v>
       </c>
       <c r="E61">
-        <v>0.9986910994764397</v>
+        <v>0.9986962190352021</v>
       </c>
       <c r="F61">
-        <v>0.9528795811518325</v>
+        <v>0.9530638852672751</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>0.9738219895287958</v>
+        <v>0.9739243807040417</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -12104,64 +12104,64 @@
         <v>1</v>
       </c>
       <c r="N61">
-        <v>0.9554973821989529</v>
+        <v>0.9556714471968709</v>
       </c>
       <c r="O61">
-        <v>0.9515706806282722</v>
+        <v>0.9517601043024772</v>
       </c>
       <c r="P61">
-        <v>0.9515706806282722</v>
+        <v>0.9517601043024772</v>
       </c>
       <c r="Q61">
         <v>1</v>
       </c>
       <c r="R61">
-        <v>0.9986910994764397</v>
+        <v>0.9986962190352021</v>
       </c>
       <c r="S61">
-        <v>0.9476439790575916</v>
+        <v>0.9478487614080835</v>
       </c>
       <c r="T61">
-        <v>0.9267015706806283</v>
+        <v>0.9269882659713168</v>
       </c>
       <c r="U61">
-        <v>0.9568062827225131</v>
+        <v>0.9569752281616688</v>
       </c>
       <c r="V61">
-        <v>0.9777486910994765</v>
+        <v>0.9778357235984355</v>
       </c>
       <c r="W61">
-        <v>0.9581151832460733</v>
+        <v>0.9582790091264668</v>
       </c>
       <c r="X61">
-        <v>0.9568062827225131</v>
+        <v>0.9569752281616688</v>
       </c>
       <c r="Y61">
-        <v>0.1714659685863874</v>
+        <v>0.1720990873533246</v>
       </c>
       <c r="Z61">
-        <v>0.8272251308900523</v>
+        <v>0.8265971316818774</v>
       </c>
       <c r="AA61">
-        <v>0.7198952879581152</v>
+        <v>0.7183833116036505</v>
       </c>
       <c r="AB61">
-        <v>0.6976439790575916</v>
+        <v>0.6962190352020861</v>
       </c>
       <c r="AC61">
-        <v>0.8678010471204188</v>
+        <v>0.8670143415906127</v>
       </c>
       <c r="AD61">
-        <v>0.6884816753926701</v>
+        <v>0.6870925684485006</v>
       </c>
       <c r="AE61">
-        <v>0.7107329842931938</v>
+        <v>0.7092568448500652</v>
       </c>
       <c r="AF61">
-        <v>0.9973821989528796</v>
+        <v>0.9973924380704041</v>
       </c>
       <c r="AG61">
-        <v>0.9541884816753927</v>
+        <v>0.954367666232073</v>
       </c>
       <c r="AH61">
         <v>1</v>
@@ -12170,67 +12170,67 @@
         <v>1</v>
       </c>
       <c r="AJ61">
-        <v>0.9908376963350786</v>
+        <v>0.9908735332464146</v>
       </c>
       <c r="AK61">
-        <v>0.8965968586387435</v>
+        <v>0.8970013037809648</v>
       </c>
       <c r="AL61">
         <v>1</v>
       </c>
       <c r="AM61">
-        <v>0.9947643979057592</v>
+        <v>0.9947848761408083</v>
       </c>
       <c r="AN61">
-        <v>0.981675392670157</v>
+        <v>0.9817470664928292</v>
       </c>
       <c r="AO61">
-        <v>0.7238219895287958</v>
+        <v>0.7249022164276402</v>
       </c>
       <c r="AP61">
         <v>1</v>
       </c>
       <c r="AQ61">
-        <v>0.8102094240837696</v>
+        <v>0.8096479791395046</v>
       </c>
       <c r="AR61">
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>0.9149214659685864</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="AT61">
-        <v>0.7722513089005235</v>
+        <v>0.771838331160365</v>
       </c>
       <c r="AU61">
-        <v>0.7905759162303665</v>
+        <v>0.7913950456323338</v>
       </c>
       <c r="AV61">
-        <v>0.8089005235602095</v>
+        <v>0.8083441981747066</v>
       </c>
       <c r="AW61">
-        <v>0.9986910994764397</v>
+        <v>0.9986962190352021</v>
       </c>
       <c r="AX61">
-        <v>0.5091623036649214</v>
+        <v>0.5097783572359843</v>
       </c>
       <c r="AY61">
         <v>1</v>
       </c>
       <c r="AZ61">
-        <v>0.993455497382199</v>
+        <v>0.9934810951760105</v>
       </c>
       <c r="BA61">
         <v>1</v>
       </c>
       <c r="BB61">
-        <v>1</v>
+        <v>0.9960886571056062</v>
       </c>
       <c r="BC61">
         <v>1</v>
       </c>
       <c r="BD61">
-        <v>0.9986910994764397</v>
+        <v>0.9986962190352021</v>
       </c>
       <c r="BE61">
         <v>1</v>
@@ -12239,19 +12239,19 @@
         <v>1</v>
       </c>
       <c r="BG61">
-        <v>0.9476439790575916</v>
+        <v>0.9478487614080835</v>
       </c>
       <c r="BH61">
-        <v>0.9607329842931938</v>
+        <v>0.9608865710560626</v>
       </c>
       <c r="BI61">
-        <v>0.9607329842931938</v>
+        <v>0.9608865710560626</v>
       </c>
       <c r="BJ61">
-        <v>0.9908376963350786</v>
+        <v>0.9908735332464146</v>
       </c>
       <c r="BK61">
-        <v>0.3926701570680629</v>
+        <v>0.39374185136897</v>
       </c>
     </row>
   </sheetData>

--- a/sch2_missing.xlsx
+++ b/sch2_missing.xlsx
@@ -874,25 +874,25 @@
         </is>
       </c>
       <c r="B3">
-        <v>2286</v>
+        <v>2283</v>
       </c>
       <c r="C3">
-        <v>0.5927384076990376</v>
+        <v>0.5926412614980289</v>
       </c>
       <c r="D3">
-        <v>0.3941382327209099</v>
+        <v>0.3942181340341656</v>
       </c>
       <c r="E3">
-        <v>0.9978127734033246</v>
+        <v>0.9982479194042926</v>
       </c>
       <c r="F3">
-        <v>0.9186351706036745</v>
+        <v>0.9189662724485327</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.9776902887139107</v>
+        <v>0.9776609724047306</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -901,142 +901,142 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0.9991251093613298</v>
+        <v>0.9991239597021463</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9995625546806649</v>
+        <v>0.9995619798510732</v>
       </c>
       <c r="N3">
-        <v>0.6084864391951006</v>
+        <v>0.6079719667104687</v>
       </c>
       <c r="O3">
-        <v>0.6071741032370953</v>
+        <v>0.6066579062636881</v>
       </c>
       <c r="P3">
-        <v>0.6071741032370953</v>
+        <v>0.6066579062636881</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3">
-        <v>0.9986876640419947</v>
+        <v>0.9986859395532195</v>
       </c>
       <c r="S3">
-        <v>0.5962379702537183</v>
+        <v>0.5961454226894437</v>
       </c>
       <c r="T3">
-        <v>0.9378827646544182</v>
+        <v>0.9378011388523873</v>
       </c>
       <c r="U3">
-        <v>0.6115485564304461</v>
+        <v>0.6114761279018834</v>
       </c>
       <c r="V3">
-        <v>0.979002624671916</v>
+        <v>0.9789750328515112</v>
       </c>
       <c r="W3">
-        <v>0.6076115485564304</v>
+        <v>0.607095926412615</v>
       </c>
       <c r="X3">
-        <v>0.6058617672790901</v>
+        <v>0.6053438458169076</v>
       </c>
       <c r="Y3">
-        <v>0.2292213473315836</v>
+        <v>0.2290845378887429</v>
       </c>
       <c r="Z3">
-        <v>0.7839020122484689</v>
+        <v>0.7840560665790627</v>
       </c>
       <c r="AA3">
-        <v>0.7217847769028871</v>
+        <v>0.7222952255803767</v>
       </c>
       <c r="AB3">
-        <v>0.7034120734908137</v>
+        <v>0.703898379325449</v>
       </c>
       <c r="AC3">
-        <v>0.8923884514435696</v>
+        <v>0.8926850635129215</v>
       </c>
       <c r="AD3">
-        <v>0.6955380577427821</v>
+        <v>0.6955759964958388</v>
       </c>
       <c r="AE3">
-        <v>0.7279090113735783</v>
+        <v>0.7279894875164258</v>
       </c>
       <c r="AF3">
-        <v>0.9951881014873141</v>
+        <v>0.9951817783618047</v>
       </c>
       <c r="AG3">
-        <v>0.6076115485564304</v>
+        <v>0.607095926412615</v>
       </c>
       <c r="AH3">
-        <v>0.9991251093613298</v>
+        <v>0.9995619798510732</v>
       </c>
       <c r="AI3">
-        <v>0.9986876640419947</v>
+        <v>0.9991239597021463</v>
       </c>
       <c r="AJ3">
-        <v>0.9956255468066492</v>
+        <v>0.9956197985107315</v>
       </c>
       <c r="AK3">
-        <v>0.8836395450568679</v>
+        <v>0.8839246605343846</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
-        <v>0.9908136482939632</v>
+        <v>0.9916776171703898</v>
       </c>
       <c r="AN3">
-        <v>0.9829396325459318</v>
+        <v>0.9829172141918529</v>
       </c>
       <c r="AO3">
-        <v>0.7729658792650919</v>
+        <v>0.7731055628558914</v>
       </c>
       <c r="AP3">
-        <v>0.9995625546806649</v>
+        <v>0.9995619798510732</v>
       </c>
       <c r="AQ3">
-        <v>0.8560804899387576</v>
+        <v>0.856329391151993</v>
       </c>
       <c r="AR3">
         <v>1</v>
       </c>
       <c r="AS3">
-        <v>0.916010498687664</v>
+        <v>0.9167761717038984</v>
       </c>
       <c r="AT3">
-        <v>0.8031496062992126</v>
+        <v>0.803328953131844</v>
       </c>
       <c r="AU3">
-        <v>0.8167104111986002</v>
+        <v>0.8169075777485765</v>
       </c>
       <c r="AV3">
-        <v>0.847331583552056</v>
+        <v>0.8480070083223828</v>
       </c>
       <c r="AW3">
-        <v>0.9991251093613298</v>
+        <v>0.9991239597021463</v>
       </c>
       <c r="AX3">
-        <v>0.5297462817147857</v>
+        <v>0.5295663600525624</v>
       </c>
       <c r="AY3">
-        <v>0.9995625546806649</v>
+        <v>1</v>
       </c>
       <c r="AZ3">
-        <v>0.9943132108486439</v>
+        <v>0.994305738063951</v>
       </c>
       <c r="BA3">
-        <v>0.9995625546806649</v>
+        <v>0.9995619798510732</v>
       </c>
       <c r="BB3">
-        <v>0.9986876640419947</v>
+        <v>1</v>
       </c>
       <c r="BC3">
-        <v>0.9995625546806649</v>
+        <v>0.9995619798510732</v>
       </c>
       <c r="BD3">
-        <v>0.9982502187226596</v>
+        <v>0.9982479194042926</v>
       </c>
       <c r="BE3">
         <v>1</v>
@@ -1045,19 +1045,19 @@
         <v>1</v>
       </c>
       <c r="BG3">
-        <v>0.952755905511811</v>
+        <v>0.9526938239159002</v>
       </c>
       <c r="BH3">
-        <v>0.6128608923884514</v>
+        <v>0.6127901883486641</v>
       </c>
       <c r="BI3">
-        <v>0.6119860017497812</v>
+        <v>0.6119141480508103</v>
       </c>
       <c r="BJ3">
-        <v>0.994750656167979</v>
+        <v>0.9947437582128777</v>
       </c>
       <c r="BK3">
-        <v>0.4090113735783027</v>
+        <v>0.4086727989487516</v>
       </c>
     </row>
     <row r="4">
@@ -1067,19 +1067,19 @@
         </is>
       </c>
       <c r="B4">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="C4">
-        <v>0.4825079509313948</v>
+        <v>0.4827272727272727</v>
       </c>
       <c r="D4">
-        <v>0.3516583371194911</v>
+        <v>0.3518181818181818</v>
       </c>
       <c r="E4">
-        <v>0.9986369831894594</v>
+        <v>0.9986363636363637</v>
       </c>
       <c r="F4">
-        <v>0.9550204452521581</v>
+        <v>0.955</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1100,16 +1100,16 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.9990913221263062</v>
+        <v>0.9990909090909091</v>
       </c>
       <c r="N4">
-        <v>0.4911403907314857</v>
+        <v>0.4913636363636364</v>
       </c>
       <c r="O4">
-        <v>0.4906860517946388</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="P4">
-        <v>0.4906860517946388</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1118,49 +1118,49 @@
         <v>1</v>
       </c>
       <c r="S4">
-        <v>0.4852339845524761</v>
+        <v>0.4854545454545455</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.4770558836892322</v>
+        <v>0.4768181818181818</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.4911403907314857</v>
+        <v>0.4913636363636364</v>
       </c>
       <c r="X4">
-        <v>0.4906860517946388</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="Y4">
-        <v>0.3230349840981372</v>
+        <v>0.3231818181818182</v>
       </c>
       <c r="Z4">
-        <v>0.7223989095865516</v>
+        <v>0.7222727272727273</v>
       </c>
       <c r="AA4">
-        <v>0.7760109041344844</v>
+        <v>0.7763636363636364</v>
       </c>
       <c r="AB4">
-        <v>0.7623807360290777</v>
+        <v>0.7627272727272727</v>
       </c>
       <c r="AC4">
-        <v>0.9018627896410722</v>
+        <v>0.9022727272727272</v>
       </c>
       <c r="AD4">
-        <v>0.7582916855974557</v>
+        <v>0.7586363636363637</v>
       </c>
       <c r="AE4">
-        <v>0.7755565651976375</v>
+        <v>0.7759090909090909</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.4906860517946388</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="AH4">
         <v>1</v>
@@ -1169,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.9945479327578374</v>
+        <v>0.9945454545454545</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -1178,55 +1178,55 @@
         <v>1</v>
       </c>
       <c r="AM4">
-        <v>0.9954566106315311</v>
+        <v>0.9954545454545455</v>
       </c>
       <c r="AN4">
-        <v>0.9872785097682871</v>
+        <v>0.9872727272727273</v>
       </c>
       <c r="AO4">
-        <v>0.7105860972285325</v>
+        <v>0.7104545454545454</v>
       </c>
       <c r="AP4">
-        <v>0.9995456610631531</v>
+        <v>0.9995454545454545</v>
       </c>
       <c r="AQ4">
-        <v>0.8686960472512494</v>
+        <v>0.8690909090909091</v>
       </c>
       <c r="AR4">
         <v>1</v>
       </c>
       <c r="AS4">
-        <v>0.9145842798727851</v>
+        <v>0.9145454545454546</v>
       </c>
       <c r="AT4">
-        <v>0.8318945933666515</v>
+        <v>0.8322727272727273</v>
       </c>
       <c r="AU4">
-        <v>0.8487051340299864</v>
+        <v>0.8490909090909091</v>
       </c>
       <c r="AV4">
-        <v>0.8732394366197183</v>
+        <v>0.8736363636363637</v>
       </c>
       <c r="AW4">
-        <v>0.9995456610631531</v>
+        <v>0.9995454545454545</v>
       </c>
       <c r="AX4">
-        <v>0.5529304861426624</v>
+        <v>0.5527272727272727</v>
       </c>
       <c r="AY4">
         <v>1</v>
       </c>
       <c r="AZ4">
-        <v>0.9950022716946842</v>
+        <v>0.995</v>
       </c>
       <c r="BA4">
-        <v>0.9981826442526125</v>
+        <v>0.9981818181818182</v>
       </c>
       <c r="BB4">
-        <v>0.9995456610631531</v>
+        <v>1</v>
       </c>
       <c r="BC4">
-        <v>0.9995456610631531</v>
+        <v>0.9995454545454545</v>
       </c>
       <c r="BD4">
         <v>1</v>
@@ -1241,16 +1241,16 @@
         <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.4752385279418446</v>
+        <v>0.475</v>
       </c>
       <c r="BI4">
-        <v>0.4761472058155384</v>
+        <v>0.4759090909090909</v>
       </c>
       <c r="BJ4">
-        <v>0.9950022716946842</v>
+        <v>0.995</v>
       </c>
       <c r="BK4">
-        <v>0.3357564743298501</v>
+        <v>0.3354545454545454</v>
       </c>
     </row>
     <row r="5">
@@ -1453,25 +1453,25 @@
         </is>
       </c>
       <c r="B6">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C6">
-        <v>0.9076305220883534</v>
+        <v>0.907258064516129</v>
       </c>
       <c r="D6">
-        <v>0.5622489959839357</v>
+        <v>0.5645161290322581</v>
       </c>
       <c r="E6">
-        <v>0.9919678714859438</v>
+        <v>0.9919354838709677</v>
       </c>
       <c r="F6">
-        <v>0.9236947791164659</v>
+        <v>0.9233870967741935</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0.9839357429718876</v>
+        <v>0.9838709677419355</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1480,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>0.9959839357429718</v>
+        <v>0.9959677419354839</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1489,37 +1489,37 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>0.9397590361445783</v>
+        <v>0.9395161290322581</v>
       </c>
       <c r="O6">
-        <v>0.9357429718875502</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="P6">
-        <v>0.9397590361445783</v>
+        <v>0.9395161290322581</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6">
-        <v>0.9959839357429718</v>
+        <v>0.9959677419354839</v>
       </c>
       <c r="S6">
-        <v>0.9116465863453815</v>
+        <v>0.9112903225806451</v>
       </c>
       <c r="T6">
-        <v>0.9799196787148594</v>
+        <v>0.9798387096774194</v>
       </c>
       <c r="U6">
-        <v>0.9357429718875502</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="V6">
-        <v>0.963855421686747</v>
+        <v>0.9637096774193549</v>
       </c>
       <c r="W6">
-        <v>0.9357429718875502</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="X6">
-        <v>0.9357429718875502</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1528,76 +1528,76 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.5542168674698795</v>
+        <v>0.5564516129032258</v>
       </c>
       <c r="AB6">
-        <v>0.5261044176706827</v>
+        <v>0.5241935483870968</v>
       </c>
       <c r="AC6">
-        <v>0.8875502008032129</v>
+        <v>0.8870967741935484</v>
       </c>
       <c r="AD6">
-        <v>0.5060240963855421</v>
+        <v>0.5080645161290323</v>
       </c>
       <c r="AE6">
-        <v>0.5582329317269076</v>
+        <v>0.5604838709677419</v>
       </c>
       <c r="AF6">
-        <v>0.9799196787148594</v>
+        <v>0.9798387096774194</v>
       </c>
       <c r="AG6">
-        <v>0.9357429718875502</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="AH6">
-        <v>0.9959839357429718</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9959839357429718</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9959839357429718</v>
+        <v>0.9959677419354839</v>
       </c>
       <c r="AK6">
-        <v>0.9598393574297188</v>
+        <v>0.9596774193548387</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6">
-        <v>0.9879518072289156</v>
+        <v>0.9879032258064516</v>
       </c>
       <c r="AN6">
-        <v>0.9879518072289156</v>
+        <v>0.9879032258064516</v>
       </c>
       <c r="AO6">
-        <v>0.7309236947791165</v>
+        <v>0.7298387096774194</v>
       </c>
       <c r="AP6">
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0.7630522088353414</v>
+        <v>0.7661290322580645</v>
       </c>
       <c r="AR6">
         <v>1</v>
       </c>
       <c r="AS6">
-        <v>0.8755020080321285</v>
+        <v>0.875</v>
       </c>
       <c r="AT6">
-        <v>0.6867469879518072</v>
+        <v>0.6854838709677419</v>
       </c>
       <c r="AU6">
-        <v>0.6947791164658634</v>
+        <v>0.6975806451612904</v>
       </c>
       <c r="AV6">
-        <v>0.7469879518072289</v>
+        <v>0.75</v>
       </c>
       <c r="AW6">
         <v>1</v>
       </c>
       <c r="AX6">
-        <v>0.6546184738955824</v>
+        <v>0.6532258064516129</v>
       </c>
       <c r="AY6">
         <v>1</v>
@@ -1609,13 +1609,13 @@
         <v>1</v>
       </c>
       <c r="BB6">
-        <v>0.9959839357429718</v>
+        <v>1</v>
       </c>
       <c r="BC6">
         <v>1</v>
       </c>
       <c r="BD6">
-        <v>0.9879518072289156</v>
+        <v>0.9879032258064516</v>
       </c>
       <c r="BE6">
         <v>1</v>
@@ -1624,19 +1624,19 @@
         <v>1</v>
       </c>
       <c r="BG6">
-        <v>0.9397590361445783</v>
+        <v>0.9395161290322581</v>
       </c>
       <c r="BH6">
-        <v>0.9397590361445783</v>
+        <v>0.9395161290322581</v>
       </c>
       <c r="BI6">
-        <v>0.9397590361445783</v>
+        <v>0.9395161290322581</v>
       </c>
       <c r="BJ6">
         <v>1</v>
       </c>
       <c r="BK6">
-        <v>0.5301204819277109</v>
+        <v>0.5282258064516129</v>
       </c>
     </row>
     <row r="7">
@@ -1646,25 +1646,25 @@
         </is>
       </c>
       <c r="B7">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C7">
-        <v>0.9406392694063926</v>
+        <v>0.9405487804878049</v>
       </c>
       <c r="D7">
-        <v>0.4444444444444444</v>
+        <v>0.4451219512195122</v>
       </c>
       <c r="E7">
-        <v>0.9954337899543378</v>
+        <v>0.9969512195121951</v>
       </c>
       <c r="F7">
-        <v>0.954337899543379</v>
+        <v>0.9542682926829268</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.9771689497716894</v>
+        <v>0.9786585365853658</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1673,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>0.9984779299847792</v>
+        <v>0.9984756097560976</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1682,13 +1682,13 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>0.9634703196347032</v>
+        <v>0.9634146341463414</v>
       </c>
       <c r="O7">
-        <v>0.9634703196347032</v>
+        <v>0.9634146341463414</v>
       </c>
       <c r="P7">
-        <v>0.9634703196347032</v>
+        <v>0.9634146341463414</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -1697,112 +1697,112 @@
         <v>1</v>
       </c>
       <c r="S7">
-        <v>0.939117199391172</v>
+        <v>0.9390243902439024</v>
       </c>
       <c r="T7">
-        <v>0.9467275494672754</v>
+        <v>0.948170731707317</v>
       </c>
       <c r="U7">
-        <v>0.9710806697108066</v>
+        <v>0.9710365853658537</v>
       </c>
       <c r="V7">
-        <v>0.9832572298325722</v>
+        <v>0.9847560975609756</v>
       </c>
       <c r="W7">
-        <v>0.9604261796042618</v>
+        <v>0.9603658536585366</v>
       </c>
       <c r="X7">
-        <v>0.9619482496194824</v>
+        <v>0.961890243902439</v>
       </c>
       <c r="Y7">
-        <v>0.4916286149162861</v>
+        <v>0.4923780487804878</v>
       </c>
       <c r="Z7">
-        <v>0.593607305936073</v>
+        <v>0.5929878048780488</v>
       </c>
       <c r="AA7">
-        <v>0.6727549467275494</v>
+        <v>0.6722560975609756</v>
       </c>
       <c r="AB7">
-        <v>0.649923896499239</v>
+        <v>0.649390243902439</v>
       </c>
       <c r="AC7">
-        <v>0.8645357686453576</v>
+        <v>0.864329268292683</v>
       </c>
       <c r="AD7">
-        <v>0.6301369863013698</v>
+        <v>0.6295731707317073</v>
       </c>
       <c r="AE7">
-        <v>0.6712328767123288</v>
+        <v>0.6707317073170732</v>
       </c>
       <c r="AF7">
-        <v>0.984779299847793</v>
+        <v>0.9847560975609756</v>
       </c>
       <c r="AG7">
-        <v>0.9619482496194824</v>
+        <v>0.961890243902439</v>
       </c>
       <c r="AH7">
-        <v>0.9984779299847792</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.9984779299847792</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0.9954337899543378</v>
+        <v>0.9969512195121951</v>
       </c>
       <c r="AK7">
-        <v>0.8949771689497716</v>
+        <v>0.8963414634146342</v>
       </c>
       <c r="AL7">
         <v>1</v>
       </c>
       <c r="AM7">
-        <v>0.9939117199391172</v>
+        <v>0.9954268292682927</v>
       </c>
       <c r="AN7">
-        <v>0.9939117199391172</v>
+        <v>0.9939024390243902</v>
       </c>
       <c r="AO7">
-        <v>0.7838660578386606</v>
+        <v>0.7835365853658537</v>
       </c>
       <c r="AP7">
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0.8112633181126332</v>
+        <v>0.8109756097560976</v>
       </c>
       <c r="AR7">
         <v>1</v>
       </c>
       <c r="AS7">
-        <v>0.9071537290715372</v>
+        <v>0.9070121951219512</v>
       </c>
       <c r="AT7">
-        <v>0.7519025875190258</v>
+        <v>0.7515243902439024</v>
       </c>
       <c r="AU7">
-        <v>0.7701674277016742</v>
+        <v>0.7698170731707317</v>
       </c>
       <c r="AV7">
-        <v>0.8203957382039574</v>
+        <v>0.8201219512195121</v>
       </c>
       <c r="AW7">
         <v>1</v>
       </c>
       <c r="AX7">
-        <v>0.593607305936073</v>
+        <v>0.5945121951219512</v>
       </c>
       <c r="AY7">
-        <v>0.9984779299847792</v>
+        <v>1</v>
       </c>
       <c r="AZ7">
-        <v>0.9969558599695586</v>
+        <v>0.9969512195121951</v>
       </c>
       <c r="BA7">
-        <v>0.9969558599695586</v>
+        <v>0.9969512195121951</v>
       </c>
       <c r="BB7">
-        <v>0.9984779299847792</v>
+        <v>1</v>
       </c>
       <c r="BC7">
         <v>1</v>
@@ -1817,19 +1817,19 @@
         <v>1</v>
       </c>
       <c r="BG7">
-        <v>0.9330289193302892</v>
+        <v>0.9329268292682927</v>
       </c>
       <c r="BH7">
-        <v>0.9756468797564688</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="BI7">
-        <v>0.969558599695586</v>
+        <v>0.9695121951219512</v>
       </c>
       <c r="BJ7">
-        <v>0.9984779299847792</v>
+        <v>0.9984756097560976</v>
       </c>
       <c r="BK7">
-        <v>0.578386605783866</v>
+        <v>0.5792682926829268</v>
       </c>
     </row>
     <row r="8">
@@ -2225,19 +2225,19 @@
         </is>
       </c>
       <c r="B10">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C10">
-        <v>0.3992932862190813</v>
+        <v>0.3995756718528995</v>
       </c>
       <c r="D10">
-        <v>0.3469964664310954</v>
+        <v>0.3472418670438472</v>
       </c>
       <c r="E10">
-        <v>0.9971731448763251</v>
+        <v>0.9971711456859972</v>
       </c>
       <c r="F10">
-        <v>0.9519434628975265</v>
+        <v>0.9526166902404526</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2273,16 +2273,16 @@
         <v>1</v>
       </c>
       <c r="R10">
-        <v>0.9992932862190813</v>
+        <v>0.9992927864214993</v>
       </c>
       <c r="S10">
-        <v>0.4021201413427562</v>
+        <v>0.4024045261669024</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.5618374558303887</v>
+        <v>0.5615275813295615</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -2294,25 +2294,25 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.246643109540636</v>
+        <v>0.2468175388967468</v>
       </c>
       <c r="Z10">
-        <v>0.7717314487632508</v>
+        <v>0.7715700141442716</v>
       </c>
       <c r="AA10">
-        <v>0.7017667844522968</v>
+        <v>0.7022630834512023</v>
       </c>
       <c r="AB10">
-        <v>0.6826855123674912</v>
+        <v>0.6831683168316832</v>
       </c>
       <c r="AC10">
-        <v>0.8621908127208481</v>
+        <v>0.8628005657708628</v>
       </c>
       <c r="AD10">
-        <v>0.662190812720848</v>
+        <v>0.6626591230551626</v>
       </c>
       <c r="AE10">
-        <v>0.688339222614841</v>
+        <v>0.6888260254596889</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.9929328621908127</v>
+        <v>0.9929278642149929</v>
       </c>
       <c r="AK10">
         <v>0</v>
@@ -2336,58 +2336,58 @@
         <v>1</v>
       </c>
       <c r="AM10">
-        <v>0.9915194346289753</v>
+        <v>0.9915134370579916</v>
       </c>
       <c r="AN10">
-        <v>0.9809187279151943</v>
+        <v>0.9809052333804809</v>
       </c>
       <c r="AO10">
-        <v>0.7173144876325088</v>
+        <v>0.7171145685997171</v>
       </c>
       <c r="AP10">
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.8332155477031802</v>
+        <v>0.8330975954738331</v>
       </c>
       <c r="AR10">
         <v>1</v>
       </c>
       <c r="AS10">
-        <v>0.9045936395759717</v>
+        <v>0.9045261669024045</v>
       </c>
       <c r="AT10">
-        <v>0.7646643109540636</v>
+        <v>0.7652050919377652</v>
       </c>
       <c r="AU10">
-        <v>0.7710247349823321</v>
+        <v>0.7715700141442716</v>
       </c>
       <c r="AV10">
-        <v>0.8226148409893993</v>
+        <v>0.8231966053748232</v>
       </c>
       <c r="AW10">
         <v>1</v>
       </c>
       <c r="AX10">
-        <v>0.6014134275618375</v>
+        <v>0.6011315417256011</v>
       </c>
       <c r="AY10">
         <v>1</v>
       </c>
       <c r="AZ10">
-        <v>0.9936395759717315</v>
+        <v>0.9936350777934936</v>
       </c>
       <c r="BA10">
         <v>1</v>
       </c>
       <c r="BB10">
-        <v>0.9992932862190813</v>
+        <v>1</v>
       </c>
       <c r="BC10">
         <v>1</v>
       </c>
       <c r="BD10">
-        <v>0.9985865724381625</v>
+        <v>0.9985855728429985</v>
       </c>
       <c r="BE10">
         <v>1</v>
@@ -2399,16 +2399,16 @@
         <v>0</v>
       </c>
       <c r="BH10">
-        <v>0.5618374558303887</v>
+        <v>0.5615275813295615</v>
       </c>
       <c r="BI10">
-        <v>0.5618374558303887</v>
+        <v>0.5615275813295615</v>
       </c>
       <c r="BJ10">
-        <v>0.995053003533569</v>
+        <v>0.995049504950495</v>
       </c>
       <c r="BK10">
-        <v>0.4303886925795053</v>
+        <v>0.42998585572843</v>
       </c>
     </row>
     <row r="11">
@@ -2997,19 +2997,19 @@
         </is>
       </c>
       <c r="B14">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="C14">
-        <v>0.4957594448727833</v>
+        <v>0.4957528957528958</v>
       </c>
       <c r="D14">
-        <v>0.4016962220508867</v>
+        <v>0.4023166023166023</v>
       </c>
       <c r="E14">
-        <v>0.9969159599074788</v>
+        <v>0.9969111969111969</v>
       </c>
       <c r="F14">
-        <v>0.9622205088666153</v>
+        <v>0.9621621621621622</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -3024,13 +3024,13 @@
         <v>1</v>
       </c>
       <c r="K14">
-        <v>0.9992289899768697</v>
+        <v>0.9992277992277993</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9992289899768697</v>
+        <v>0.9992277992277993</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -3045,10 +3045,10 @@
         <v>1</v>
       </c>
       <c r="R14">
-        <v>0.9992289899768697</v>
+        <v>0.9992277992277993</v>
       </c>
       <c r="S14">
-        <v>0.494988434849653</v>
+        <v>0.494980694980695</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -3066,25 +3066,25 @@
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>0.1341557440246723</v>
+        <v>0.1335907335907336</v>
       </c>
       <c r="Z14">
-        <v>0.856592135697764</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AA14">
-        <v>0.7879722436391673</v>
+        <v>0.7876447876447876</v>
       </c>
       <c r="AB14">
-        <v>0.7717810331534309</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="AC14">
-        <v>0.9290670778720124</v>
+        <v>0.9289575289575289</v>
       </c>
       <c r="AD14">
-        <v>0.7656129529683886</v>
+        <v>0.7652509652509653</v>
       </c>
       <c r="AE14">
-        <v>0.7810331534309946</v>
+        <v>0.7806949806949807</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -3093,13 +3093,13 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>0.9992289899768697</v>
+        <v>1</v>
       </c>
       <c r="AI14">
-        <v>0.9976869699306091</v>
+        <v>0.9984555984555985</v>
       </c>
       <c r="AJ14">
-        <v>0.9953739398612182</v>
+        <v>0.9953667953667954</v>
       </c>
       <c r="AK14">
         <v>0</v>
@@ -3108,58 +3108,58 @@
         <v>1</v>
       </c>
       <c r="AM14">
-        <v>0.9953739398612182</v>
+        <v>0.9953667953667954</v>
       </c>
       <c r="AN14">
-        <v>0.9760986892829607</v>
+        <v>0.976061776061776</v>
       </c>
       <c r="AO14">
-        <v>0.6815728604471858</v>
+        <v>0.6818532818532819</v>
       </c>
       <c r="AP14">
         <v>1</v>
       </c>
       <c r="AQ14">
-        <v>0.8558211256746338</v>
+        <v>0.8555984555984556</v>
       </c>
       <c r="AR14">
         <v>1</v>
       </c>
       <c r="AS14">
-        <v>0.920585967617579</v>
+        <v>0.9204633204633205</v>
       </c>
       <c r="AT14">
-        <v>0.8211256746337703</v>
+        <v>0.8208494208494208</v>
       </c>
       <c r="AU14">
-        <v>0.8373168851195065</v>
+        <v>0.8370656370656371</v>
       </c>
       <c r="AV14">
-        <v>0.8596761757902853</v>
+        <v>0.8594594594594595</v>
       </c>
       <c r="AW14">
-        <v>0.9992289899768697</v>
+        <v>0.9992277992277993</v>
       </c>
       <c r="AX14">
-        <v>0.5134926754047803</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="AY14">
         <v>1</v>
       </c>
       <c r="AZ14">
-        <v>0.9892058596761758</v>
+        <v>0.9891891891891892</v>
       </c>
       <c r="BA14">
-        <v>0.9992289899768697</v>
+        <v>0.9992277992277993</v>
       </c>
       <c r="BB14">
-        <v>0.9984579799537394</v>
+        <v>1</v>
       </c>
       <c r="BC14">
         <v>1</v>
       </c>
       <c r="BD14">
-        <v>0.9976869699306091</v>
+        <v>0.9976833976833976</v>
       </c>
       <c r="BE14">
         <v>1</v>
@@ -3177,10 +3177,10 @@
         <v>0</v>
       </c>
       <c r="BJ14">
-        <v>0.9884348496530455</v>
+        <v>0.9884169884169884</v>
       </c>
       <c r="BK14">
-        <v>0.3454124903623747</v>
+        <v>0.345945945945946</v>
       </c>
     </row>
     <row r="15">
@@ -3383,25 +3383,25 @@
         </is>
       </c>
       <c r="B16">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="C16">
-        <v>0.4770569620253164</v>
+        <v>0.4781919111816019</v>
       </c>
       <c r="D16">
-        <v>0.4264240506329114</v>
+        <v>0.4274385408406027</v>
       </c>
       <c r="E16">
-        <v>0.9984177215189873</v>
+        <v>0.9984139571768438</v>
       </c>
       <c r="F16">
-        <v>0.930379746835443</v>
+        <v>0.9302141157811261</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>0.9857594936708861</v>
+        <v>0.985725614591594</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -3410,13 +3410,13 @@
         <v>1</v>
       </c>
       <c r="K16">
-        <v>0.9992088607594937</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9984177215189873</v>
+        <v>0.9984139571768438</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -3431,19 +3431,19 @@
         <v>1</v>
       </c>
       <c r="R16">
-        <v>0.997626582278481</v>
+        <v>0.9976209357652657</v>
       </c>
       <c r="S16">
-        <v>0.4794303797468354</v>
+        <v>0.4805709754163363</v>
       </c>
       <c r="T16">
-        <v>0.9477848101265823</v>
+        <v>0.9476605868358445</v>
       </c>
       <c r="U16">
-        <v>0.4691455696202532</v>
+        <v>0.4686756542426646</v>
       </c>
       <c r="V16">
-        <v>0.9865506329113924</v>
+        <v>0.9865186360031721</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -3458,94 +3458,94 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>0.7033227848101266</v>
+        <v>0.7026169706582077</v>
       </c>
       <c r="AB16">
-        <v>0.6875</v>
+        <v>0.6867565424266455</v>
       </c>
       <c r="AC16">
-        <v>0.872626582278481</v>
+        <v>0.8723235527359239</v>
       </c>
       <c r="AD16">
-        <v>0.6653481012658228</v>
+        <v>0.6645519429024583</v>
       </c>
       <c r="AE16">
-        <v>0.7001582278481012</v>
+        <v>0.6994448850118953</v>
       </c>
       <c r="AF16">
-        <v>0.992879746835443</v>
+        <v>0.992862807295797</v>
       </c>
       <c r="AG16">
         <v>0</v>
       </c>
       <c r="AH16">
-        <v>0.997626582278481</v>
+        <v>0.9984139571768438</v>
       </c>
       <c r="AI16">
-        <v>0.997626582278481</v>
+        <v>0.9984139571768438</v>
       </c>
       <c r="AJ16">
-        <v>0.9936708860759493</v>
+        <v>0.9936558287073751</v>
       </c>
       <c r="AK16">
-        <v>0.8947784810126582</v>
+        <v>0.8953211736716892</v>
       </c>
       <c r="AL16">
         <v>1</v>
       </c>
       <c r="AM16">
-        <v>0.990506329113924</v>
+        <v>0.9904837430610627</v>
       </c>
       <c r="AN16">
-        <v>0.9770569620253164</v>
+        <v>0.9777954004758128</v>
       </c>
       <c r="AO16">
-        <v>0.696993670886076</v>
+        <v>0.6970658207771609</v>
       </c>
       <c r="AP16">
-        <v>0.9992088607594937</v>
+        <v>0.9992069785884219</v>
       </c>
       <c r="AQ16">
-        <v>0.805379746835443</v>
+        <v>0.8065027755749405</v>
       </c>
       <c r="AR16">
         <v>1</v>
       </c>
       <c r="AS16">
-        <v>0.8718354430379747</v>
+        <v>0.873116574147502</v>
       </c>
       <c r="AT16">
-        <v>0.7246835443037974</v>
+        <v>0.725614591593973</v>
       </c>
       <c r="AU16">
-        <v>0.757120253164557</v>
+        <v>0.7581284694686756</v>
       </c>
       <c r="AV16">
-        <v>0.8267405063291139</v>
+        <v>0.8279143536875495</v>
       </c>
       <c r="AW16">
         <v>1</v>
       </c>
       <c r="AX16">
-        <v>0.5015822784810127</v>
+        <v>0.5027755749405234</v>
       </c>
       <c r="AY16">
-        <v>0.9984177215189873</v>
+        <v>0.9984139571768438</v>
       </c>
       <c r="AZ16">
-        <v>0.992879746835443</v>
+        <v>0.992862807295797</v>
       </c>
       <c r="BA16">
-        <v>0.9992088607594937</v>
+        <v>0.9992069785884219</v>
       </c>
       <c r="BB16">
-        <v>0.997626582278481</v>
+        <v>1</v>
       </c>
       <c r="BC16">
         <v>1</v>
       </c>
       <c r="BD16">
-        <v>0.9984177215189873</v>
+        <v>0.9984139571768438</v>
       </c>
       <c r="BE16">
         <v>1</v>
@@ -3554,19 +3554,19 @@
         <v>1</v>
       </c>
       <c r="BG16">
-        <v>0.9683544303797469</v>
+        <v>0.9682791435368755</v>
       </c>
       <c r="BH16">
-        <v>0.4675632911392405</v>
+        <v>0.4670896114195083</v>
       </c>
       <c r="BI16">
-        <v>0.4683544303797468</v>
+        <v>0.4678826328310864</v>
       </c>
       <c r="BJ16">
-        <v>0.992879746835443</v>
+        <v>0.992862807295797</v>
       </c>
       <c r="BK16">
-        <v>0.3805379746835443</v>
+        <v>0.3814432989690721</v>
       </c>
     </row>
     <row r="17">
@@ -3769,25 +3769,25 @@
         </is>
       </c>
       <c r="B18">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5203619909502263</v>
+        <v>0.5215419501133787</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0.9343891402714932</v>
+        <v>0.9342403628117913</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>0.9841628959276018</v>
+        <v>0.9841269841269841</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -3802,136 +3802,136 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.997737556561086</v>
+        <v>0.9977324263038548</v>
       </c>
       <c r="N18">
-        <v>0.9683257918552036</v>
+        <v>0.9682539682539683</v>
       </c>
       <c r="O18">
-        <v>0.9683257918552036</v>
+        <v>0.9682539682539683</v>
       </c>
       <c r="P18">
-        <v>0.9660633484162896</v>
+        <v>0.9659863945578231</v>
       </c>
       <c r="Q18">
         <v>1</v>
       </c>
       <c r="R18">
-        <v>0.997737556561086</v>
+        <v>0.9977324263038548</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>0.9615384615384616</v>
+        <v>0.9614512471655329</v>
       </c>
       <c r="U18">
         <v>0</v>
       </c>
       <c r="V18">
-        <v>0.9819004524886877</v>
+        <v>0.981859410430839</v>
       </c>
       <c r="W18">
-        <v>0.9660633484162896</v>
+        <v>0.9659863945578231</v>
       </c>
       <c r="X18">
-        <v>0.9683257918552036</v>
+        <v>0.9682539682539683</v>
       </c>
       <c r="Y18">
-        <v>0.2647058823529412</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="Z18">
-        <v>0.7669683257918553</v>
+        <v>0.7664399092970522</v>
       </c>
       <c r="AA18">
-        <v>0.5090497737556561</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="AB18">
-        <v>0.504524886877828</v>
+        <v>0.5056689342403629</v>
       </c>
       <c r="AC18">
-        <v>0.8619909502262444</v>
+        <v>0.8616780045351474</v>
       </c>
       <c r="AD18">
-        <v>0.4683257918552036</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="AE18">
-        <v>0.5226244343891403</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="AF18">
-        <v>0.9886877828054299</v>
+        <v>0.9886621315192744</v>
       </c>
       <c r="AG18">
-        <v>0.9683257918552036</v>
+        <v>0.9682539682539683</v>
       </c>
       <c r="AH18">
         <v>1</v>
       </c>
       <c r="AI18">
-        <v>0.997737556561086</v>
+        <v>0.9977324263038548</v>
       </c>
       <c r="AJ18">
-        <v>0.9932126696832579</v>
+        <v>0.9931972789115646</v>
       </c>
       <c r="AK18">
-        <v>0.9389140271493213</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="AL18">
         <v>1</v>
       </c>
       <c r="AM18">
-        <v>0.9841628959276018</v>
+        <v>0.9863945578231292</v>
       </c>
       <c r="AN18">
-        <v>0.9751131221719457</v>
+        <v>0.9750566893424036</v>
       </c>
       <c r="AO18">
-        <v>0.7307692307692307</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="AP18">
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>0.7239819004524887</v>
+        <v>0.7256235827664399</v>
       </c>
       <c r="AR18">
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>0.8687782805429864</v>
+        <v>0.8707482993197279</v>
       </c>
       <c r="AT18">
-        <v>0.667420814479638</v>
+        <v>0.6689342403628118</v>
       </c>
       <c r="AU18">
-        <v>0.667420814479638</v>
+        <v>0.6689342403628118</v>
       </c>
       <c r="AV18">
-        <v>0.7104072398190046</v>
+        <v>0.7120181405895691</v>
       </c>
       <c r="AW18">
-        <v>0.997737556561086</v>
+        <v>0.9977324263038548</v>
       </c>
       <c r="AX18">
-        <v>0.7149321266968326</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AY18">
-        <v>0.9638009049773756</v>
+        <v>0.963718820861678</v>
       </c>
       <c r="AZ18">
-        <v>0.9841628959276018</v>
+        <v>0.9841269841269841</v>
       </c>
       <c r="BA18">
-        <v>0.997737556561086</v>
+        <v>0.9977324263038548</v>
       </c>
       <c r="BB18">
-        <v>0.997737556561086</v>
+        <v>1</v>
       </c>
       <c r="BC18">
-        <v>0.997737556561086</v>
+        <v>0.9977324263038548</v>
       </c>
       <c r="BD18">
-        <v>0.997737556561086</v>
+        <v>0.9977324263038548</v>
       </c>
       <c r="BE18">
         <v>1</v>
@@ -3940,7 +3940,7 @@
         <v>1</v>
       </c>
       <c r="BG18">
-        <v>0.9728506787330317</v>
+        <v>0.9727891156462585</v>
       </c>
       <c r="BH18">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>0.9841628959276018</v>
+        <v>0.9841269841269841</v>
       </c>
       <c r="BK18">
-        <v>0.5927601809954751</v>
+        <v>0.5918367346938775</v>
       </c>
     </row>
     <row r="19">
@@ -5120,25 +5120,25 @@
         </is>
       </c>
       <c r="B25">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C25">
-        <v>0.8589420654911839</v>
+        <v>0.8585858585858586</v>
       </c>
       <c r="D25">
-        <v>0.5541561712846348</v>
+        <v>0.553030303030303</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
-        <v>0.9496221662468514</v>
+        <v>0.9494949494949495</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>0.9697732997481109</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -5147,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="K25">
-        <v>0.9974811083123426</v>
+        <v>0.9974747474747475</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -5156,13 +5156,13 @@
         <v>1</v>
       </c>
       <c r="N25">
-        <v>0.8841309823677582</v>
+        <v>0.8838383838383839</v>
       </c>
       <c r="O25">
-        <v>0.8841309823677582</v>
+        <v>0.8838383838383839</v>
       </c>
       <c r="P25">
-        <v>0.8841309823677582</v>
+        <v>0.8838383838383839</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -5171,112 +5171,112 @@
         <v>1</v>
       </c>
       <c r="S25">
-        <v>0.8614609571788413</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="T25">
-        <v>0.9445843828715366</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="U25">
-        <v>0.9219143576826196</v>
+        <v>0.9217171717171717</v>
       </c>
       <c r="V25">
-        <v>0.9672544080604534</v>
+        <v>0.9671717171717171</v>
       </c>
       <c r="W25">
-        <v>0.889168765743073</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="X25">
-        <v>0.8866498740554156</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="Y25">
-        <v>0.1964735516372796</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="Z25">
-        <v>0.8337531486146096</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AA25">
-        <v>0.6599496221662469</v>
+        <v>0.6616161616161617</v>
       </c>
       <c r="AB25">
-        <v>0.6473551637279596</v>
+        <v>0.648989898989899</v>
       </c>
       <c r="AC25">
-        <v>0.853904282115869</v>
+        <v>0.8535353535353535</v>
       </c>
       <c r="AD25">
-        <v>0.6146095717884131</v>
+        <v>0.6161616161616161</v>
       </c>
       <c r="AE25">
-        <v>0.672544080604534</v>
+        <v>0.6742424242424242</v>
       </c>
       <c r="AF25">
-        <v>0.9848866498740554</v>
+        <v>0.9848484848484849</v>
       </c>
       <c r="AG25">
-        <v>0.8790931989924433</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="AH25">
-        <v>0.9974811083123426</v>
+        <v>0.9974747474747475</v>
       </c>
       <c r="AI25">
-        <v>0.9974811083123426</v>
+        <v>0.9974747474747475</v>
       </c>
       <c r="AJ25">
-        <v>0.9874055415617129</v>
+        <v>0.9873737373737373</v>
       </c>
       <c r="AK25">
-        <v>0.9168765743073047</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="AL25">
         <v>1</v>
       </c>
       <c r="AM25">
-        <v>0.9924433249370277</v>
+        <v>0.9924242424242424</v>
       </c>
       <c r="AN25">
-        <v>0.9748110831234257</v>
+        <v>0.9747474747474747</v>
       </c>
       <c r="AO25">
-        <v>0.7002518891687658</v>
+        <v>0.6994949494949495</v>
       </c>
       <c r="AP25">
         <v>1</v>
       </c>
       <c r="AQ25">
-        <v>0.8513853904282116</v>
+        <v>0.851010101010101</v>
       </c>
       <c r="AR25">
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>0.8488664987405542</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="AT25">
-        <v>0.7657430730478589</v>
+        <v>0.7651515151515151</v>
       </c>
       <c r="AU25">
-        <v>0.7657430730478589</v>
+        <v>0.7651515151515151</v>
       </c>
       <c r="AV25">
-        <v>0.8136020151133502</v>
+        <v>0.8131313131313131</v>
       </c>
       <c r="AW25">
-        <v>0.9974811083123426</v>
+        <v>0.9974747474747475</v>
       </c>
       <c r="AX25">
-        <v>0.5188916876574308</v>
+        <v>0.5176767676767676</v>
       </c>
       <c r="AY25">
         <v>1</v>
       </c>
       <c r="AZ25">
-        <v>0.9874055415617129</v>
+        <v>0.9873737373737373</v>
       </c>
       <c r="BA25">
         <v>1</v>
       </c>
       <c r="BB25">
-        <v>0.9974811083123426</v>
+        <v>1</v>
       </c>
       <c r="BC25">
         <v>1</v>
@@ -5291,19 +5291,19 @@
         <v>1</v>
       </c>
       <c r="BG25">
-        <v>0.9748110831234257</v>
+        <v>0.9747474747474747</v>
       </c>
       <c r="BH25">
-        <v>0.9193954659949622</v>
+        <v>0.9191919191919192</v>
       </c>
       <c r="BI25">
-        <v>0.9168765743073047</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="BJ25">
-        <v>0.9848866498740554</v>
+        <v>0.9848484848484849</v>
       </c>
       <c r="BK25">
-        <v>0.4005037783375315</v>
+        <v>0.398989898989899</v>
       </c>
     </row>
     <row r="26">
@@ -5699,25 +5699,25 @@
         </is>
       </c>
       <c r="B28">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0.4208909370199693</v>
+        <v>0.4215384615384615</v>
       </c>
       <c r="E28">
-        <v>0.9953917050691244</v>
+        <v>0.9953846153846154</v>
       </c>
       <c r="F28">
-        <v>0.9615975422427036</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>0.978494623655914</v>
+        <v>0.9784615384615385</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -5732,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0.9953917050691244</v>
+        <v>0.9953846153846154</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -5747,19 +5747,19 @@
         <v>1</v>
       </c>
       <c r="R28">
-        <v>0.9984639016897081</v>
+        <v>0.9984615384615385</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>0.8924731182795699</v>
+        <v>0.8938461538461538</v>
       </c>
       <c r="U28">
-        <v>0.9047619047619048</v>
+        <v>0.9046153846153846</v>
       </c>
       <c r="V28">
-        <v>0.9692780337941628</v>
+        <v>0.9692307692307692</v>
       </c>
       <c r="W28">
         <v>0</v>
@@ -5768,28 +5768,28 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>0.1397849462365591</v>
+        <v>0.14</v>
       </c>
       <c r="Z28">
-        <v>0.8771121351766513</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="AA28">
-        <v>0.7603686635944701</v>
+        <v>0.76</v>
       </c>
       <c r="AB28">
-        <v>0.7296466973886329</v>
+        <v>0.7292307692307692</v>
       </c>
       <c r="AC28">
-        <v>0.9062980030721967</v>
+        <v>0.9061538461538462</v>
       </c>
       <c r="AD28">
-        <v>0.7235023041474654</v>
+        <v>0.7230769230769231</v>
       </c>
       <c r="AE28">
-        <v>0.7496159754224271</v>
+        <v>0.7492307692307693</v>
       </c>
       <c r="AF28">
-        <v>0.989247311827957</v>
+        <v>0.9892307692307692</v>
       </c>
       <c r="AG28">
         <v>0</v>
@@ -5798,70 +5798,70 @@
         <v>1</v>
       </c>
       <c r="AI28">
-        <v>0.9984639016897081</v>
+        <v>0.9984615384615385</v>
       </c>
       <c r="AJ28">
-        <v>0.989247311827957</v>
+        <v>0.9892307692307692</v>
       </c>
       <c r="AK28">
-        <v>0.8248847926267281</v>
+        <v>0.8261538461538461</v>
       </c>
       <c r="AL28">
         <v>1</v>
       </c>
       <c r="AM28">
-        <v>0.9953917050691244</v>
+        <v>0.9953846153846154</v>
       </c>
       <c r="AN28">
-        <v>0.9708141321044547</v>
+        <v>0.9707692307692307</v>
       </c>
       <c r="AO28">
-        <v>0.6098310291858678</v>
+        <v>0.6107692307692307</v>
       </c>
       <c r="AP28">
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>0.8325652841781874</v>
+        <v>0.8323076923076923</v>
       </c>
       <c r="AR28">
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>0.9201228878648233</v>
+        <v>0.92</v>
       </c>
       <c r="AT28">
-        <v>0.783410138248848</v>
+        <v>0.7830769230769231</v>
       </c>
       <c r="AU28">
-        <v>0.7864823348694316</v>
+        <v>0.7861538461538462</v>
       </c>
       <c r="AV28">
-        <v>0.8294930875576036</v>
+        <v>0.8292307692307692</v>
       </c>
       <c r="AW28">
-        <v>0.9984639016897081</v>
+        <v>0.9984615384615385</v>
       </c>
       <c r="AX28">
-        <v>0.391705069124424</v>
+        <v>0.3923076923076923</v>
       </c>
       <c r="AY28">
-        <v>0.8924731182795699</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="AZ28">
-        <v>0.9969278033794163</v>
+        <v>0.9969230769230769</v>
       </c>
       <c r="BA28">
-        <v>0.9984639016897081</v>
+        <v>0.9984615384615385</v>
       </c>
       <c r="BB28">
-        <v>0.9984639016897081</v>
+        <v>1</v>
       </c>
       <c r="BC28">
         <v>1</v>
       </c>
       <c r="BD28">
-        <v>0.9984639016897081</v>
+        <v>0.9984615384615385</v>
       </c>
       <c r="BE28">
         <v>1</v>
@@ -5870,19 +5870,19 @@
         <v>1</v>
       </c>
       <c r="BG28">
-        <v>0.9723502304147466</v>
+        <v>0.9723076923076923</v>
       </c>
       <c r="BH28">
-        <v>0.9032258064516129</v>
+        <v>0.9030769230769231</v>
       </c>
       <c r="BI28">
-        <v>0.901689708141321</v>
+        <v>0.9015384615384615</v>
       </c>
       <c r="BJ28">
-        <v>0.9907834101382489</v>
+        <v>0.9907692307692307</v>
       </c>
       <c r="BK28">
-        <v>0.2980030721966206</v>
+        <v>0.2984615384615384</v>
       </c>
     </row>
     <row r="29">
@@ -5892,25 +5892,25 @@
         </is>
       </c>
       <c r="B29">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0.4460176991150442</v>
+        <v>0.4468085106382979</v>
       </c>
       <c r="E29">
-        <v>0.9964601769911504</v>
+        <v>0.9964539007092199</v>
       </c>
       <c r="F29">
-        <v>0.9256637168141593</v>
+        <v>0.925531914893617</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>0.9699115044247788</v>
+        <v>0.9698581560283688</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -5928,64 +5928,64 @@
         <v>1</v>
       </c>
       <c r="N29">
-        <v>0.9769911504424779</v>
+        <v>0.9769503546099291</v>
       </c>
       <c r="O29">
-        <v>0.9699115044247788</v>
+        <v>0.9698581560283688</v>
       </c>
       <c r="P29">
-        <v>0.9716814159292035</v>
+        <v>0.9716312056737588</v>
       </c>
       <c r="Q29">
         <v>1</v>
       </c>
       <c r="R29">
-        <v>0.9982300884955753</v>
+        <v>0.99822695035461</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>0.9734513274336283</v>
+        <v>0.973404255319149</v>
       </c>
       <c r="U29">
         <v>0</v>
       </c>
       <c r="V29">
-        <v>0.9946902654867257</v>
+        <v>0.9946808510638298</v>
       </c>
       <c r="W29">
-        <v>0.9752212389380531</v>
+        <v>0.975177304964539</v>
       </c>
       <c r="X29">
-        <v>0.9752212389380531</v>
+        <v>0.975177304964539</v>
       </c>
       <c r="Y29">
-        <v>0.3327433628318584</v>
+        <v>0.3315602836879433</v>
       </c>
       <c r="Z29">
-        <v>0.7185840707964601</v>
+        <v>0.7198581560283688</v>
       </c>
       <c r="AA29">
-        <v>0.5929203539823009</v>
+        <v>0.5921985815602837</v>
       </c>
       <c r="AB29">
-        <v>0.5876106194690266</v>
+        <v>0.5868794326241135</v>
       </c>
       <c r="AC29">
-        <v>0.8725663716814159</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="AD29">
-        <v>0.5681415929203539</v>
+        <v>0.5673758865248227</v>
       </c>
       <c r="AE29">
-        <v>0.6212389380530974</v>
+        <v>0.6205673758865248</v>
       </c>
       <c r="AF29">
-        <v>0.9893805309734514</v>
+        <v>0.9893617021276596</v>
       </c>
       <c r="AG29">
-        <v>0.9734513274336283</v>
+        <v>0.973404255319149</v>
       </c>
       <c r="AH29">
         <v>1</v>
@@ -5994,67 +5994,67 @@
         <v>1</v>
       </c>
       <c r="AJ29">
-        <v>0.9929203539823008</v>
+        <v>0.9929078014184397</v>
       </c>
       <c r="AK29">
-        <v>0.9557522123893806</v>
+        <v>0.9556737588652482</v>
       </c>
       <c r="AL29">
         <v>1</v>
       </c>
       <c r="AM29">
-        <v>0.9929203539823008</v>
+        <v>0.9929078014184397</v>
       </c>
       <c r="AN29">
-        <v>0.9858407079646018</v>
+        <v>0.9858156028368794</v>
       </c>
       <c r="AO29">
-        <v>0.7309734513274336</v>
+        <v>0.7322695035460993</v>
       </c>
       <c r="AP29">
-        <v>0.9982300884955753</v>
+        <v>0.99822695035461</v>
       </c>
       <c r="AQ29">
-        <v>0.8247787610619469</v>
+        <v>0.824468085106383</v>
       </c>
       <c r="AR29">
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>0.8973451327433628</v>
+        <v>0.8971631205673759</v>
       </c>
       <c r="AT29">
-        <v>0.7646017699115044</v>
+        <v>0.7641843971631206</v>
       </c>
       <c r="AU29">
-        <v>0.768141592920354</v>
+        <v>0.7677304964539007</v>
       </c>
       <c r="AV29">
-        <v>0.7982300884955752</v>
+        <v>0.7978723404255319</v>
       </c>
       <c r="AW29">
-        <v>0.9982300884955753</v>
+        <v>0.99822695035461</v>
       </c>
       <c r="AX29">
-        <v>0.7026548672566372</v>
+        <v>0.7039007092198581</v>
       </c>
       <c r="AY29">
-        <v>0.9663716814159292</v>
+        <v>0.9663120567375887</v>
       </c>
       <c r="AZ29">
-        <v>0.9946902654867257</v>
+        <v>0.9946808510638298</v>
       </c>
       <c r="BA29">
-        <v>0.9946902654867257</v>
+        <v>0.9946808510638298</v>
       </c>
       <c r="BB29">
-        <v>0.9982300884955753</v>
+        <v>1</v>
       </c>
       <c r="BC29">
         <v>1</v>
       </c>
       <c r="BD29">
-        <v>0.9982300884955753</v>
+        <v>0.99822695035461</v>
       </c>
       <c r="BE29">
         <v>0</v>
@@ -6063,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="BG29">
-        <v>0.9575221238938053</v>
+        <v>0.9574468085106383</v>
       </c>
       <c r="BH29">
         <v>0</v>
@@ -6072,10 +6072,10 @@
         <v>0</v>
       </c>
       <c r="BJ29">
-        <v>0.9946902654867257</v>
+        <v>0.9946808510638298</v>
       </c>
       <c r="BK29">
-        <v>0.5292035398230088</v>
+        <v>0.5301418439716312</v>
       </c>
     </row>
     <row r="30">
@@ -6085,25 +6085,25 @@
         </is>
       </c>
       <c r="B30">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30">
-        <v>0.898989898989899</v>
+        <v>0.8979591836734694</v>
       </c>
       <c r="D30">
-        <v>0.4848484848484849</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30">
-        <v>0.9191919191919192</v>
+        <v>0.9183673469387755</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>0.9494949494949495</v>
+        <v>0.9489795918367347</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -6118,16 +6118,16 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0.9898989898989899</v>
+        <v>0.9897959183673469</v>
       </c>
       <c r="N30">
-        <v>0.9191919191919192</v>
+        <v>0.9183673469387755</v>
       </c>
       <c r="O30">
-        <v>0.9191919191919192</v>
+        <v>0.9183673469387755</v>
       </c>
       <c r="P30">
-        <v>0.9191919191919192</v>
+        <v>0.9183673469387755</v>
       </c>
       <c r="Q30">
         <v>1</v>
@@ -6136,61 +6136,61 @@
         <v>1</v>
       </c>
       <c r="S30">
-        <v>0.9090909090909091</v>
+        <v>0.9081632653061225</v>
       </c>
       <c r="T30">
-        <v>0.9090909090909091</v>
+        <v>0.9081632653061225</v>
       </c>
       <c r="U30">
-        <v>0.9393939393939394</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="V30">
         <v>1</v>
       </c>
       <c r="W30">
-        <v>0.9191919191919192</v>
+        <v>0.9183673469387755</v>
       </c>
       <c r="X30">
-        <v>0.9191919191919192</v>
+        <v>0.9183673469387755</v>
       </c>
       <c r="Y30">
-        <v>0.08080808080808081</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="Z30">
-        <v>0.9292929292929293</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="AA30">
-        <v>0.6363636363636364</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="AB30">
-        <v>0.6868686868686869</v>
+        <v>0.6836734693877551</v>
       </c>
       <c r="AC30">
-        <v>0.8383838383838383</v>
+        <v>0.8367346938775511</v>
       </c>
       <c r="AD30">
-        <v>0.6262626262626263</v>
+        <v>0.6224489795918368</v>
       </c>
       <c r="AE30">
-        <v>0.6565656565656566</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="AF30">
         <v>1</v>
       </c>
       <c r="AG30">
-        <v>0.9191919191919192</v>
+        <v>0.9183673469387755</v>
       </c>
       <c r="AH30">
-        <v>0.9898989898989899</v>
+        <v>1</v>
       </c>
       <c r="AI30">
-        <v>0.9898989898989899</v>
+        <v>1</v>
       </c>
       <c r="AJ30">
-        <v>0.9898989898989899</v>
+        <v>0.9897959183673469</v>
       </c>
       <c r="AK30">
-        <v>0.8888888888888888</v>
+        <v>0.8877551020408163</v>
       </c>
       <c r="AL30">
         <v>1</v>
@@ -6199,49 +6199,49 @@
         <v>1</v>
       </c>
       <c r="AN30">
-        <v>0.9696969696969697</v>
+        <v>0.9693877551020408</v>
       </c>
       <c r="AO30">
-        <v>0.6363636363636364</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="AP30">
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>0.8383838383838383</v>
+        <v>0.8367346938775511</v>
       </c>
       <c r="AR30">
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>0.898989898989899</v>
+        <v>0.8979591836734694</v>
       </c>
       <c r="AT30">
-        <v>0.7878787878787878</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="AU30">
-        <v>0.8282828282828283</v>
+        <v>0.826530612244898</v>
       </c>
       <c r="AV30">
-        <v>0.7878787878787878</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="AW30">
         <v>1</v>
       </c>
       <c r="AX30">
-        <v>0.4545454545454545</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="AY30">
         <v>1</v>
       </c>
       <c r="AZ30">
-        <v>0.9797979797979798</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="BA30">
         <v>1</v>
       </c>
       <c r="BB30">
-        <v>0.9898989898989899</v>
+        <v>1</v>
       </c>
       <c r="BC30">
         <v>1</v>
@@ -6256,19 +6256,19 @@
         <v>1</v>
       </c>
       <c r="BG30">
-        <v>0.9696969696969697</v>
+        <v>0.9693877551020408</v>
       </c>
       <c r="BH30">
-        <v>0.9393939393939394</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="BI30">
-        <v>0.9393939393939394</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="BJ30">
-        <v>0.9797979797979798</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="BK30">
-        <v>0.4141414141414141</v>
+        <v>0.4183673469387755</v>
       </c>
     </row>
     <row r="31">
@@ -6278,25 +6278,25 @@
         </is>
       </c>
       <c r="B31">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0.5174537987679672</v>
+        <v>0.5164609053497943</v>
       </c>
       <c r="E31">
-        <v>0.9938398357289527</v>
+        <v>0.9938271604938271</v>
       </c>
       <c r="F31">
-        <v>0.9096509240246407</v>
+        <v>0.9094650205761317</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>0.9917864476386037</v>
+        <v>0.9917695473251029</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -6314,64 +6314,64 @@
         <v>1</v>
       </c>
       <c r="N31">
-        <v>0.9856262833675564</v>
+        <v>0.9855967078189301</v>
       </c>
       <c r="O31">
-        <v>0.9856262833675564</v>
+        <v>0.9855967078189301</v>
       </c>
       <c r="P31">
-        <v>0.9856262833675564</v>
+        <v>0.9855967078189301</v>
       </c>
       <c r="Q31">
         <v>1</v>
       </c>
       <c r="R31">
-        <v>0.9979466119096509</v>
+        <v>0.9979423868312757</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>0.9835728952772074</v>
+        <v>0.9835390946502057</v>
       </c>
       <c r="U31">
         <v>0</v>
       </c>
       <c r="V31">
-        <v>0.9794661190965093</v>
+        <v>0.9814814814814815</v>
       </c>
       <c r="W31">
-        <v>0.9835728952772074</v>
+        <v>0.9835390946502057</v>
       </c>
       <c r="X31">
-        <v>0.9835728952772074</v>
+        <v>0.9835390946502057</v>
       </c>
       <c r="Y31">
-        <v>0.3223819301848049</v>
+        <v>0.3230452674897119</v>
       </c>
       <c r="Z31">
-        <v>0.7104722792607803</v>
+        <v>0.7119341563786008</v>
       </c>
       <c r="AA31">
-        <v>0.6180698151950719</v>
+        <v>0.6172839506172839</v>
       </c>
       <c r="AB31">
-        <v>0.6160164271047228</v>
+        <v>0.6152263374485597</v>
       </c>
       <c r="AC31">
-        <v>0.8726899383983573</v>
+        <v>0.8724279835390947</v>
       </c>
       <c r="AD31">
-        <v>0.5975359342915811</v>
+        <v>0.5967078189300411</v>
       </c>
       <c r="AE31">
-        <v>0.6550308008213552</v>
+        <v>0.654320987654321</v>
       </c>
       <c r="AF31">
-        <v>0.9917864476386037</v>
+        <v>0.9917695473251029</v>
       </c>
       <c r="AG31">
-        <v>0.9835728952772074</v>
+        <v>0.9835390946502057</v>
       </c>
       <c r="AH31">
         <v>1</v>
@@ -6380,61 +6380,61 @@
         <v>1</v>
       </c>
       <c r="AJ31">
-        <v>0.9876796714579056</v>
+        <v>0.9876543209876543</v>
       </c>
       <c r="AK31">
-        <v>0.9548254620123203</v>
+        <v>0.9547325102880658</v>
       </c>
       <c r="AL31">
         <v>1</v>
       </c>
       <c r="AM31">
-        <v>0.9958932238193019</v>
+        <v>0.9958847736625515</v>
       </c>
       <c r="AN31">
-        <v>0.9835728952772074</v>
+        <v>0.9835390946502057</v>
       </c>
       <c r="AO31">
-        <v>0.7433264887063655</v>
+        <v>0.742798353909465</v>
       </c>
       <c r="AP31">
-        <v>0.9979466119096509</v>
+        <v>0.9979423868312757</v>
       </c>
       <c r="AQ31">
-        <v>0.7905544147843943</v>
+        <v>0.7901234567901234</v>
       </c>
       <c r="AR31">
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>0.9117043121149897</v>
+        <v>0.911522633744856</v>
       </c>
       <c r="AT31">
-        <v>0.7535934291581109</v>
+        <v>0.7530864197530864</v>
       </c>
       <c r="AU31">
-        <v>0.7700205338809035</v>
+        <v>0.7695473251028807</v>
       </c>
       <c r="AV31">
-        <v>0.784394250513347</v>
+        <v>0.7839506172839507</v>
       </c>
       <c r="AW31">
         <v>1</v>
       </c>
       <c r="AX31">
-        <v>0.7063655030800822</v>
+        <v>0.7057613168724279</v>
       </c>
       <c r="AY31">
-        <v>0.9815195071868583</v>
+        <v>0.9814814814814815</v>
       </c>
       <c r="AZ31">
-        <v>0.9917864476386037</v>
+        <v>0.9917695473251029</v>
       </c>
       <c r="BA31">
-        <v>0.9979466119096509</v>
+        <v>0.9979423868312757</v>
       </c>
       <c r="BB31">
-        <v>0.9979466119096509</v>
+        <v>1</v>
       </c>
       <c r="BC31">
         <v>1</v>
@@ -6449,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="BG31">
-        <v>0.944558521560575</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="BH31">
         <v>0</v>
@@ -6458,10 +6458,10 @@
         <v>0</v>
       </c>
       <c r="BJ31">
-        <v>0.9938398357289527</v>
+        <v>0.9938271604938271</v>
       </c>
       <c r="BK31">
-        <v>0.5626283367556468</v>
+        <v>0.5637860082304527</v>
       </c>
     </row>
     <row r="32">
@@ -7243,25 +7243,25 @@
         </is>
       </c>
       <c r="B36">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C36">
-        <v>0.9531100478468899</v>
+        <v>0.9530651340996169</v>
       </c>
       <c r="D36">
-        <v>0.4200956937799043</v>
+        <v>0.4204980842911877</v>
       </c>
       <c r="E36">
-        <v>0.999043062200957</v>
+        <v>0.9990421455938697</v>
       </c>
       <c r="F36">
-        <v>0.9090909090909091</v>
+        <v>0.9090038314176245</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>0.9808612440191388</v>
+        <v>0.9808429118773946</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -7270,46 +7270,46 @@
         <v>1</v>
       </c>
       <c r="K36">
-        <v>0.9980861244019139</v>
+        <v>0.9980842911877394</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0.999043062200957</v>
+        <v>0.9990421455938697</v>
       </c>
       <c r="N36">
-        <v>0.9712918660287081</v>
+        <v>0.9712643678160919</v>
       </c>
       <c r="O36">
-        <v>0.969377990430622</v>
+        <v>0.9693486590038314</v>
       </c>
       <c r="P36">
-        <v>0.9703349282296651</v>
+        <v>0.9703065134099617</v>
       </c>
       <c r="Q36">
         <v>1</v>
       </c>
       <c r="R36">
-        <v>0.9971291866028709</v>
+        <v>0.9971264367816092</v>
       </c>
       <c r="S36">
-        <v>0.9531100478468899</v>
+        <v>0.9530651340996169</v>
       </c>
       <c r="T36">
-        <v>0.9770334928229665</v>
+        <v>0.9770114942528736</v>
       </c>
       <c r="U36">
-        <v>0.9751196172248804</v>
+        <v>0.975095785440613</v>
       </c>
       <c r="V36">
-        <v>0.9846889952153111</v>
+        <v>0.9846743295019157</v>
       </c>
       <c r="W36">
-        <v>0.9703349282296651</v>
+        <v>0.9703065134099617</v>
       </c>
       <c r="X36">
-        <v>0.9722488038277513</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -7318,94 +7318,94 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>0.5913875598086125</v>
+        <v>0.5909961685823755</v>
       </c>
       <c r="AB36">
-        <v>0.5645933014354066</v>
+        <v>0.564176245210728</v>
       </c>
       <c r="AC36">
-        <v>0.8535885167464115</v>
+        <v>0.853448275862069</v>
       </c>
       <c r="AD36">
-        <v>0.539712918660287</v>
+        <v>0.539272030651341</v>
       </c>
       <c r="AE36">
-        <v>0.6095693779904306</v>
+        <v>0.6091954022988506</v>
       </c>
       <c r="AF36">
-        <v>0.9913875598086125</v>
+        <v>0.9913793103448276</v>
       </c>
       <c r="AG36">
-        <v>0.9665071770334929</v>
+        <v>0.9664750957854407</v>
       </c>
       <c r="AH36">
-        <v>0.999043062200957</v>
+        <v>0.9990421455938697</v>
       </c>
       <c r="AI36">
-        <v>0.999043062200957</v>
+        <v>0.9990421455938697</v>
       </c>
       <c r="AJ36">
-        <v>0.9952153110047847</v>
+        <v>0.9952107279693486</v>
       </c>
       <c r="AK36">
-        <v>0.9578947368421052</v>
+        <v>0.9578544061302682</v>
       </c>
       <c r="AL36">
         <v>1</v>
       </c>
       <c r="AM36">
-        <v>0.9789473684210527</v>
+        <v>0.9789272030651341</v>
       </c>
       <c r="AN36">
-        <v>0.9856459330143541</v>
+        <v>0.985632183908046</v>
       </c>
       <c r="AO36">
-        <v>0.8392344497607656</v>
+        <v>0.8390804597701149</v>
       </c>
       <c r="AP36">
-        <v>0.999043062200957</v>
+        <v>0.9990421455938697</v>
       </c>
       <c r="AQ36">
-        <v>0.7751196172248804</v>
+        <v>0.774904214559387</v>
       </c>
       <c r="AR36">
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>0.8966507177033493</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="AT36">
-        <v>0.7043062200956938</v>
+        <v>0.7040229885057471</v>
       </c>
       <c r="AU36">
-        <v>0.7052631578947368</v>
+        <v>0.7049808429118773</v>
       </c>
       <c r="AV36">
-        <v>0.755023923444976</v>
+        <v>0.7547892720306514</v>
       </c>
       <c r="AW36">
         <v>1</v>
       </c>
       <c r="AX36">
-        <v>0.7483253588516746</v>
+        <v>0.7490421455938697</v>
       </c>
       <c r="AY36">
-        <v>0.999043062200957</v>
+        <v>0.9990421455938697</v>
       </c>
       <c r="AZ36">
-        <v>0.9933014354066986</v>
+        <v>0.9932950191570882</v>
       </c>
       <c r="BA36">
         <v>1</v>
       </c>
       <c r="BB36">
-        <v>0.999043062200957</v>
+        <v>1</v>
       </c>
       <c r="BC36">
         <v>1</v>
       </c>
       <c r="BD36">
-        <v>0.9980861244019139</v>
+        <v>0.9980842911877394</v>
       </c>
       <c r="BE36">
         <v>1</v>
@@ -7414,19 +7414,19 @@
         <v>1</v>
       </c>
       <c r="BG36">
-        <v>0.9464114832535885</v>
+        <v>0.946360153256705</v>
       </c>
       <c r="BH36">
-        <v>0.9703349282296651</v>
+        <v>0.9703065134099617</v>
       </c>
       <c r="BI36">
-        <v>0.969377990430622</v>
+        <v>0.9693486590038314</v>
       </c>
       <c r="BJ36">
-        <v>0.9933014354066986</v>
+        <v>0.9932950191570882</v>
       </c>
       <c r="BK36">
-        <v>0.615311004784689</v>
+        <v>0.6159003831417624</v>
       </c>
     </row>
     <row r="37">
@@ -7629,25 +7629,25 @@
         </is>
       </c>
       <c r="B38">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C38">
-        <v>0.9569672131147541</v>
+        <v>0.9568788501026694</v>
       </c>
       <c r="D38">
-        <v>0.389344262295082</v>
+        <v>0.3880903490759753</v>
       </c>
       <c r="E38">
-        <v>0.9979508196721312</v>
+        <v>0.9979466119096509</v>
       </c>
       <c r="F38">
-        <v>0.9651639344262295</v>
+        <v>0.9650924024640657</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>0.9897540983606558</v>
+        <v>0.9897330595482546</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -7665,13 +7665,13 @@
         <v>1</v>
       </c>
       <c r="N38">
-        <v>0.9672131147540983</v>
+        <v>0.9671457905544147</v>
       </c>
       <c r="O38">
-        <v>0.9672131147540983</v>
+        <v>0.9671457905544147</v>
       </c>
       <c r="P38">
-        <v>0.9651639344262295</v>
+        <v>0.9650924024640657</v>
       </c>
       <c r="Q38">
         <v>1</v>
@@ -7680,112 +7680,112 @@
         <v>1</v>
       </c>
       <c r="S38">
-        <v>0.9610655737704918</v>
+        <v>0.9609856262833676</v>
       </c>
       <c r="T38">
-        <v>0.9426229508196722</v>
+        <v>0.9425051334702259</v>
       </c>
       <c r="U38">
-        <v>0.9692622950819673</v>
+        <v>0.9691991786447639</v>
       </c>
       <c r="V38">
-        <v>0.9877049180327869</v>
+        <v>0.9876796714579056</v>
       </c>
       <c r="W38">
-        <v>0.9672131147540983</v>
+        <v>0.9671457905544147</v>
       </c>
       <c r="X38">
-        <v>0.9672131147540983</v>
+        <v>0.9671457905544147</v>
       </c>
       <c r="Y38">
-        <v>0.06762295081967214</v>
+        <v>0.06776180698151951</v>
       </c>
       <c r="Z38">
-        <v>0.9139344262295082</v>
+        <v>0.9137577002053389</v>
       </c>
       <c r="AA38">
-        <v>0.7438524590163934</v>
+        <v>0.7433264887063655</v>
       </c>
       <c r="AB38">
-        <v>0.7274590163934426</v>
+        <v>0.7268993839835729</v>
       </c>
       <c r="AC38">
-        <v>0.9036885245901639</v>
+        <v>0.9034907597535934</v>
       </c>
       <c r="AD38">
-        <v>0.7274590163934426</v>
+        <v>0.7268993839835729</v>
       </c>
       <c r="AE38">
-        <v>0.7602459016393442</v>
+        <v>0.7597535934291582</v>
       </c>
       <c r="AF38">
-        <v>0.9877049180327869</v>
+        <v>0.9876796714579056</v>
       </c>
       <c r="AG38">
-        <v>0.9610655737704918</v>
+        <v>0.9609856262833676</v>
       </c>
       <c r="AH38">
-        <v>0.9979508196721312</v>
+        <v>1</v>
       </c>
       <c r="AI38">
-        <v>0.9979508196721312</v>
+        <v>1</v>
       </c>
       <c r="AJ38">
-        <v>0.9959016393442623</v>
+        <v>0.9958932238193019</v>
       </c>
       <c r="AK38">
-        <v>0.9098360655737705</v>
+        <v>0.9096509240246407</v>
       </c>
       <c r="AL38">
         <v>1</v>
       </c>
       <c r="AM38">
-        <v>0.9897540983606558</v>
+        <v>0.9897330595482546</v>
       </c>
       <c r="AN38">
-        <v>0.9938524590163934</v>
+        <v>0.9938398357289527</v>
       </c>
       <c r="AO38">
-        <v>0.6168032786885246</v>
+        <v>0.6160164271047228</v>
       </c>
       <c r="AP38">
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>0.8688524590163934</v>
+        <v>0.8685831622176592</v>
       </c>
       <c r="AR38">
         <v>1</v>
       </c>
       <c r="AS38">
-        <v>0.9385245901639344</v>
+        <v>0.9383983572895277</v>
       </c>
       <c r="AT38">
-        <v>0.8094262295081968</v>
+        <v>0.8090349075975359</v>
       </c>
       <c r="AU38">
-        <v>0.8360655737704918</v>
+        <v>0.8357289527720739</v>
       </c>
       <c r="AV38">
-        <v>0.8237704918032787</v>
+        <v>0.8234086242299795</v>
       </c>
       <c r="AW38">
         <v>1</v>
       </c>
       <c r="AX38">
-        <v>0.514344262295082</v>
+        <v>0.5133470225872689</v>
       </c>
       <c r="AY38">
         <v>1</v>
       </c>
       <c r="AZ38">
-        <v>0.9979508196721312</v>
+        <v>0.9979466119096509</v>
       </c>
       <c r="BA38">
         <v>1</v>
       </c>
       <c r="BB38">
-        <v>0.9979508196721312</v>
+        <v>1</v>
       </c>
       <c r="BC38">
         <v>1</v>
@@ -7800,19 +7800,19 @@
         <v>1</v>
       </c>
       <c r="BG38">
-        <v>0.9692622950819673</v>
+        <v>0.9691991786447639</v>
       </c>
       <c r="BH38">
-        <v>0.9692622950819673</v>
+        <v>0.9691991786447639</v>
       </c>
       <c r="BI38">
-        <v>0.9713114754098361</v>
+        <v>0.971252566735113</v>
       </c>
       <c r="BJ38">
         <v>1</v>
       </c>
       <c r="BK38">
-        <v>0.2971311475409836</v>
+        <v>0.297741273100616</v>
       </c>
     </row>
     <row r="39">
@@ -7822,25 +7822,25 @@
         </is>
       </c>
       <c r="B39">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0.4056224899598393</v>
+        <v>0.4044265593561368</v>
       </c>
       <c r="E39">
-        <v>0.9919678714859438</v>
+        <v>0.9919517102615694</v>
       </c>
       <c r="F39">
-        <v>0.9598393574297188</v>
+        <v>0.959758551307847</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>0.9799196787148594</v>
+        <v>0.9798792756539235</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -7849,13 +7849,13 @@
         <v>1</v>
       </c>
       <c r="K39">
-        <v>0.9959839357429718</v>
+        <v>0.9959758551307847</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0.9979919678714859</v>
+        <v>0.9979879275653923</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -7870,19 +7870,19 @@
         <v>1</v>
       </c>
       <c r="R39">
-        <v>0.9979919678714859</v>
+        <v>0.9979879275653923</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>0.9096385542168675</v>
+        <v>0.9094567404426559</v>
       </c>
       <c r="U39">
         <v>0</v>
       </c>
       <c r="V39">
-        <v>0.9799196787148594</v>
+        <v>0.9798792756539235</v>
       </c>
       <c r="W39">
         <v>0</v>
@@ -7897,91 +7897,91 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>0.7971887550200804</v>
+        <v>0.7967806841046278</v>
       </c>
       <c r="AB39">
-        <v>0.785140562248996</v>
+        <v>0.7847082494969819</v>
       </c>
       <c r="AC39">
-        <v>0.9096385542168675</v>
+        <v>0.9094567404426559</v>
       </c>
       <c r="AD39">
-        <v>0.7791164658634538</v>
+        <v>0.7786720321931589</v>
       </c>
       <c r="AE39">
-        <v>0.8052208835341366</v>
+        <v>0.8048289738430584</v>
       </c>
       <c r="AF39">
-        <v>0.9899598393574297</v>
+        <v>0.9899396378269618</v>
       </c>
       <c r="AG39">
         <v>0</v>
       </c>
       <c r="AH39">
-        <v>0.9939759036144579</v>
+        <v>0.993963782696177</v>
       </c>
       <c r="AI39">
-        <v>0.9959839357429718</v>
+        <v>0.9959758551307847</v>
       </c>
       <c r="AJ39">
-        <v>0.9979919678714859</v>
+        <v>0.9979879275653923</v>
       </c>
       <c r="AK39">
-        <v>0.8654618473895582</v>
+        <v>0.8651911468812877</v>
       </c>
       <c r="AL39">
         <v>1</v>
       </c>
       <c r="AM39">
-        <v>0.9859437751004017</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="AN39">
-        <v>0.9738955823293173</v>
+        <v>0.9738430583501007</v>
       </c>
       <c r="AO39">
-        <v>0.6526104417670683</v>
+        <v>0.6519114688128773</v>
       </c>
       <c r="AP39">
-        <v>0.9979919678714859</v>
+        <v>0.9979879275653923</v>
       </c>
       <c r="AQ39">
-        <v>0.8995983935742972</v>
+        <v>0.8993963782696177</v>
       </c>
       <c r="AR39">
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>0.9116465863453815</v>
+        <v>0.9114688128772636</v>
       </c>
       <c r="AT39">
-        <v>0.8674698795180723</v>
+        <v>0.8672032193158954</v>
       </c>
       <c r="AU39">
-        <v>0.8835341365461847</v>
+        <v>0.8832997987927566</v>
       </c>
       <c r="AV39">
-        <v>0.8955823293172691</v>
+        <v>0.8953722334004024</v>
       </c>
       <c r="AW39">
-        <v>0.9979919678714859</v>
+        <v>0.9979879275653923</v>
       </c>
       <c r="AX39">
-        <v>0.4759036144578313</v>
+        <v>0.4748490945674044</v>
       </c>
       <c r="AY39">
-        <v>0.9979919678714859</v>
+        <v>0.9979879275653923</v>
       </c>
       <c r="AZ39">
-        <v>0.9819277108433735</v>
+        <v>0.9818913480885312</v>
       </c>
       <c r="BA39">
         <v>1</v>
       </c>
       <c r="BB39">
-        <v>0.9979919678714859</v>
+        <v>1</v>
       </c>
       <c r="BC39">
-        <v>0.9979919678714859</v>
+        <v>0.9979879275653923</v>
       </c>
       <c r="BD39">
         <v>1</v>
@@ -7993,7 +7993,7 @@
         <v>1</v>
       </c>
       <c r="BG39">
-        <v>0.9598393574297188</v>
+        <v>0.959758551307847</v>
       </c>
       <c r="BH39">
         <v>0</v>
@@ -8002,10 +8002,10 @@
         <v>0</v>
       </c>
       <c r="BJ39">
-        <v>0.9799196787148594</v>
+        <v>0.9798792756539235</v>
       </c>
       <c r="BK39">
-        <v>0.3112449799196787</v>
+        <v>0.3118712273641851</v>
       </c>
     </row>
     <row r="40">
@@ -8015,25 +8015,25 @@
         </is>
       </c>
       <c r="B40">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C40">
-        <v>0.9094076655052264</v>
+        <v>0.9092495636998255</v>
       </c>
       <c r="D40">
-        <v>0.3449477351916376</v>
+        <v>0.3455497382198953</v>
       </c>
       <c r="E40">
-        <v>0.9965156794425087</v>
+        <v>0.9965095986038395</v>
       </c>
       <c r="F40">
-        <v>0.945993031358885</v>
+        <v>0.9458987783595113</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>0.9686411149825784</v>
+        <v>0.9685863874345549</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -8051,37 +8051,37 @@
         <v>1</v>
       </c>
       <c r="N40">
-        <v>0.9425087108013938</v>
+        <v>0.9424083769633508</v>
       </c>
       <c r="O40">
-        <v>0.9390243902439024</v>
+        <v>0.9389179755671903</v>
       </c>
       <c r="P40">
-        <v>0.9390243902439024</v>
+        <v>0.9389179755671903</v>
       </c>
       <c r="Q40">
         <v>1</v>
       </c>
       <c r="R40">
-        <v>0.9982578397212544</v>
+        <v>0.9982547993019197</v>
       </c>
       <c r="S40">
-        <v>0.9181184668989547</v>
+        <v>0.9179755671902269</v>
       </c>
       <c r="T40">
-        <v>0.9494773519163763</v>
+        <v>0.9493891797556719</v>
       </c>
       <c r="U40">
-        <v>0.9512195121951219</v>
+        <v>0.9511343804537522</v>
       </c>
       <c r="V40">
-        <v>0.9895470383275261</v>
+        <v>0.9895287958115183</v>
       </c>
       <c r="W40">
-        <v>0.9407665505226481</v>
+        <v>0.9406631762652705</v>
       </c>
       <c r="X40">
-        <v>0.9390243902439024</v>
+        <v>0.9389179755671903</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -8090,94 +8090,94 @@
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>0.6498257839721254</v>
+        <v>0.6492146596858639</v>
       </c>
       <c r="AB40">
-        <v>0.60801393728223</v>
+        <v>0.6073298429319371</v>
       </c>
       <c r="AC40">
-        <v>0.8606271777003485</v>
+        <v>0.8603839441535777</v>
       </c>
       <c r="AD40">
-        <v>0.5958188153310104</v>
+        <v>0.5951134380453752</v>
       </c>
       <c r="AE40">
-        <v>0.6376306620209059</v>
+        <v>0.6369982547993019</v>
       </c>
       <c r="AF40">
-        <v>0.9947735191637631</v>
+        <v>0.9947643979057592</v>
       </c>
       <c r="AG40">
-        <v>0.9390243902439024</v>
+        <v>0.9389179755671903</v>
       </c>
       <c r="AH40">
-        <v>0.9982578397212544</v>
+        <v>1</v>
       </c>
       <c r="AI40">
-        <v>0.9982578397212544</v>
+        <v>1</v>
       </c>
       <c r="AJ40">
-        <v>0.9982578397212544</v>
+        <v>0.9982547993019197</v>
       </c>
       <c r="AK40">
-        <v>0.9337979094076655</v>
+        <v>0.9336823734729494</v>
       </c>
       <c r="AL40">
         <v>1</v>
       </c>
       <c r="AM40">
-        <v>0.9878048780487805</v>
+        <v>0.9877835951134381</v>
       </c>
       <c r="AN40">
-        <v>0.9878048780487805</v>
+        <v>0.9877835951134381</v>
       </c>
       <c r="AO40">
-        <v>0.7125435540069687</v>
+        <v>0.7120418848167539</v>
       </c>
       <c r="AP40">
-        <v>0.9982578397212544</v>
+        <v>0.9982547993019197</v>
       </c>
       <c r="AQ40">
-        <v>0.789198606271777</v>
+        <v>0.7888307155322862</v>
       </c>
       <c r="AR40">
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>0.8954703832752613</v>
+        <v>0.8952879581151832</v>
       </c>
       <c r="AT40">
-        <v>0.7177700348432056</v>
+        <v>0.7172774869109948</v>
       </c>
       <c r="AU40">
-        <v>0.740418118466899</v>
+        <v>0.7399650959860384</v>
       </c>
       <c r="AV40">
-        <v>0.7857142857142857</v>
+        <v>0.7853403141361257</v>
       </c>
       <c r="AW40">
         <v>1</v>
       </c>
       <c r="AX40">
-        <v>0.578397212543554</v>
+        <v>0.5776614310645725</v>
       </c>
       <c r="AY40">
         <v>1</v>
       </c>
       <c r="AZ40">
-        <v>0.9965156794425087</v>
+        <v>0.9965095986038395</v>
       </c>
       <c r="BA40">
         <v>1</v>
       </c>
       <c r="BB40">
-        <v>0.9982578397212544</v>
+        <v>1</v>
       </c>
       <c r="BC40">
         <v>1</v>
       </c>
       <c r="BD40">
-        <v>0.9982578397212544</v>
+        <v>0.9982547993019197</v>
       </c>
       <c r="BE40">
         <v>1</v>
@@ -8186,19 +8186,19 @@
         <v>1</v>
       </c>
       <c r="BG40">
-        <v>0.9512195121951219</v>
+        <v>0.9511343804537522</v>
       </c>
       <c r="BH40">
-        <v>0.9529616724738676</v>
+        <v>0.9528795811518325</v>
       </c>
       <c r="BI40">
-        <v>0.9529616724738676</v>
+        <v>0.9528795811518325</v>
       </c>
       <c r="BJ40">
-        <v>0.9965156794425087</v>
+        <v>0.9965095986038395</v>
       </c>
       <c r="BK40">
-        <v>0.445993031358885</v>
+        <v>0.4467713787085515</v>
       </c>
     </row>
     <row r="41">
@@ -8594,25 +8594,25 @@
         </is>
       </c>
       <c r="B43">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C43">
-        <v>0.9509981851179673</v>
+        <v>0.9509090909090909</v>
       </c>
       <c r="D43">
-        <v>0.2921960072595282</v>
+        <v>0.2927272727272727</v>
       </c>
       <c r="E43">
-        <v>0.9945553539019963</v>
+        <v>0.9945454545454545</v>
       </c>
       <c r="F43">
-        <v>0.9183303085299456</v>
+        <v>0.9181818181818182</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>0.9818511796733213</v>
+        <v>0.9818181818181818</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -8627,7 +8627,7 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>0.9981851179673321</v>
+        <v>0.9981818181818182</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -8642,19 +8642,19 @@
         <v>1</v>
       </c>
       <c r="R43">
-        <v>0.9981851179673321</v>
+        <v>0.9981818181818182</v>
       </c>
       <c r="S43">
-        <v>0.9582577132486388</v>
+        <v>0.9581818181818181</v>
       </c>
       <c r="T43">
-        <v>0.911070780399274</v>
+        <v>0.9109090909090909</v>
       </c>
       <c r="U43">
-        <v>0.9637023593466425</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="V43">
-        <v>0.9836660617059891</v>
+        <v>0.9854545454545455</v>
       </c>
       <c r="W43">
         <v>0</v>
@@ -8663,28 +8663,28 @@
         <v>0</v>
       </c>
       <c r="Y43">
-        <v>0.1433756805807622</v>
+        <v>0.1436363636363636</v>
       </c>
       <c r="Z43">
-        <v>0.8493647912885662</v>
+        <v>0.8490909090909091</v>
       </c>
       <c r="AA43">
-        <v>0.7858439201451906</v>
+        <v>0.7854545454545454</v>
       </c>
       <c r="AB43">
-        <v>0.7731397459165155</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="AC43">
-        <v>0.9001814882032668</v>
+        <v>0.9</v>
       </c>
       <c r="AD43">
-        <v>0.7731397459165155</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="AE43">
-        <v>0.7912885662431942</v>
+        <v>0.7909090909090909</v>
       </c>
       <c r="AF43">
-        <v>0.9909255898366606</v>
+        <v>0.990909090909091</v>
       </c>
       <c r="AG43">
         <v>0</v>
@@ -8693,70 +8693,70 @@
         <v>1</v>
       </c>
       <c r="AI43">
-        <v>0.9981851179673321</v>
+        <v>0.9981818181818182</v>
       </c>
       <c r="AJ43">
-        <v>0.9981851179673321</v>
+        <v>0.9981818181818182</v>
       </c>
       <c r="AK43">
-        <v>0.8620689655172413</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="AL43">
         <v>1</v>
       </c>
       <c r="AM43">
-        <v>0.9872958257713249</v>
+        <v>0.9872727272727273</v>
       </c>
       <c r="AN43">
-        <v>0.9872958257713249</v>
+        <v>0.9872727272727273</v>
       </c>
       <c r="AO43">
-        <v>0.8021778584392014</v>
+        <v>0.8018181818181818</v>
       </c>
       <c r="AP43">
         <v>1</v>
       </c>
       <c r="AQ43">
-        <v>0.8856624319419237</v>
+        <v>0.8854545454545455</v>
       </c>
       <c r="AR43">
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>0.9328493647912885</v>
+        <v>0.9327272727272727</v>
       </c>
       <c r="AT43">
-        <v>0.8275862068965517</v>
+        <v>0.8272727272727273</v>
       </c>
       <c r="AU43">
-        <v>0.8348457350272233</v>
+        <v>0.8345454545454546</v>
       </c>
       <c r="AV43">
-        <v>0.8693284936479129</v>
+        <v>0.8690909090909091</v>
       </c>
       <c r="AW43">
         <v>1</v>
       </c>
       <c r="AX43">
-        <v>0.4083484573502723</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="AY43">
         <v>1</v>
       </c>
       <c r="AZ43">
-        <v>0.9963702359346642</v>
+        <v>0.9963636363636363</v>
       </c>
       <c r="BA43">
         <v>1</v>
       </c>
       <c r="BB43">
-        <v>0.9981851179673321</v>
+        <v>1</v>
       </c>
       <c r="BC43">
         <v>1</v>
       </c>
       <c r="BD43">
-        <v>0.9981851179673321</v>
+        <v>0.9981818181818182</v>
       </c>
       <c r="BE43">
         <v>1</v>
@@ -8765,19 +8765,19 @@
         <v>1</v>
       </c>
       <c r="BG43">
-        <v>0.941923774954628</v>
+        <v>0.9418181818181818</v>
       </c>
       <c r="BH43">
-        <v>0.969147005444646</v>
+        <v>0.9690909090909091</v>
       </c>
       <c r="BI43">
-        <v>0.969147005444646</v>
+        <v>0.9690909090909091</v>
       </c>
       <c r="BJ43">
-        <v>0.9927404718693285</v>
+        <v>0.9927272727272727</v>
       </c>
       <c r="BK43">
-        <v>0.3774954627949184</v>
+        <v>0.3781818181818182</v>
       </c>
     </row>
     <row r="44">
@@ -8980,25 +8980,25 @@
         </is>
       </c>
       <c r="B45">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0.4271481942714819</v>
+        <v>0.4276807980049875</v>
       </c>
       <c r="E45">
-        <v>0.9987546699875467</v>
+        <v>0.9987531172069826</v>
       </c>
       <c r="F45">
-        <v>0.9352428393524284</v>
+        <v>0.9364089775561097</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>0.9887920298879203</v>
+        <v>0.9887780548628429</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -9013,67 +9013,67 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>0.9975093399750934</v>
+        <v>0.9975062344139651</v>
       </c>
       <c r="N45">
-        <v>0.9726027397260274</v>
+        <v>0.972568578553616</v>
       </c>
       <c r="O45">
-        <v>0.9713574097135741</v>
+        <v>0.9713216957605985</v>
       </c>
       <c r="P45">
-        <v>0.9701120797011208</v>
+        <v>0.970074812967581</v>
       </c>
       <c r="Q45">
         <v>1</v>
       </c>
       <c r="R45">
-        <v>0.9987546699875467</v>
+        <v>0.9987531172069826</v>
       </c>
       <c r="S45">
         <v>0</v>
       </c>
       <c r="T45">
-        <v>0.950186799501868</v>
+        <v>0.9501246882793017</v>
       </c>
       <c r="U45">
-        <v>0.9713574097135741</v>
+        <v>0.9713216957605985</v>
       </c>
       <c r="V45">
-        <v>0.9800747198007472</v>
+        <v>0.9800498753117207</v>
       </c>
       <c r="W45">
-        <v>0.9726027397260274</v>
+        <v>0.972568578553616</v>
       </c>
       <c r="X45">
-        <v>0.9713574097135741</v>
+        <v>0.9713216957605985</v>
       </c>
       <c r="Y45">
-        <v>0.2328767123287671</v>
+        <v>0.2331670822942643</v>
       </c>
       <c r="Z45">
-        <v>0.7945205479452054</v>
+        <v>0.7942643391521197</v>
       </c>
       <c r="AA45">
-        <v>0.7384806973848069</v>
+        <v>0.7381546134663342</v>
       </c>
       <c r="AB45">
-        <v>0.7160647571606475</v>
+        <v>0.71571072319202</v>
       </c>
       <c r="AC45">
-        <v>0.8941469489414695</v>
+        <v>0.8940149625935162</v>
       </c>
       <c r="AD45">
-        <v>0.7036114570361146</v>
+        <v>0.7032418952618454</v>
       </c>
       <c r="AE45">
-        <v>0.7185554171855542</v>
+        <v>0.7182044887780549</v>
       </c>
       <c r="AF45">
-        <v>0.9962640099626401</v>
+        <v>0.9962593516209476</v>
       </c>
       <c r="AG45">
-        <v>0.9701120797011208</v>
+        <v>0.970074812967581</v>
       </c>
       <c r="AH45">
         <v>1</v>
@@ -9082,67 +9082,67 @@
         <v>1</v>
       </c>
       <c r="AJ45">
-        <v>0.9925280199252802</v>
+        <v>0.9925187032418953</v>
       </c>
       <c r="AK45">
-        <v>0.8829389788293898</v>
+        <v>0.8827930174563591</v>
       </c>
       <c r="AL45">
         <v>1</v>
       </c>
       <c r="AM45">
-        <v>0.9875466998754669</v>
+        <v>0.9887780548628429</v>
       </c>
       <c r="AN45">
-        <v>0.9900373599003736</v>
+        <v>0.9900249376558603</v>
       </c>
       <c r="AO45">
-        <v>0.7932752179327521</v>
+        <v>0.7930174563591023</v>
       </c>
       <c r="AP45">
-        <v>0.9975093399750934</v>
+        <v>0.9975062344139651</v>
       </c>
       <c r="AQ45">
-        <v>0.8605230386052304</v>
+        <v>0.8603491271820449</v>
       </c>
       <c r="AR45">
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>0.9327521793275217</v>
+        <v>0.9326683291770573</v>
       </c>
       <c r="AT45">
-        <v>0.7932752179327521</v>
+        <v>0.7930174563591023</v>
       </c>
       <c r="AU45">
-        <v>0.8069738480697385</v>
+        <v>0.8067331670822943</v>
       </c>
       <c r="AV45">
-        <v>0.8480697384806973</v>
+        <v>0.8478802992518704</v>
       </c>
       <c r="AW45">
         <v>1</v>
       </c>
       <c r="AX45">
-        <v>0.5541718555417185</v>
+        <v>0.5548628428927681</v>
       </c>
       <c r="AY45">
         <v>1</v>
       </c>
       <c r="AZ45">
-        <v>0.9950186799501868</v>
+        <v>0.9950124688279302</v>
       </c>
       <c r="BA45">
-        <v>0.9962640099626401</v>
+        <v>0.9962593516209476</v>
       </c>
       <c r="BB45">
-        <v>0.9987546699875467</v>
+        <v>1</v>
       </c>
       <c r="BC45">
         <v>1</v>
       </c>
       <c r="BD45">
-        <v>0.9987546699875467</v>
+        <v>0.9987531172069826</v>
       </c>
       <c r="BE45">
         <v>1</v>
@@ -9151,19 +9151,19 @@
         <v>1</v>
       </c>
       <c r="BG45">
-        <v>0.9315068493150684</v>
+        <v>0.9314214463840399</v>
       </c>
       <c r="BH45">
-        <v>0.9726027397260274</v>
+        <v>0.972568578553616</v>
       </c>
       <c r="BI45">
-        <v>0.9726027397260274</v>
+        <v>0.972568578553616</v>
       </c>
       <c r="BJ45">
-        <v>0.9937733499377335</v>
+        <v>0.9937655860349127</v>
       </c>
       <c r="BK45">
-        <v>0.4682440846824408</v>
+        <v>0.4688279301745636</v>
       </c>
     </row>
     <row r="46">
@@ -9173,25 +9173,25 @@
         </is>
       </c>
       <c r="B46">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0.4148099606815203</v>
+        <v>0.4146181579809898</v>
       </c>
       <c r="E46">
-        <v>0.9990170380078637</v>
+        <v>0.9990167158308751</v>
       </c>
       <c r="F46">
-        <v>0.9659239842726082</v>
+        <v>0.9659128154703376</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>0.9780471821756226</v>
+        <v>0.9780399868895444</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -9200,13 +9200,13 @@
         <v>1</v>
       </c>
       <c r="K46">
-        <v>0.9993446920052425</v>
+        <v>0.9993444772205834</v>
       </c>
       <c r="L46">
-        <v>0.173656618610747</v>
+        <v>0.173713536545395</v>
       </c>
       <c r="M46">
-        <v>0.9993446920052425</v>
+        <v>0.9993444772205834</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -9227,13 +9227,13 @@
         <v>0</v>
       </c>
       <c r="T46">
-        <v>0.9518348623853211</v>
+        <v>0.951819075712881</v>
       </c>
       <c r="U46">
         <v>0</v>
       </c>
       <c r="V46">
-        <v>0.9819790301441678</v>
+        <v>0.9819731235660439</v>
       </c>
       <c r="W46">
         <v>0</v>
@@ -9242,100 +9242,100 @@
         <v>0</v>
       </c>
       <c r="Y46">
-        <v>0.2165792922673657</v>
+        <v>0.2166502785971813</v>
       </c>
       <c r="Z46">
-        <v>0.8063564875491481</v>
+        <v>0.8062930186823992</v>
       </c>
       <c r="AA46">
-        <v>0.7791612057667103</v>
+        <v>0.779088823336611</v>
       </c>
       <c r="AB46">
-        <v>0.7670380078636959</v>
+        <v>0.7669616519174042</v>
       </c>
       <c r="AC46">
-        <v>0.9082568807339449</v>
+        <v>0.9082268108816781</v>
       </c>
       <c r="AD46">
-        <v>0.758519003931848</v>
+        <v>0.7584398557849885</v>
       </c>
       <c r="AE46">
-        <v>0.7824377457404981</v>
+        <v>0.7823664372336939</v>
       </c>
       <c r="AF46">
-        <v>0.9950851900393185</v>
+        <v>0.9950835791543756</v>
       </c>
       <c r="AG46">
         <v>0</v>
       </c>
       <c r="AH46">
-        <v>0.9996723460026212</v>
+        <v>0.9996722386102918</v>
       </c>
       <c r="AI46">
         <v>1</v>
       </c>
       <c r="AJ46">
-        <v>0.9908256880733946</v>
+        <v>0.9908226810881678</v>
       </c>
       <c r="AK46">
-        <v>0.9089121887287025</v>
+        <v>0.909210095050803</v>
       </c>
       <c r="AL46">
         <v>1</v>
       </c>
       <c r="AM46">
-        <v>0.9947575360419397</v>
+        <v>0.9947558177646674</v>
       </c>
       <c r="AN46">
-        <v>0.981651376146789</v>
+        <v>0.9816453621763356</v>
       </c>
       <c r="AO46">
-        <v>0.6739842726081258</v>
+        <v>0.6742051786299574</v>
       </c>
       <c r="AP46">
-        <v>0.9990170380078637</v>
+        <v>0.9990167158308751</v>
       </c>
       <c r="AQ46">
-        <v>0.8623853211009175</v>
+        <v>0.8623402163225172</v>
       </c>
       <c r="AR46">
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>0.9059633027522935</v>
+        <v>0.90593248115372</v>
       </c>
       <c r="AT46">
-        <v>0.8184796854521625</v>
+        <v>0.818420190101606</v>
       </c>
       <c r="AU46">
-        <v>0.8358453473132372</v>
+        <v>0.8357915437561455</v>
       </c>
       <c r="AV46">
-        <v>0.8614023591087812</v>
+        <v>0.8613569321533924</v>
       </c>
       <c r="AW46">
-        <v>0.9996723460026212</v>
+        <v>0.9996722386102918</v>
       </c>
       <c r="AX46">
-        <v>0.5471821756225426</v>
+        <v>0.5473615208128483</v>
       </c>
       <c r="AY46">
-        <v>0.9993446920052425</v>
+        <v>0.9993444772205834</v>
       </c>
       <c r="AZ46">
-        <v>0.990170380078637</v>
+        <v>0.9901671583087512</v>
       </c>
       <c r="BA46">
-        <v>0.9990170380078637</v>
+        <v>0.9990167158308751</v>
       </c>
       <c r="BB46">
-        <v>0.9996723460026212</v>
+        <v>1</v>
       </c>
       <c r="BC46">
-        <v>0.9996723460026212</v>
+        <v>0.9996722386102918</v>
       </c>
       <c r="BD46">
-        <v>0.9996723460026212</v>
+        <v>0.9996722386102918</v>
       </c>
       <c r="BE46">
         <v>1</v>
@@ -9344,7 +9344,7 @@
         <v>1</v>
       </c>
       <c r="BG46">
-        <v>0.9603538663171691</v>
+        <v>0.9603408718452966</v>
       </c>
       <c r="BH46">
         <v>0</v>
@@ -9353,10 +9353,10 @@
         <v>0</v>
       </c>
       <c r="BJ46">
-        <v>0.9895150720838795</v>
+        <v>0.9895116355293346</v>
       </c>
       <c r="BK46">
-        <v>0.3358453473132372</v>
+        <v>0.3359554244509997</v>
       </c>
     </row>
     <row r="47">
@@ -9752,25 +9752,25 @@
         </is>
       </c>
       <c r="B49">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C49">
-        <v>0.9302325581395349</v>
+        <v>0.9299065420560748</v>
       </c>
       <c r="D49">
-        <v>0.4697674418604651</v>
+        <v>0.4719626168224299</v>
       </c>
       <c r="E49">
-        <v>0.9953488372093023</v>
+        <v>0.9953271028037384</v>
       </c>
       <c r="F49">
-        <v>0.8372093023255814</v>
+        <v>0.8364485981308412</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>0.986046511627907</v>
+        <v>0.985981308411215</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -9785,16 +9785,16 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>0.9953488372093023</v>
+        <v>0.9953271028037384</v>
       </c>
       <c r="N49">
-        <v>0.9395348837209302</v>
+        <v>0.9392523364485982</v>
       </c>
       <c r="O49">
-        <v>0.9395348837209302</v>
+        <v>0.9392523364485982</v>
       </c>
       <c r="P49">
-        <v>0.9348837209302325</v>
+        <v>0.9345794392523364</v>
       </c>
       <c r="Q49">
         <v>1</v>
@@ -9803,49 +9803,49 @@
         <v>1</v>
       </c>
       <c r="S49">
-        <v>0.9255813953488372</v>
+        <v>0.9252336448598131</v>
       </c>
       <c r="T49">
-        <v>0.9767441860465116</v>
+        <v>0.9766355140186916</v>
       </c>
       <c r="U49">
-        <v>0.9627906976744186</v>
+        <v>0.9626168224299065</v>
       </c>
       <c r="V49">
-        <v>0.9767441860465116</v>
+        <v>0.9766355140186916</v>
       </c>
       <c r="W49">
-        <v>0.9441860465116279</v>
+        <v>0.9439252336448598</v>
       </c>
       <c r="X49">
-        <v>0.9441860465116279</v>
+        <v>0.9439252336448598</v>
       </c>
       <c r="Y49">
-        <v>0.2883720930232558</v>
+        <v>0.2897196261682243</v>
       </c>
       <c r="Z49">
-        <v>0.7441860465116279</v>
+        <v>0.7429906542056075</v>
       </c>
       <c r="AA49">
-        <v>0.5906976744186047</v>
+        <v>0.5934579439252337</v>
       </c>
       <c r="AB49">
-        <v>0.586046511627907</v>
+        <v>0.5887850467289719</v>
       </c>
       <c r="AC49">
-        <v>0.8186046511627907</v>
+        <v>0.8224299065420561</v>
       </c>
       <c r="AD49">
-        <v>0.5395348837209303</v>
+        <v>0.5420560747663551</v>
       </c>
       <c r="AE49">
-        <v>0.6279069767441861</v>
+        <v>0.6261682242990654</v>
       </c>
       <c r="AF49">
         <v>1</v>
       </c>
       <c r="AG49">
-        <v>0.9441860465116279</v>
+        <v>0.9439252336448598</v>
       </c>
       <c r="AH49">
         <v>1</v>
@@ -9854,10 +9854,10 @@
         <v>1</v>
       </c>
       <c r="AJ49">
-        <v>0.9953488372093023</v>
+        <v>0.9953271028037384</v>
       </c>
       <c r="AK49">
-        <v>0.9302325581395349</v>
+        <v>0.9299065420560748</v>
       </c>
       <c r="AL49">
         <v>1</v>
@@ -9869,34 +9869,34 @@
         <v>1</v>
       </c>
       <c r="AO49">
-        <v>0.7348837209302326</v>
+        <v>0.7336448598130841</v>
       </c>
       <c r="AP49">
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>0.772093023255814</v>
+        <v>0.7710280373831776</v>
       </c>
       <c r="AR49">
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>0.8883720930232558</v>
+        <v>0.8925233644859814</v>
       </c>
       <c r="AT49">
-        <v>0.7488372093023256</v>
+        <v>0.7523364485981309</v>
       </c>
       <c r="AU49">
-        <v>0.772093023255814</v>
+        <v>0.7710280373831776</v>
       </c>
       <c r="AV49">
-        <v>0.772093023255814</v>
+        <v>0.7757009345794392</v>
       </c>
       <c r="AW49">
         <v>1</v>
       </c>
       <c r="AX49">
-        <v>0.7302325581395349</v>
+        <v>0.7336448598130841</v>
       </c>
       <c r="AY49">
         <v>1</v>
@@ -9908,7 +9908,7 @@
         <v>1</v>
       </c>
       <c r="BB49">
-        <v>0.9953488372093023</v>
+        <v>1</v>
       </c>
       <c r="BC49">
         <v>1</v>
@@ -9923,19 +9923,19 @@
         <v>1</v>
       </c>
       <c r="BG49">
-        <v>0.9720930232558139</v>
+        <v>0.9719626168224299</v>
       </c>
       <c r="BH49">
-        <v>0.9674418604651163</v>
+        <v>0.9672897196261683</v>
       </c>
       <c r="BI49">
-        <v>0.9627906976744186</v>
+        <v>0.9626168224299065</v>
       </c>
       <c r="BJ49">
         <v>1</v>
       </c>
       <c r="BK49">
-        <v>0.6697674418604651</v>
+        <v>0.6682242990654206</v>
       </c>
     </row>
     <row r="50">
@@ -9945,25 +9945,25 @@
         </is>
       </c>
       <c r="B50">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="C50">
-        <v>0.9173166926677067</v>
+        <v>0.9172736732570239</v>
       </c>
       <c r="D50">
-        <v>0.406136245449818</v>
+        <v>0.4063475546305931</v>
       </c>
       <c r="E50">
-        <v>0.9958398335933437</v>
+        <v>0.9958376690946931</v>
       </c>
       <c r="F50">
-        <v>0.9516380655226209</v>
+        <v>0.9516129032258065</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>0.9817992719708788</v>
+        <v>0.981789802289282</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -9972,142 +9972,142 @@
         <v>1</v>
       </c>
       <c r="K50">
-        <v>0.999479979199168</v>
+        <v>0.9994797086368367</v>
       </c>
       <c r="L50">
         <v>0</v>
       </c>
       <c r="M50">
-        <v>0.998959958398336</v>
+        <v>0.9989594172736732</v>
       </c>
       <c r="N50">
-        <v>0.858554342173687</v>
+        <v>0.858480749219563</v>
       </c>
       <c r="O50">
-        <v>0.858554342173687</v>
+        <v>0.858480749219563</v>
       </c>
       <c r="P50">
-        <v>0.8575143005720229</v>
+        <v>0.8574401664932362</v>
       </c>
       <c r="Q50">
         <v>1</v>
       </c>
       <c r="R50">
-        <v>0.999479979199168</v>
+        <v>0.9994797086368367</v>
       </c>
       <c r="S50">
-        <v>0.9188767550702028</v>
+        <v>0.918834547346514</v>
       </c>
       <c r="T50">
-        <v>0.9448777951118045</v>
+        <v>0.9448491155046826</v>
       </c>
       <c r="U50">
-        <v>0.8658346333853354</v>
+        <v>0.8657648283038502</v>
       </c>
       <c r="V50">
-        <v>0.9765990639625585</v>
+        <v>0.9765868886576483</v>
       </c>
       <c r="W50">
-        <v>0.859074362974519</v>
+        <v>0.8590010405827263</v>
       </c>
       <c r="X50">
-        <v>0.8575143005720229</v>
+        <v>0.8574401664932362</v>
       </c>
       <c r="Y50">
-        <v>0.2288091523660946</v>
+        <v>0.2289281997918834</v>
       </c>
       <c r="Z50">
-        <v>0.8081123244929798</v>
+        <v>0.8080124869927159</v>
       </c>
       <c r="AA50">
-        <v>0.7680707228289132</v>
+        <v>0.7679500520291364</v>
       </c>
       <c r="AB50">
-        <v>0.7576703068122725</v>
+        <v>0.7575442247658689</v>
       </c>
       <c r="AC50">
-        <v>0.8949557982319293</v>
+        <v>0.894901144640999</v>
       </c>
       <c r="AD50">
-        <v>0.7462298491939677</v>
+        <v>0.7460978147762747</v>
       </c>
       <c r="AE50">
-        <v>0.7722308892355694</v>
+        <v>0.7721123829344433</v>
       </c>
       <c r="AF50">
-        <v>0.9911596463858554</v>
+        <v>0.9911550468262227</v>
       </c>
       <c r="AG50">
-        <v>0.860114404576183</v>
+        <v>0.8600416233090531</v>
       </c>
       <c r="AH50">
-        <v>0.9958398335933437</v>
+        <v>0.9963579604578564</v>
       </c>
       <c r="AI50">
-        <v>0.9953198127925117</v>
+        <v>0.9958376690946931</v>
       </c>
       <c r="AJ50">
-        <v>0.9958398335933437</v>
+        <v>0.9958376690946931</v>
       </c>
       <c r="AK50">
-        <v>0.9011960478419136</v>
+        <v>0.9011446409989594</v>
       </c>
       <c r="AL50">
         <v>1</v>
       </c>
       <c r="AM50">
-        <v>0.9911596463858554</v>
+        <v>0.9911550468262227</v>
       </c>
       <c r="AN50">
-        <v>0.9786791471658867</v>
+        <v>0.9786680541103018</v>
       </c>
       <c r="AO50">
-        <v>0.734789391575663</v>
+        <v>0.7346514047866806</v>
       </c>
       <c r="AP50">
-        <v>0.999479979199168</v>
+        <v>0.9994797086368367</v>
       </c>
       <c r="AQ50">
-        <v>0.8632345293811753</v>
+        <v>0.8631633714880333</v>
       </c>
       <c r="AR50">
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>0.9110764430577223</v>
+        <v>0.9110301768990635</v>
       </c>
       <c r="AT50">
-        <v>0.8268330733229329</v>
+        <v>0.8267429760665973</v>
       </c>
       <c r="AU50">
-        <v>0.8393135725429017</v>
+        <v>0.8392299687825182</v>
       </c>
       <c r="AV50">
-        <v>0.8663546541861674</v>
+        <v>0.8662851196670135</v>
       </c>
       <c r="AW50">
-        <v>0.998959958398336</v>
+        <v>0.9989594172736732</v>
       </c>
       <c r="AX50">
-        <v>0.5252210088403536</v>
+        <v>0.5249739854318418</v>
       </c>
       <c r="AY50">
         <v>1</v>
       </c>
       <c r="AZ50">
-        <v>0.9947997919916797</v>
+        <v>0.9947970863683663</v>
       </c>
       <c r="BA50">
-        <v>0.9973998959958398</v>
+        <v>0.9973985431841832</v>
       </c>
       <c r="BB50">
-        <v>0.999479979199168</v>
+        <v>1</v>
       </c>
       <c r="BC50">
         <v>1</v>
       </c>
       <c r="BD50">
-        <v>0.9979199167966719</v>
+        <v>0.9979188345473465</v>
       </c>
       <c r="BE50">
         <v>1</v>
@@ -10116,19 +10116,19 @@
         <v>1</v>
       </c>
       <c r="BG50">
-        <v>0.9552782111284451</v>
+        <v>0.9552549427679501</v>
       </c>
       <c r="BH50">
-        <v>0.8679147165886636</v>
+        <v>0.8678459937565036</v>
       </c>
       <c r="BI50">
-        <v>0.8679147165886636</v>
+        <v>0.8678459937565036</v>
       </c>
       <c r="BJ50">
-        <v>0.9947997919916797</v>
+        <v>0.9947970863683663</v>
       </c>
       <c r="BK50">
-        <v>0.3577743109724389</v>
+        <v>0.3579604578563996</v>
       </c>
     </row>
     <row r="51">
@@ -10138,19 +10138,19 @@
         </is>
       </c>
       <c r="B51">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0.4435028248587571</v>
+        <v>0.4439208294062206</v>
       </c>
       <c r="E51">
-        <v>0.9981167608286252</v>
+        <v>0.998114985862394</v>
       </c>
       <c r="F51">
-        <v>0.9463276836158192</v>
+        <v>0.946277097078228</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -10213,19 +10213,19 @@
         <v>0</v>
       </c>
       <c r="AA51">
-        <v>0.7203389830508474</v>
+        <v>0.7210179076343073</v>
       </c>
       <c r="AB51">
-        <v>0.7137476459510358</v>
+        <v>0.7144203581526861</v>
       </c>
       <c r="AC51">
-        <v>0.9001883239171374</v>
+        <v>0.9000942507068803</v>
       </c>
       <c r="AD51">
-        <v>0.7052730696798494</v>
+        <v>0.705937794533459</v>
       </c>
       <c r="AE51">
-        <v>0.724105461393597</v>
+        <v>0.7247879359095193</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -10237,10 +10237,10 @@
         <v>1</v>
       </c>
       <c r="AI51">
-        <v>0.9981167608286252</v>
+        <v>0.998114985862394</v>
       </c>
       <c r="AJ51">
-        <v>0.9943502824858758</v>
+        <v>0.9943449575871819</v>
       </c>
       <c r="AK51">
         <v>0</v>
@@ -10249,58 +10249,58 @@
         <v>1</v>
       </c>
       <c r="AM51">
-        <v>0.9934086629001884</v>
+        <v>0.9934024505183789</v>
       </c>
       <c r="AN51">
-        <v>0.980225988700565</v>
+        <v>0.9802073515551367</v>
       </c>
       <c r="AO51">
-        <v>0.6581920903954802</v>
+        <v>0.6578699340245052</v>
       </c>
       <c r="AP51">
         <v>1</v>
       </c>
       <c r="AQ51">
-        <v>0.8540489642184558</v>
+        <v>0.8539114043355325</v>
       </c>
       <c r="AR51">
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>0.9190207156308852</v>
+        <v>0.9189443920829407</v>
       </c>
       <c r="AT51">
-        <v>0.8097928436911488</v>
+        <v>0.8096135721017907</v>
       </c>
       <c r="AU51">
-        <v>0.835216572504708</v>
+        <v>0.8350612629594723</v>
       </c>
       <c r="AV51">
-        <v>0.8314500941619586</v>
+        <v>0.8312912346842601</v>
       </c>
       <c r="AW51">
-        <v>0.9990583804143126</v>
+        <v>0.9990574929311969</v>
       </c>
       <c r="AX51">
-        <v>0.5433145009416196</v>
+        <v>0.5428840716305372</v>
       </c>
       <c r="AY51">
-        <v>0.9566854990583804</v>
+        <v>0.9566446748350612</v>
       </c>
       <c r="AZ51">
-        <v>0.9858757062146892</v>
+        <v>0.9858623939679547</v>
       </c>
       <c r="BA51">
         <v>1</v>
       </c>
       <c r="BB51">
-        <v>0.9990583804143126</v>
+        <v>1</v>
       </c>
       <c r="BC51">
         <v>1</v>
       </c>
       <c r="BD51">
-        <v>0.9990583804143126</v>
+        <v>0.9990574929311969</v>
       </c>
       <c r="BE51">
         <v>1</v>
@@ -10318,10 +10318,10 @@
         <v>0</v>
       </c>
       <c r="BJ51">
-        <v>0.9839924670433146</v>
+        <v>0.9839773798303487</v>
       </c>
       <c r="BK51">
-        <v>0.3549905838041431</v>
+        <v>0.354382657869934</v>
       </c>
     </row>
     <row r="52">
@@ -10331,25 +10331,25 @@
         </is>
       </c>
       <c r="B52">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C52">
-        <v>0.9347014925373134</v>
+        <v>0.9345794392523364</v>
       </c>
       <c r="D52">
-        <v>0.4421641791044776</v>
+        <v>0.4411214953271028</v>
       </c>
       <c r="E52">
-        <v>0.9981343283582089</v>
+        <v>0.9981308411214953</v>
       </c>
       <c r="F52">
-        <v>0.9664179104477612</v>
+        <v>0.9663551401869159</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>0.9869402985074627</v>
+        <v>0.9869158878504672</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -10367,64 +10367,64 @@
         <v>1</v>
       </c>
       <c r="N52">
-        <v>0.9496268656716418</v>
+        <v>0.9495327102803738</v>
       </c>
       <c r="O52">
-        <v>0.9496268656716418</v>
+        <v>0.9495327102803738</v>
       </c>
       <c r="P52">
-        <v>0.9477611940298507</v>
+        <v>0.9476635514018692</v>
       </c>
       <c r="Q52">
         <v>1</v>
       </c>
       <c r="R52">
-        <v>0.9981343283582089</v>
+        <v>0.9981308411214953</v>
       </c>
       <c r="S52">
-        <v>0.9384328358208955</v>
+        <v>0.9383177570093458</v>
       </c>
       <c r="T52">
-        <v>0.9645522388059702</v>
+        <v>0.9644859813084112</v>
       </c>
       <c r="U52">
-        <v>0.9589552238805971</v>
+        <v>0.9588785046728971</v>
       </c>
       <c r="V52">
-        <v>0.9682835820895522</v>
+        <v>0.9682242990654205</v>
       </c>
       <c r="W52">
-        <v>0.9477611940298507</v>
+        <v>0.9476635514018692</v>
       </c>
       <c r="X52">
-        <v>0.9477611940298507</v>
+        <v>0.9476635514018692</v>
       </c>
       <c r="Y52">
-        <v>0.1940298507462687</v>
+        <v>0.194392523364486</v>
       </c>
       <c r="Z52">
-        <v>0.8339552238805971</v>
+        <v>0.8336448598130841</v>
       </c>
       <c r="AA52">
-        <v>0.7388059701492538</v>
+        <v>0.7383177570093458</v>
       </c>
       <c r="AB52">
-        <v>0.7145522388059702</v>
+        <v>0.7158878504672898</v>
       </c>
       <c r="AC52">
-        <v>0.875</v>
+        <v>0.8766355140186916</v>
       </c>
       <c r="AD52">
-        <v>0.7052238805970149</v>
+        <v>0.7065420560747664</v>
       </c>
       <c r="AE52">
-        <v>0.7145522388059702</v>
+        <v>0.7158878504672898</v>
       </c>
       <c r="AF52">
-        <v>0.996268656716418</v>
+        <v>0.9962616822429906</v>
       </c>
       <c r="AG52">
-        <v>0.9477611940298507</v>
+        <v>0.9476635514018692</v>
       </c>
       <c r="AH52">
         <v>1</v>
@@ -10433,67 +10433,67 @@
         <v>1</v>
       </c>
       <c r="AJ52">
-        <v>0.9981343283582089</v>
+        <v>0.9981308411214953</v>
       </c>
       <c r="AK52">
-        <v>0.9365671641791045</v>
+        <v>0.9364485981308411</v>
       </c>
       <c r="AL52">
         <v>1</v>
       </c>
       <c r="AM52">
-        <v>0.9925373134328358</v>
+        <v>0.9925233644859813</v>
       </c>
       <c r="AN52">
-        <v>0.9832089552238806</v>
+        <v>0.983177570093458</v>
       </c>
       <c r="AO52">
-        <v>0.707089552238806</v>
+        <v>0.7065420560747664</v>
       </c>
       <c r="AP52">
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>0.8152985074626866</v>
+        <v>0.8168224299065421</v>
       </c>
       <c r="AR52">
         <v>1</v>
       </c>
       <c r="AS52">
-        <v>0.8824626865671642</v>
+        <v>0.8841121495327103</v>
       </c>
       <c r="AT52">
-        <v>0.753731343283582</v>
+        <v>0.7551401869158878</v>
       </c>
       <c r="AU52">
-        <v>0.7723880597014925</v>
+        <v>0.7738317757009345</v>
       </c>
       <c r="AV52">
-        <v>0.8414179104477612</v>
+        <v>0.8411214953271028</v>
       </c>
       <c r="AW52">
         <v>1</v>
       </c>
       <c r="AX52">
-        <v>0.5317164179104478</v>
+        <v>0.5308411214953271</v>
       </c>
       <c r="AY52">
         <v>1</v>
       </c>
       <c r="AZ52">
-        <v>0.9981343283582089</v>
+        <v>0.9981308411214953</v>
       </c>
       <c r="BA52">
-        <v>0.996268656716418</v>
+        <v>0.9962616822429906</v>
       </c>
       <c r="BB52">
-        <v>0.9981343283582089</v>
+        <v>1</v>
       </c>
       <c r="BC52">
         <v>1</v>
       </c>
       <c r="BD52">
-        <v>0.996268656716418</v>
+        <v>0.9962616822429906</v>
       </c>
       <c r="BE52">
         <v>1</v>
@@ -10502,19 +10502,19 @@
         <v>1</v>
       </c>
       <c r="BG52">
-        <v>0.9552238805970149</v>
+        <v>0.9551401869158879</v>
       </c>
       <c r="BH52">
-        <v>0.960820895522388</v>
+        <v>0.9607476635514018</v>
       </c>
       <c r="BI52">
-        <v>0.9589552238805971</v>
+        <v>0.9588785046728971</v>
       </c>
       <c r="BJ52">
-        <v>0.996268656716418</v>
+        <v>0.9962616822429906</v>
       </c>
       <c r="BK52">
-        <v>0.373134328358209</v>
+        <v>0.3719626168224299</v>
       </c>
     </row>
     <row r="53">
@@ -10717,25 +10717,25 @@
         </is>
       </c>
       <c r="B54">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C54">
-        <v>0.9056603773584906</v>
+        <v>0.9054820415879017</v>
       </c>
       <c r="D54">
-        <v>0.5264150943396226</v>
+        <v>0.5255198487712666</v>
       </c>
       <c r="E54">
-        <v>0.9943396226415094</v>
+        <v>0.994328922495274</v>
       </c>
       <c r="F54">
-        <v>0.9471698113207547</v>
+        <v>0.947069943289225</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>0.9905660377358491</v>
+        <v>0.9905482041587902</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -10744,22 +10744,22 @@
         <v>1</v>
       </c>
       <c r="K54">
-        <v>0.9981132075471698</v>
+        <v>0.998109640831758</v>
       </c>
       <c r="L54">
         <v>0</v>
       </c>
       <c r="M54">
-        <v>0.9981132075471698</v>
+        <v>0.998109640831758</v>
       </c>
       <c r="N54">
-        <v>0.9339622641509434</v>
+        <v>0.9338374291115312</v>
       </c>
       <c r="O54">
-        <v>0.9320754716981132</v>
+        <v>0.9319470699432892</v>
       </c>
       <c r="P54">
-        <v>0.9358490566037736</v>
+        <v>0.9357277882797732</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -10768,112 +10768,112 @@
         <v>1</v>
       </c>
       <c r="S54">
-        <v>0.9188679245283019</v>
+        <v>0.9187145557655955</v>
       </c>
       <c r="T54">
-        <v>0.9811320754716981</v>
+        <v>0.9810964083175804</v>
       </c>
       <c r="U54">
-        <v>0.9528301886792453</v>
+        <v>0.9527410207939508</v>
       </c>
       <c r="V54">
-        <v>0.9886792452830189</v>
+        <v>0.9886578449905482</v>
       </c>
       <c r="W54">
-        <v>0.9377358490566038</v>
+        <v>0.9376181474480151</v>
       </c>
       <c r="X54">
-        <v>0.9377358490566038</v>
+        <v>0.9376181474480151</v>
       </c>
       <c r="Y54">
-        <v>0.2509433962264151</v>
+        <v>0.2495274102079395</v>
       </c>
       <c r="Z54">
-        <v>0.7924528301886793</v>
+        <v>0.7920604914933838</v>
       </c>
       <c r="AA54">
-        <v>0.6566037735849056</v>
+        <v>0.6559546313799622</v>
       </c>
       <c r="AB54">
-        <v>0.6075471698113207</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="AC54">
-        <v>0.8584905660377359</v>
+        <v>0.8582230623818525</v>
       </c>
       <c r="AD54">
-        <v>0.5849056603773585</v>
+        <v>0.5860113421550095</v>
       </c>
       <c r="AE54">
-        <v>0.6150943396226415</v>
+        <v>0.6162570888468809</v>
       </c>
       <c r="AF54">
-        <v>0.9924528301886792</v>
+        <v>0.9924385633270322</v>
       </c>
       <c r="AG54">
-        <v>0.930188679245283</v>
+        <v>0.9300567107750473</v>
       </c>
       <c r="AH54">
-        <v>0.9981132075471698</v>
+        <v>0.998109640831758</v>
       </c>
       <c r="AI54">
         <v>1</v>
       </c>
       <c r="AJ54">
-        <v>0.9924528301886792</v>
+        <v>0.9924385633270322</v>
       </c>
       <c r="AK54">
-        <v>0.939622641509434</v>
+        <v>0.9395085066162571</v>
       </c>
       <c r="AL54">
         <v>1</v>
       </c>
       <c r="AM54">
-        <v>0.9905660377358491</v>
+        <v>0.9905482041587902</v>
       </c>
       <c r="AN54">
-        <v>0.9735849056603774</v>
+        <v>0.9735349716446124</v>
       </c>
       <c r="AO54">
-        <v>0.7188679245283018</v>
+        <v>0.718336483931947</v>
       </c>
       <c r="AP54">
-        <v>0.9981132075471698</v>
+        <v>0.998109640831758</v>
       </c>
       <c r="AQ54">
-        <v>0.7641509433962265</v>
+        <v>0.7655954631379962</v>
       </c>
       <c r="AR54">
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>0.8660377358490566</v>
+        <v>0.8657844990548205</v>
       </c>
       <c r="AT54">
-        <v>0.6886792452830188</v>
+        <v>0.6899810964083176</v>
       </c>
       <c r="AU54">
-        <v>0.7132075471698113</v>
+        <v>0.7145557655954632</v>
       </c>
       <c r="AV54">
-        <v>0.7584905660377359</v>
+        <v>0.7580340264650284</v>
       </c>
       <c r="AW54">
-        <v>0.9981132075471698</v>
+        <v>0.998109640831758</v>
       </c>
       <c r="AX54">
-        <v>0.5924528301886792</v>
+        <v>0.5916824196597353</v>
       </c>
       <c r="AY54">
         <v>1</v>
       </c>
       <c r="AZ54">
-        <v>0.9886792452830189</v>
+        <v>0.9886578449905482</v>
       </c>
       <c r="BA54">
-        <v>0.9981132075471698</v>
+        <v>0.998109640831758</v>
       </c>
       <c r="BB54">
-        <v>0.9981132075471698</v>
+        <v>1</v>
       </c>
       <c r="BC54">
         <v>1</v>
@@ -10888,19 +10888,19 @@
         <v>1</v>
       </c>
       <c r="BG54">
-        <v>0.9490566037735849</v>
+        <v>0.9489603024574669</v>
       </c>
       <c r="BH54">
-        <v>0.9509433962264151</v>
+        <v>0.9508506616257089</v>
       </c>
       <c r="BI54">
-        <v>0.9509433962264151</v>
+        <v>0.9508506616257089</v>
       </c>
       <c r="BJ54">
-        <v>0.9886792452830189</v>
+        <v>0.9886578449905482</v>
       </c>
       <c r="BK54">
-        <v>0.4528301886792453</v>
+        <v>0.4517958412098299</v>
       </c>
     </row>
     <row r="55">
@@ -10910,25 +10910,25 @@
         </is>
       </c>
       <c r="B55">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="C55">
-        <v>0.9594689028651293</v>
+        <v>0.9594121763470959</v>
       </c>
       <c r="D55">
-        <v>0.336827393431167</v>
+        <v>0.3358992302309307</v>
       </c>
       <c r="E55">
-        <v>0.9972047519217331</v>
+        <v>0.9972008397480756</v>
       </c>
       <c r="F55">
-        <v>0.9594689028651293</v>
+        <v>0.9594121763470959</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>0.9811320754716981</v>
+        <v>0.9811056682995102</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -10943,7 +10943,7 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>0.9979035639412998</v>
+        <v>0.9979006298110566</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -10958,19 +10958,19 @@
         <v>1</v>
       </c>
       <c r="R55">
-        <v>0.9853249475890985</v>
+        <v>0.9853044086773968</v>
       </c>
       <c r="S55">
-        <v>0.9699510831586303</v>
+        <v>0.9699090272918125</v>
       </c>
       <c r="T55">
-        <v>0.9273235499650594</v>
+        <v>0.927221833449965</v>
       </c>
       <c r="U55">
         <v>0</v>
       </c>
       <c r="V55">
-        <v>0.9790356394129979</v>
+        <v>0.9790062981105668</v>
       </c>
       <c r="W55">
         <v>0</v>
@@ -10979,28 +10979,28 @@
         <v>0</v>
       </c>
       <c r="Y55">
-        <v>0.1900768693221523</v>
+        <v>0.1903428971308607</v>
       </c>
       <c r="Z55">
-        <v>0.827393431167016</v>
+        <v>0.8278516445066481</v>
       </c>
       <c r="AA55">
-        <v>0.7274633123689728</v>
+        <v>0.7270818754373688</v>
       </c>
       <c r="AB55">
-        <v>0.6995108315863033</v>
+        <v>0.6990902729181245</v>
       </c>
       <c r="AC55">
-        <v>0.8553459119496856</v>
+        <v>0.8551434569629112</v>
       </c>
       <c r="AD55">
-        <v>0.689727463312369</v>
+        <v>0.689293212036389</v>
       </c>
       <c r="AE55">
-        <v>0.7120894479385046</v>
+        <v>0.7116864940517844</v>
       </c>
       <c r="AF55">
-        <v>0.9790356394129979</v>
+        <v>0.9790062981105668</v>
       </c>
       <c r="AG55">
         <v>0</v>
@@ -11012,67 +11012,67 @@
         <v>1</v>
       </c>
       <c r="AJ55">
-        <v>0.9951083158630328</v>
+        <v>0.9951014695591323</v>
       </c>
       <c r="AK55">
-        <v>0.8770090845562544</v>
+        <v>0.8768369489153254</v>
       </c>
       <c r="AL55">
         <v>1</v>
       </c>
       <c r="AM55">
-        <v>0.9930118798043326</v>
+        <v>0.9930020993701889</v>
       </c>
       <c r="AN55">
-        <v>0.9937106918238994</v>
+        <v>0.9937018894331701</v>
       </c>
       <c r="AO55">
-        <v>0.7239692522711391</v>
+        <v>0.7242827151854444</v>
       </c>
       <c r="AP55">
-        <v>0.9993011879804332</v>
+        <v>0.9993002099370188</v>
       </c>
       <c r="AQ55">
-        <v>0.8371767994409504</v>
+        <v>0.8369489153254024</v>
       </c>
       <c r="AR55">
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>0.8951781970649895</v>
+        <v>0.8950314905528342</v>
       </c>
       <c r="AT55">
-        <v>0.7742837176799441</v>
+        <v>0.7739678096571029</v>
       </c>
       <c r="AU55">
-        <v>0.8008385744234801</v>
+        <v>0.8005598320503848</v>
       </c>
       <c r="AV55">
-        <v>0.8497554157931516</v>
+        <v>0.8495451364590623</v>
       </c>
       <c r="AW55">
-        <v>0.9979035639412998</v>
+        <v>0.9979006298110566</v>
       </c>
       <c r="AX55">
-        <v>0.543675751222921</v>
+        <v>0.5437368789363191</v>
       </c>
       <c r="AY55">
         <v>1</v>
       </c>
       <c r="AZ55">
-        <v>0.9951083158630328</v>
+        <v>0.9951014695591323</v>
       </c>
       <c r="BA55">
-        <v>0.9979035639412998</v>
+        <v>0.9979006298110566</v>
       </c>
       <c r="BB55">
-        <v>0.9986023759608665</v>
+        <v>1</v>
       </c>
       <c r="BC55">
         <v>1</v>
       </c>
       <c r="BD55">
-        <v>0.9972047519217331</v>
+        <v>0.9972008397480756</v>
       </c>
       <c r="BE55">
         <v>1</v>
@@ -11081,7 +11081,7 @@
         <v>1</v>
       </c>
       <c r="BG55">
-        <v>0.9468902865129281</v>
+        <v>0.947515745276417</v>
       </c>
       <c r="BH55">
         <v>0</v>
@@ -11090,10 +11090,10 @@
         <v>0</v>
       </c>
       <c r="BJ55">
-        <v>0.9958071278825996</v>
+        <v>0.9958012596221134</v>
       </c>
       <c r="BK55">
-        <v>0.4269741439552761</v>
+        <v>0.4275717284814556</v>
       </c>
     </row>
     <row r="56">
@@ -12068,25 +12068,25 @@
         </is>
       </c>
       <c r="B61">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C61">
-        <v>0.9387222946544981</v>
+        <v>0.9384816753926701</v>
       </c>
       <c r="D61">
-        <v>0.3533246414602347</v>
+        <v>0.3520942408376964</v>
       </c>
       <c r="E61">
-        <v>0.9986962190352021</v>
+        <v>0.9986910994764397</v>
       </c>
       <c r="F61">
-        <v>0.9530638852672751</v>
+        <v>0.9528795811518325</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>0.9739243807040417</v>
+        <v>0.9738219895287958</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -12104,64 +12104,64 @@
         <v>1</v>
       </c>
       <c r="N61">
-        <v>0.9556714471968709</v>
+        <v>0.9554973821989529</v>
       </c>
       <c r="O61">
-        <v>0.9517601043024772</v>
+        <v>0.9515706806282722</v>
       </c>
       <c r="P61">
-        <v>0.9517601043024772</v>
+        <v>0.9515706806282722</v>
       </c>
       <c r="Q61">
         <v>1</v>
       </c>
       <c r="R61">
-        <v>0.9986962190352021</v>
+        <v>0.9986910994764397</v>
       </c>
       <c r="S61">
-        <v>0.9478487614080835</v>
+        <v>0.9476439790575916</v>
       </c>
       <c r="T61">
-        <v>0.9269882659713168</v>
+        <v>0.9267015706806283</v>
       </c>
       <c r="U61">
-        <v>0.9569752281616688</v>
+        <v>0.9568062827225131</v>
       </c>
       <c r="V61">
-        <v>0.9778357235984355</v>
+        <v>0.9777486910994765</v>
       </c>
       <c r="W61">
-        <v>0.9582790091264668</v>
+        <v>0.9581151832460733</v>
       </c>
       <c r="X61">
-        <v>0.9569752281616688</v>
+        <v>0.9568062827225131</v>
       </c>
       <c r="Y61">
-        <v>0.1720990873533246</v>
+        <v>0.1714659685863874</v>
       </c>
       <c r="Z61">
-        <v>0.8265971316818774</v>
+        <v>0.8272251308900523</v>
       </c>
       <c r="AA61">
-        <v>0.7183833116036505</v>
+        <v>0.7198952879581152</v>
       </c>
       <c r="AB61">
-        <v>0.6962190352020861</v>
+        <v>0.6976439790575916</v>
       </c>
       <c r="AC61">
-        <v>0.8670143415906127</v>
+        <v>0.8678010471204188</v>
       </c>
       <c r="AD61">
-        <v>0.6870925684485006</v>
+        <v>0.6884816753926701</v>
       </c>
       <c r="AE61">
-        <v>0.7092568448500652</v>
+        <v>0.7107329842931938</v>
       </c>
       <c r="AF61">
-        <v>0.9973924380704041</v>
+        <v>0.9973821989528796</v>
       </c>
       <c r="AG61">
-        <v>0.954367666232073</v>
+        <v>0.9541884816753927</v>
       </c>
       <c r="AH61">
         <v>1</v>
@@ -12170,67 +12170,67 @@
         <v>1</v>
       </c>
       <c r="AJ61">
-        <v>0.9908735332464146</v>
+        <v>0.9908376963350786</v>
       </c>
       <c r="AK61">
-        <v>0.8970013037809648</v>
+        <v>0.8965968586387435</v>
       </c>
       <c r="AL61">
         <v>1</v>
       </c>
       <c r="AM61">
-        <v>0.9947848761408083</v>
+        <v>0.9947643979057592</v>
       </c>
       <c r="AN61">
-        <v>0.9817470664928292</v>
+        <v>0.981675392670157</v>
       </c>
       <c r="AO61">
-        <v>0.7249022164276402</v>
+        <v>0.7238219895287958</v>
       </c>
       <c r="AP61">
         <v>1</v>
       </c>
       <c r="AQ61">
-        <v>0.8096479791395046</v>
+        <v>0.8102094240837696</v>
       </c>
       <c r="AR61">
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>0.9152542372881356</v>
+        <v>0.9149214659685864</v>
       </c>
       <c r="AT61">
-        <v>0.771838331160365</v>
+        <v>0.7722513089005235</v>
       </c>
       <c r="AU61">
-        <v>0.7913950456323338</v>
+        <v>0.7905759162303665</v>
       </c>
       <c r="AV61">
-        <v>0.8083441981747066</v>
+        <v>0.8089005235602095</v>
       </c>
       <c r="AW61">
-        <v>0.9986962190352021</v>
+        <v>0.9986910994764397</v>
       </c>
       <c r="AX61">
-        <v>0.5097783572359843</v>
+        <v>0.5091623036649214</v>
       </c>
       <c r="AY61">
         <v>1</v>
       </c>
       <c r="AZ61">
-        <v>0.9934810951760105</v>
+        <v>0.993455497382199</v>
       </c>
       <c r="BA61">
         <v>1</v>
       </c>
       <c r="BB61">
-        <v>0.9960886571056062</v>
+        <v>1</v>
       </c>
       <c r="BC61">
         <v>1</v>
       </c>
       <c r="BD61">
-        <v>0.9986962190352021</v>
+        <v>0.9986910994764397</v>
       </c>
       <c r="BE61">
         <v>1</v>
@@ -12239,19 +12239,19 @@
         <v>1</v>
       </c>
       <c r="BG61">
-        <v>0.9478487614080835</v>
+        <v>0.9476439790575916</v>
       </c>
       <c r="BH61">
-        <v>0.9608865710560626</v>
+        <v>0.9607329842931938</v>
       </c>
       <c r="BI61">
-        <v>0.9608865710560626</v>
+        <v>0.9607329842931938</v>
       </c>
       <c r="BJ61">
-        <v>0.9908735332464146</v>
+        <v>0.9908376963350786</v>
       </c>
       <c r="BK61">
-        <v>0.39374185136897</v>
+        <v>0.3926701570680629</v>
       </c>
     </row>
   </sheetData>
